--- a/me/15.Async-Apex.xlsx
+++ b/me/15.Async-Apex.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897DA0D5-C704-4784-B856-742B892D5A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F52053-7431-469A-B859-BFED73A19F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Future Methods" sheetId="1" r:id="rId1"/>
+    <sheet name="Batch Apex" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
   <si>
     <t xml:space="preserve">Future methods are the most used async features on salesforce platform. We can use future methods to separate into 2 different transactions. That means there will be a separate async </t>
   </si>
@@ -427,6 +428,144 @@
   </si>
   <si>
     <t>1.async-future-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Apex is the second most common used async feature. Batch Apex is the best tool when we want to operate over millions and millions of records, because this Batch Apex divides our </t>
+  </si>
+  <si>
+    <t>records into smaller chunks or batches and then it operates over those batches. So whenever we are talking about mullions of records, Batch Apex is the tool for us.</t>
+  </si>
+  <si>
+    <t>Batch Apex can be scheduled, so we can run these batch jobs as per our schedule something like may be weekly once or daily once. To define a Batch Apex, we need to implement Database.Batchable</t>
+  </si>
+  <si>
+    <t>This interface comes with three methods are start, execute and finish.</t>
+  </si>
+  <si>
+    <t>Giả sử ở start query được 50000 records, điều đó có nghĩa là batch scope có 50000 records và nếu batch size là 2000 thì execute method sẽ được thực thi 25 lần</t>
+  </si>
+  <si>
+    <t>start và finish chỉ được thực thi 1 lần còn execute method thì có thể được thực thi nhiều lần. Trong finish method có thể thực hiện gọi batch khác hoặc send mail báo rằng batch đã thực thi xong</t>
+  </si>
+  <si>
+    <t>2.async-batch-apex</t>
+  </si>
+  <si>
+    <t>LeadBatch.apxc</t>
+  </si>
+  <si>
+    <t>public class LeadBatch implements Database.Batchable&lt;SObject&gt; {</t>
+  </si>
+  <si>
+    <t>    /**</t>
+  </si>
+  <si>
+    <t>     * Start Method</t>
+  </si>
+  <si>
+    <t>     * Executes only once</t>
+  </si>
+  <si>
+    <t>     * Return batch scope or records</t>
+  </si>
+  <si>
+    <t>     * Can return upto 50 million records</t>
+  </si>
+  <si>
+    <t>     * */</t>
+  </si>
+  <si>
+    <t>    public Database.QueryLocator start(Database.BatchableContext BC){</t>
+  </si>
+  <si>
+    <t>        return Database.getQueryLocator('SELECT Id, LeadSource FROM Lead');</t>
+  </si>
+  <si>
+    <t>     * Execute Method</t>
+  </si>
+  <si>
+    <t>     * Executes for each batch/chunk of records</t>
+  </si>
+  <si>
+    <t>     * Must have void return type</t>
+  </si>
+  <si>
+    <t>     * Each execution will get new set of governor limits</t>
+  </si>
+  <si>
+    <t>    public void execute(Database.BatchableContext BC, List&lt;Lead&gt; scope){</t>
+  </si>
+  <si>
+    <t>        for(Lead leadRecord : scope){</t>
+  </si>
+  <si>
+    <t>            leadRecord.LeadSource = 'Web batch';</t>
+  </si>
+  <si>
+    <t>        update scope;</t>
+  </si>
+  <si>
+    <t>     * Finish Method</t>
+  </si>
+  <si>
+    <t>     * Called after all batches are processed</t>
+  </si>
+  <si>
+    <t>     * Can be used for post processing</t>
+  </si>
+  <si>
+    <t>    public void finish(Database.BatchableContext BC){</t>
+  </si>
+  <si>
+    <t>        System.debug('Batch finished');</t>
+  </si>
+  <si>
+    <t>salesforce\15.Async-Apex\2.async-batch-apex\LeadBatch.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\15.Async-Apex\2.async-batch-apex\dev-console.txt</t>
+  </si>
+  <si>
+    <t>LeadBatch leadBatchInstance = new LeadBatch();</t>
+  </si>
+  <si>
+    <t>// calling with a batch size 50</t>
+  </si>
+  <si>
+    <t>Database.executeBatch(leadBatchInstance, 50);</t>
+  </si>
+  <si>
+    <t>// calling with a batch size 2000</t>
+  </si>
+  <si>
+    <t>Database.executeBatch(leadBatchInstance, 2000);</t>
+  </si>
+  <si>
+    <t>// calling with default batch size 200</t>
+  </si>
+  <si>
+    <t>Database.executeBatch(leadBatchInstance);</t>
+  </si>
+  <si>
+    <t>①batch size 50</t>
+  </si>
+  <si>
+    <t>SELECT Id, LeadSource, CreatedDate FROM Lead</t>
+  </si>
+  <si>
+    <t>There are 21 execute methods that were called</t>
+  </si>
+  <si>
+    <t>Tổng record có là 1045, batch size được set là 2000 nên chỉ cần 1 execute là thực thi được hết</t>
+  </si>
+  <si>
+    <t>②batch size 2000</t>
+  </si>
+  <si>
+    <t>③batch size default is 200</t>
+  </si>
+  <si>
+    <t>20*50 + 45 =  1045(21 execute)</t>
   </si>
 </sst>
 </file>
@@ -463,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -551,11 +690,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -567,7 +808,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,6 +1885,1257 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4D2234-B4A1-0B89-3BBC-94D02A6E07F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719418" y="876301"/>
+          <a:ext cx="11024347" cy="3809160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>89378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADB9DDD-259F-F05A-AF26-A09158BD4D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704851" y="5600700"/>
+          <a:ext cx="11146491" cy="6299678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EE450F-5687-BFD7-3A10-AC782B6E8D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="5514975"/>
+          <a:ext cx="676275" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C27007-6E49-5CED-E6C9-AD1DFDC15E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="5476875"/>
+          <a:ext cx="5257800" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98270770-E602-98D0-22ED-CBDB6DC61ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="12449175"/>
+          <a:ext cx="11220450" cy="5723521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7AB192-E9D4-0DD7-7114-B5EBF8658235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1181100" y="6877050"/>
+          <a:ext cx="1028700" cy="7115175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A0AD1E-9153-FE11-C8C6-7A7A3A54E3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1171575" y="15011400"/>
+          <a:ext cx="6419850" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A90346-162A-BFAC-4C8B-AE7F8084445D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="14077950"/>
+          <a:ext cx="1190625" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132150C5-B12D-07DD-8EF9-82BDC5E8500D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5743575" y="14649450"/>
+          <a:ext cx="1809750" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F8D47D-3690-0985-5542-45E7B99181C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4981575" y="5124450"/>
+          <a:ext cx="6324600" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304007</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>152151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC1961C-12D3-1B20-C58C-099195937B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="47501175"/>
+          <a:ext cx="6342857" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130317</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355456</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>69874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6DCAC3-E23A-1ED5-959C-04202F089354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739917" y="49796699"/>
+          <a:ext cx="9978739" cy="4565675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5763CCA-4F0C-A0CE-D7B8-C09CDEE52B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="49682400"/>
+          <a:ext cx="1590675" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>66507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65091F6-8AC9-D0D3-3788-A856575F8CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="54921150"/>
+          <a:ext cx="10106026" cy="4009857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3345C5E2-3C82-5C57-C091-F4B633014258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="59778900"/>
+          <a:ext cx="333375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>109712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A4020B-DD3E-0A31-52D0-5F97DF667848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="54568725"/>
+          <a:ext cx="10029825" cy="4405487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFDB0C7-8706-A95E-232B-87425654C5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3152775" y="48501300"/>
+          <a:ext cx="1009650" cy="7753350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9E4897-6D42-7C24-99DC-BC798F52E1B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="40386000"/>
+          <a:ext cx="1504950" cy="19945350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E988737-D88A-C76E-2854-6CCC911383D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="952500" y="56407050"/>
+          <a:ext cx="2181225" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA3B2C7-07E6-4A35-E2B4-16023524499A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1771650" y="53835300"/>
+          <a:ext cx="1171575" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>96464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1C289D-D0D3-58FB-451B-D74A8791D8D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="65408176"/>
+          <a:ext cx="10534650" cy="4411288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142027</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>171223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7FFE57-96BA-3152-CB40-552785B38741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="71504175"/>
+          <a:ext cx="6780952" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>45081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF766B24-91E1-6A38-3192-86C6F85217AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="73437751"/>
+          <a:ext cx="10715625" cy="4902830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D19795-E6AF-17D6-D454-14D12C747DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="70437375"/>
+          <a:ext cx="1171575" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB51924E-6025-740A-8D96-D7FE05E024E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="65484375"/>
+          <a:ext cx="1409700" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1899,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AE370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,32 +4314,33 @@
         <v>121</v>
       </c>
     </row>
+    <row r="157" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="3"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="13"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="2" t="s">
         <v>114</v>
       </c>
@@ -2858,10 +4361,10 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="3"/>
-      <c r="T159" s="5"/>
+      <c r="T159" s="15"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="1" t="s">
         <v>107</v>
       </c>
@@ -2879,26 +4382,26 @@
         <v>116</v>
       </c>
       <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
+      <c r="T160" s="15"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
+      <c r="A161" s="16"/>
       <c r="B161" s="4"/>
       <c r="I161" s="5"/>
       <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
+      <c r="T161" s="15"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
+      <c r="A162" s="16"/>
       <c r="B162" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I162" s="5"/>
       <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
+      <c r="T162" s="15"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="7" t="s">
         <v>109</v>
       </c>
@@ -2916,218 +4419,218 @@
         <v>117</v>
       </c>
       <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
+      <c r="T163" s="15"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="16"/>
       <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
+      <c r="T164" s="15"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
+      <c r="A165" s="16"/>
       <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
+      <c r="T165" s="15"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
+      <c r="A166" s="16"/>
       <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
+      <c r="T166" s="15"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
+      <c r="A167" s="16"/>
       <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
+      <c r="T167" s="15"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
+      <c r="A168" s="16"/>
       <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
+      <c r="T168" s="15"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="A169" s="16"/>
       <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
+      <c r="T169" s="15"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
+      <c r="A170" s="16"/>
       <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
+      <c r="T170" s="15"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
+      <c r="A171" s="16"/>
       <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
+      <c r="T171" s="15"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
+      <c r="A172" s="16"/>
       <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
+      <c r="T172" s="15"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
+      <c r="A173" s="16"/>
       <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
+      <c r="T173" s="15"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
+      <c r="A174" s="16"/>
       <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
+      <c r="T174" s="15"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
+      <c r="A175" s="16"/>
       <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
+      <c r="T175" s="15"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
+      <c r="A176" s="16"/>
       <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
+      <c r="T176" s="15"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
+      <c r="A177" s="16"/>
       <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
+      <c r="T177" s="15"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
+      <c r="A178" s="16"/>
       <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
+      <c r="T178" s="15"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
+      <c r="A179" s="16"/>
       <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
+      <c r="T179" s="15"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
+      <c r="A180" s="16"/>
       <c r="B180" t="s">
         <v>115</v>
       </c>
       <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
+      <c r="T180" s="15"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
+      <c r="A181" s="16"/>
       <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
+      <c r="T181" s="15"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
+      <c r="A182" s="16"/>
       <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
+      <c r="T182" s="15"/>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
+      <c r="A183" s="16"/>
       <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
+      <c r="T183" s="15"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
+      <c r="A184" s="16"/>
       <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
+      <c r="T184" s="15"/>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
+      <c r="A185" s="16"/>
       <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
+      <c r="T185" s="15"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
+      <c r="A186" s="16"/>
       <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
+      <c r="T186" s="15"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
+      <c r="A187" s="16"/>
       <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
+      <c r="T187" s="15"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
+      <c r="A188" s="16"/>
       <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
+      <c r="T188" s="15"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
+      <c r="A189" s="16"/>
       <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
+      <c r="T189" s="15"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
+      <c r="A190" s="16"/>
       <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
+      <c r="T190" s="15"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
+      <c r="A191" s="16"/>
       <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
+      <c r="T191" s="15"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
+      <c r="A192" s="16"/>
       <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
+      <c r="T192" s="15"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
+      <c r="A193" s="16"/>
       <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
+      <c r="T193" s="15"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
+      <c r="A194" s="16"/>
       <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
+      <c r="T194" s="15"/>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
+      <c r="A195" s="16"/>
       <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
+      <c r="T195" s="15"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
+      <c r="A196" s="16"/>
       <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
+      <c r="T196" s="15"/>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
+      <c r="A197" s="16"/>
       <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
+      <c r="T197" s="15"/>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
+      <c r="A198" s="16"/>
       <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
+      <c r="T198" s="15"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
+      <c r="A199" s="16"/>
       <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
+      <c r="T199" s="15"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
+      <c r="A200" s="16"/>
       <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
+      <c r="T200" s="15"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
+      <c r="A201" s="16"/>
       <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
+      <c r="T201" s="15"/>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
+      <c r="A202" s="16"/>
       <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
+      <c r="T202" s="15"/>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
+      <c r="A203" s="16"/>
       <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
+      <c r="T203" s="15"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
+      <c r="A204" s="16"/>
       <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
+      <c r="T204" s="15"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
+      <c r="A205" s="16"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -3146,276 +4649,276 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="3"/>
       <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
+      <c r="T205" s="15"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
+      <c r="A206" s="16"/>
       <c r="B206" s="4"/>
       <c r="R206" s="5"/>
       <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
+      <c r="T206" s="15"/>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
+      <c r="A207" s="16"/>
       <c r="B207" s="4"/>
       <c r="R207" s="5"/>
       <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
+      <c r="T207" s="15"/>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
+      <c r="A208" s="16"/>
       <c r="B208" s="4"/>
       <c r="R208" s="5"/>
       <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
+      <c r="T208" s="15"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
+      <c r="A209" s="16"/>
       <c r="B209" s="4"/>
       <c r="R209" s="5"/>
       <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
+      <c r="T209" s="15"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
+      <c r="A210" s="16"/>
       <c r="B210" s="4"/>
       <c r="R210" s="5"/>
       <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
+      <c r="T210" s="15"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
+      <c r="A211" s="16"/>
       <c r="B211" s="4"/>
       <c r="R211" s="5"/>
       <c r="S211" s="5"/>
-      <c r="T211" s="5"/>
+      <c r="T211" s="15"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
+      <c r="A212" s="16"/>
       <c r="B212" s="4"/>
       <c r="R212" s="5"/>
       <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
+      <c r="T212" s="15"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
+      <c r="A213" s="16"/>
       <c r="B213" s="4"/>
       <c r="R213" s="5"/>
       <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
+      <c r="T213" s="15"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
+      <c r="A214" s="16"/>
       <c r="B214" s="4"/>
       <c r="R214" s="5"/>
       <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
+      <c r="T214" s="15"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
+      <c r="A215" s="16"/>
       <c r="B215" s="4"/>
       <c r="R215" s="5"/>
       <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
+      <c r="T215" s="15"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
+      <c r="A216" s="16"/>
       <c r="B216" s="4"/>
       <c r="R216" s="5"/>
       <c r="S216" s="5"/>
-      <c r="T216" s="5"/>
+      <c r="T216" s="15"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
+      <c r="A217" s="16"/>
       <c r="B217" s="4"/>
       <c r="R217" s="5"/>
       <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
+      <c r="T217" s="15"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
+      <c r="A218" s="16"/>
       <c r="B218" s="4"/>
       <c r="R218" s="5"/>
       <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
+      <c r="T218" s="15"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
+      <c r="A219" s="16"/>
       <c r="B219" s="4"/>
       <c r="R219" s="5"/>
       <c r="S219" s="5"/>
-      <c r="T219" s="5"/>
+      <c r="T219" s="15"/>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
+      <c r="A220" s="16"/>
       <c r="B220" s="4"/>
       <c r="R220" s="5"/>
       <c r="S220" s="5"/>
-      <c r="T220" s="5"/>
+      <c r="T220" s="15"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
+      <c r="A221" s="16"/>
       <c r="B221" s="4"/>
       <c r="R221" s="5"/>
       <c r="S221" s="5"/>
-      <c r="T221" s="5"/>
+      <c r="T221" s="15"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
+      <c r="A222" s="16"/>
       <c r="B222" s="4"/>
       <c r="R222" s="5"/>
       <c r="S222" s="5"/>
-      <c r="T222" s="5"/>
+      <c r="T222" s="15"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
+      <c r="A223" s="16"/>
       <c r="B223" s="4"/>
       <c r="R223" s="5"/>
       <c r="S223" s="5"/>
-      <c r="T223" s="5"/>
+      <c r="T223" s="15"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
+      <c r="A224" s="16"/>
       <c r="B224" s="4"/>
       <c r="R224" s="5"/>
       <c r="S224" s="5"/>
-      <c r="T224" s="5"/>
+      <c r="T224" s="15"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
+      <c r="A225" s="16"/>
       <c r="B225" s="4"/>
       <c r="R225" s="5"/>
       <c r="S225" s="5"/>
-      <c r="T225" s="5"/>
+      <c r="T225" s="15"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
+      <c r="A226" s="16"/>
       <c r="B226" s="4"/>
       <c r="R226" s="5"/>
       <c r="S226" s="5"/>
-      <c r="T226" s="5"/>
+      <c r="T226" s="15"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
+      <c r="A227" s="16"/>
       <c r="B227" s="4"/>
       <c r="R227" s="5"/>
       <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
+      <c r="T227" s="15"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
+      <c r="A228" s="16"/>
       <c r="B228" s="4"/>
       <c r="R228" s="5"/>
       <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
+      <c r="T228" s="15"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
+      <c r="A229" s="16"/>
       <c r="B229" s="4"/>
       <c r="R229" s="5"/>
       <c r="S229" s="5"/>
-      <c r="T229" s="5"/>
+      <c r="T229" s="15"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
+      <c r="A230" s="16"/>
       <c r="B230" s="4"/>
       <c r="R230" s="5"/>
       <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
+      <c r="T230" s="15"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
+      <c r="A231" s="16"/>
       <c r="B231" s="4"/>
       <c r="R231" s="5"/>
       <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
+      <c r="T231" s="15"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
+      <c r="A232" s="16"/>
       <c r="B232" s="4"/>
       <c r="R232" s="5"/>
       <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
+      <c r="T232" s="15"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
+      <c r="A233" s="16"/>
       <c r="B233" s="4"/>
       <c r="R233" s="5"/>
       <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
+      <c r="T233" s="15"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
+      <c r="A234" s="16"/>
       <c r="B234" s="4"/>
       <c r="R234" s="5"/>
       <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
+      <c r="T234" s="15"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
+      <c r="A235" s="16"/>
       <c r="B235" s="4"/>
       <c r="R235" s="5"/>
       <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
+      <c r="T235" s="15"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
+      <c r="A236" s="16"/>
       <c r="B236" s="4"/>
       <c r="R236" s="5"/>
       <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
+      <c r="T236" s="15"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
+      <c r="A237" s="16"/>
       <c r="B237" s="4"/>
       <c r="R237" s="5"/>
       <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
+      <c r="T237" s="15"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
+      <c r="A238" s="16"/>
       <c r="B238" s="4"/>
       <c r="R238" s="5"/>
       <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
+      <c r="T238" s="15"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
+      <c r="A239" s="16"/>
       <c r="B239" s="4"/>
       <c r="R239" s="5"/>
       <c r="S239" s="5"/>
-      <c r="T239" s="5"/>
+      <c r="T239" s="15"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
+      <c r="A240" s="16"/>
       <c r="B240" s="4"/>
       <c r="R240" s="5"/>
       <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
+      <c r="T240" s="15"/>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
+      <c r="A241" s="16"/>
       <c r="B241" s="4"/>
       <c r="R241" s="5"/>
       <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
+      <c r="T241" s="15"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
+      <c r="A242" s="16"/>
       <c r="B242" s="4"/>
       <c r="R242" s="5"/>
       <c r="S242" s="5"/>
-      <c r="T242" s="5"/>
+      <c r="T242" s="15"/>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
+      <c r="A243" s="16"/>
       <c r="B243" s="4"/>
       <c r="R243" s="5"/>
       <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
+      <c r="T243" s="15"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
+      <c r="A244" s="16"/>
       <c r="B244" s="7"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
@@ -3434,15 +4937,15 @@
       <c r="Q244" s="8"/>
       <c r="R244" s="9"/>
       <c r="S244" s="5"/>
-      <c r="T244" s="5"/>
+      <c r="T244" s="15"/>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
+      <c r="A245" s="16"/>
       <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
+      <c r="T245" s="15"/>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
+      <c r="A246" s="16"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -3461,525 +4964,525 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="3"/>
       <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
+      <c r="T246" s="15"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
+      <c r="A247" s="16"/>
       <c r="B247" s="4"/>
       <c r="R247" s="5"/>
       <c r="S247" s="5"/>
-      <c r="T247" s="5"/>
+      <c r="T247" s="15"/>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
+      <c r="A248" s="16"/>
       <c r="B248" s="4"/>
       <c r="R248" s="5"/>
       <c r="S248" s="5"/>
-      <c r="T248" s="5"/>
+      <c r="T248" s="15"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
+      <c r="A249" s="16"/>
       <c r="B249" s="4"/>
       <c r="R249" s="5"/>
       <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
+      <c r="T249" s="15"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
+      <c r="A250" s="16"/>
       <c r="B250" s="4"/>
       <c r="R250" s="5"/>
       <c r="S250" s="5"/>
-      <c r="T250" s="5"/>
+      <c r="T250" s="15"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
+      <c r="A251" s="16"/>
       <c r="B251" s="4"/>
       <c r="R251" s="5"/>
       <c r="S251" s="5"/>
-      <c r="T251" s="5"/>
+      <c r="T251" s="15"/>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
+      <c r="A252" s="16"/>
       <c r="B252" s="4"/>
       <c r="R252" s="5"/>
       <c r="S252" s="5"/>
-      <c r="T252" s="5"/>
+      <c r="T252" s="15"/>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
+      <c r="A253" s="16"/>
       <c r="B253" s="4"/>
       <c r="R253" s="5"/>
       <c r="S253" s="5"/>
-      <c r="T253" s="5"/>
+      <c r="T253" s="15"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
+      <c r="A254" s="16"/>
       <c r="B254" s="4"/>
       <c r="R254" s="5"/>
       <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
+      <c r="T254" s="15"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
+      <c r="A255" s="16"/>
       <c r="B255" s="4"/>
       <c r="R255" s="5"/>
       <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
+      <c r="T255" s="15"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
+      <c r="A256" s="16"/>
       <c r="B256" s="4"/>
       <c r="R256" s="5"/>
       <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
+      <c r="T256" s="15"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
+      <c r="A257" s="16"/>
       <c r="B257" s="4"/>
       <c r="R257" s="5"/>
       <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
+      <c r="T257" s="15"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
+      <c r="A258" s="16"/>
       <c r="B258" s="4"/>
       <c r="R258" s="5"/>
       <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
+      <c r="T258" s="15"/>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
+      <c r="A259" s="16"/>
       <c r="B259" s="4"/>
       <c r="R259" s="5"/>
       <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
+      <c r="T259" s="15"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
+      <c r="A260" s="16"/>
       <c r="B260" s="4"/>
       <c r="R260" s="5"/>
       <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
+      <c r="T260" s="15"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
+      <c r="A261" s="16"/>
       <c r="B261" s="4"/>
       <c r="R261" s="5"/>
       <c r="S261" s="5"/>
-      <c r="T261" s="5"/>
+      <c r="T261" s="15"/>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
+      <c r="A262" s="16"/>
       <c r="B262" s="4"/>
       <c r="R262" s="5"/>
       <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
+      <c r="T262" s="15"/>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
+      <c r="A263" s="16"/>
       <c r="B263" s="4"/>
       <c r="R263" s="5"/>
       <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
+      <c r="T263" s="15"/>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
+      <c r="A264" s="16"/>
       <c r="B264" s="4"/>
       <c r="R264" s="5"/>
       <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
+      <c r="T264" s="15"/>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
+      <c r="A265" s="16"/>
       <c r="B265" s="4"/>
       <c r="R265" s="5"/>
       <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
+      <c r="T265" s="15"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
+      <c r="A266" s="16"/>
       <c r="B266" s="4"/>
       <c r="R266" s="5"/>
       <c r="S266" s="5"/>
-      <c r="T266" s="5"/>
+      <c r="T266" s="15"/>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
+      <c r="A267" s="16"/>
       <c r="B267" s="4"/>
       <c r="R267" s="5"/>
       <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
+      <c r="T267" s="15"/>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
+      <c r="A268" s="16"/>
       <c r="B268" s="4"/>
       <c r="R268" s="5"/>
       <c r="S268" s="5"/>
-      <c r="T268" s="5"/>
+      <c r="T268" s="15"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
+      <c r="A269" s="16"/>
       <c r="B269" s="4" t="s">
         <v>118</v>
       </c>
       <c r="R269" s="5"/>
       <c r="S269" s="5"/>
-      <c r="T269" s="5"/>
+      <c r="T269" s="15"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
+      <c r="A270" s="16"/>
       <c r="B270" s="4"/>
       <c r="R270" s="5"/>
       <c r="S270" s="5"/>
-      <c r="T270" s="5"/>
+      <c r="T270" s="15"/>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
+      <c r="A271" s="16"/>
       <c r="B271" s="4"/>
       <c r="R271" s="5"/>
       <c r="S271" s="5"/>
-      <c r="T271" s="5"/>
+      <c r="T271" s="15"/>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
+      <c r="A272" s="16"/>
       <c r="B272" s="4"/>
       <c r="R272" s="5"/>
       <c r="S272" s="5"/>
-      <c r="T272" s="5"/>
+      <c r="T272" s="15"/>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
+      <c r="A273" s="16"/>
       <c r="B273" s="4"/>
       <c r="R273" s="5"/>
       <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
+      <c r="T273" s="15"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
+      <c r="A274" s="16"/>
       <c r="B274" s="4"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
-      <c r="T274" s="5"/>
+      <c r="T274" s="15"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
+      <c r="A275" s="16"/>
       <c r="B275" s="4"/>
       <c r="R275" s="5"/>
       <c r="S275" s="5"/>
-      <c r="T275" s="5"/>
+      <c r="T275" s="15"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
+      <c r="A276" s="16"/>
       <c r="B276" s="4"/>
       <c r="R276" s="5"/>
       <c r="S276" s="5"/>
-      <c r="T276" s="5"/>
+      <c r="T276" s="15"/>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
+      <c r="A277" s="16"/>
       <c r="B277" s="4"/>
       <c r="R277" s="5"/>
       <c r="S277" s="5"/>
-      <c r="T277" s="5"/>
+      <c r="T277" s="15"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
+      <c r="A278" s="16"/>
       <c r="B278" s="4"/>
       <c r="R278" s="5"/>
       <c r="S278" s="5"/>
-      <c r="T278" s="5"/>
+      <c r="T278" s="15"/>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
+      <c r="A279" s="16"/>
       <c r="B279" s="4"/>
       <c r="R279" s="5"/>
       <c r="S279" s="5"/>
-      <c r="T279" s="5"/>
+      <c r="T279" s="15"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
+      <c r="A280" s="16"/>
       <c r="B280" s="4"/>
       <c r="R280" s="5"/>
       <c r="S280" s="5"/>
-      <c r="T280" s="5"/>
+      <c r="T280" s="15"/>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
+      <c r="A281" s="16"/>
       <c r="B281" s="4"/>
       <c r="R281" s="5"/>
       <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
+      <c r="T281" s="15"/>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
+      <c r="A282" s="16"/>
       <c r="B282" s="4"/>
       <c r="R282" s="5"/>
       <c r="S282" s="5"/>
-      <c r="T282" s="5"/>
+      <c r="T282" s="15"/>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
+      <c r="A283" s="16"/>
       <c r="B283" s="4"/>
       <c r="R283" s="5"/>
       <c r="S283" s="5"/>
-      <c r="T283" s="5"/>
+      <c r="T283" s="15"/>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
+      <c r="A284" s="16"/>
       <c r="B284" s="4"/>
       <c r="R284" s="5"/>
       <c r="S284" s="5"/>
-      <c r="T284" s="5"/>
+      <c r="T284" s="15"/>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
+      <c r="A285" s="16"/>
       <c r="B285" s="4"/>
       <c r="R285" s="5"/>
       <c r="S285" s="5"/>
-      <c r="T285" s="5"/>
+      <c r="T285" s="15"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
+      <c r="A286" s="16"/>
       <c r="B286" s="4"/>
       <c r="R286" s="5"/>
       <c r="S286" s="5"/>
-      <c r="T286" s="5"/>
+      <c r="T286" s="15"/>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
+      <c r="A287" s="16"/>
       <c r="B287" s="4"/>
       <c r="R287" s="5"/>
       <c r="S287" s="5"/>
-      <c r="T287" s="5"/>
+      <c r="T287" s="15"/>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
+      <c r="A288" s="16"/>
       <c r="B288" s="4"/>
       <c r="R288" s="5"/>
       <c r="S288" s="5"/>
-      <c r="T288" s="5"/>
+      <c r="T288" s="15"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
+      <c r="A289" s="16"/>
       <c r="B289" s="4"/>
       <c r="R289" s="5"/>
       <c r="S289" s="5"/>
-      <c r="T289" s="5"/>
+      <c r="T289" s="15"/>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
+      <c r="A290" s="16"/>
       <c r="B290" s="4"/>
       <c r="R290" s="5"/>
       <c r="S290" s="5"/>
-      <c r="T290" s="5"/>
+      <c r="T290" s="15"/>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
+      <c r="A291" s="16"/>
       <c r="B291" s="4"/>
       <c r="R291" s="5"/>
       <c r="S291" s="5"/>
-      <c r="T291" s="5"/>
+      <c r="T291" s="15"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
+      <c r="A292" s="16"/>
       <c r="B292" s="4"/>
       <c r="R292" s="5"/>
       <c r="S292" s="5"/>
-      <c r="T292" s="5"/>
+      <c r="T292" s="15"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A293" s="4"/>
+      <c r="A293" s="16"/>
       <c r="B293" s="4"/>
       <c r="R293" s="5"/>
       <c r="S293" s="5"/>
-      <c r="T293" s="5"/>
+      <c r="T293" s="15"/>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
+      <c r="A294" s="16"/>
       <c r="B294" s="4"/>
       <c r="R294" s="5"/>
       <c r="S294" s="5"/>
-      <c r="T294" s="5"/>
+      <c r="T294" s="15"/>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
+      <c r="A295" s="16"/>
       <c r="B295" s="4" t="s">
         <v>119</v>
       </c>
       <c r="R295" s="5"/>
       <c r="S295" s="5"/>
-      <c r="T295" s="5"/>
+      <c r="T295" s="15"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
+      <c r="A296" s="16"/>
       <c r="B296" s="4"/>
       <c r="R296" s="5"/>
       <c r="S296" s="5"/>
-      <c r="T296" s="5"/>
+      <c r="T296" s="15"/>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
+      <c r="A297" s="16"/>
       <c r="B297" s="4"/>
       <c r="R297" s="5"/>
       <c r="S297" s="5"/>
-      <c r="T297" s="5"/>
+      <c r="T297" s="15"/>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
+      <c r="A298" s="16"/>
       <c r="B298" s="4"/>
       <c r="R298" s="5"/>
       <c r="S298" s="5"/>
-      <c r="T298" s="5"/>
+      <c r="T298" s="15"/>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
+      <c r="A299" s="16"/>
       <c r="B299" s="4"/>
       <c r="R299" s="5"/>
       <c r="S299" s="5"/>
-      <c r="T299" s="5"/>
+      <c r="T299" s="15"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
+      <c r="A300" s="16"/>
       <c r="B300" s="4"/>
       <c r="R300" s="5"/>
       <c r="S300" s="5"/>
-      <c r="T300" s="5"/>
+      <c r="T300" s="15"/>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
+      <c r="A301" s="16"/>
       <c r="B301" s="4"/>
       <c r="R301" s="5"/>
       <c r="S301" s="5"/>
-      <c r="T301" s="5"/>
+      <c r="T301" s="15"/>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
+      <c r="A302" s="16"/>
       <c r="B302" s="4"/>
       <c r="R302" s="5"/>
       <c r="S302" s="5"/>
-      <c r="T302" s="5"/>
+      <c r="T302" s="15"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
+      <c r="A303" s="16"/>
       <c r="B303" s="4"/>
       <c r="R303" s="5"/>
       <c r="S303" s="5"/>
-      <c r="T303" s="5"/>
+      <c r="T303" s="15"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
+      <c r="A304" s="16"/>
       <c r="B304" s="4"/>
       <c r="R304" s="5"/>
       <c r="S304" s="5"/>
-      <c r="T304" s="5"/>
+      <c r="T304" s="15"/>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
+      <c r="A305" s="16"/>
       <c r="B305" s="4"/>
       <c r="R305" s="5"/>
       <c r="S305" s="5"/>
-      <c r="T305" s="5"/>
+      <c r="T305" s="15"/>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
+      <c r="A306" s="16"/>
       <c r="B306" s="4"/>
       <c r="R306" s="5"/>
       <c r="S306" s="5"/>
-      <c r="T306" s="5"/>
+      <c r="T306" s="15"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
+      <c r="A307" s="16"/>
       <c r="B307" s="4"/>
       <c r="R307" s="5"/>
       <c r="S307" s="5"/>
-      <c r="T307" s="5"/>
+      <c r="T307" s="15"/>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
+      <c r="A308" s="16"/>
       <c r="B308" s="4"/>
       <c r="R308" s="5"/>
       <c r="S308" s="5"/>
-      <c r="T308" s="5"/>
+      <c r="T308" s="15"/>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A309" s="4"/>
+      <c r="A309" s="16"/>
       <c r="B309" s="4"/>
       <c r="R309" s="5"/>
       <c r="S309" s="5"/>
-      <c r="T309" s="5"/>
+      <c r="T309" s="15"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
+      <c r="A310" s="16"/>
       <c r="B310" s="4"/>
       <c r="R310" s="5"/>
       <c r="S310" s="5"/>
-      <c r="T310" s="5"/>
+      <c r="T310" s="15"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A311" s="4"/>
+      <c r="A311" s="16"/>
       <c r="B311" s="4"/>
       <c r="R311" s="5"/>
       <c r="S311" s="5"/>
-      <c r="T311" s="5"/>
+      <c r="T311" s="15"/>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A312" s="4"/>
+      <c r="A312" s="16"/>
       <c r="B312" s="4"/>
       <c r="R312" s="5"/>
       <c r="S312" s="5"/>
-      <c r="T312" s="5"/>
+      <c r="T312" s="15"/>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
+      <c r="A313" s="16"/>
       <c r="B313" s="4"/>
       <c r="R313" s="5"/>
       <c r="S313" s="5"/>
-      <c r="T313" s="5"/>
+      <c r="T313" s="15"/>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
+      <c r="A314" s="16"/>
       <c r="B314" s="4"/>
       <c r="R314" s="5"/>
       <c r="S314" s="5"/>
-      <c r="T314" s="5"/>
+      <c r="T314" s="15"/>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
+      <c r="A315" s="16"/>
       <c r="B315" s="4"/>
       <c r="R315" s="5"/>
       <c r="S315" s="5"/>
-      <c r="T315" s="5"/>
+      <c r="T315" s="15"/>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
+      <c r="A316" s="16"/>
       <c r="B316" s="4"/>
       <c r="R316" s="5"/>
       <c r="S316" s="5"/>
-      <c r="T316" s="5"/>
+      <c r="T316" s="15"/>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
+      <c r="A317" s="16"/>
       <c r="B317" s="4"/>
       <c r="R317" s="5"/>
       <c r="S317" s="5"/>
-      <c r="T317" s="5"/>
+      <c r="T317" s="15"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A318" s="4"/>
+      <c r="A318" s="16"/>
       <c r="B318" s="4"/>
       <c r="R318" s="5"/>
       <c r="S318" s="5"/>
-      <c r="T318" s="5"/>
+      <c r="T318" s="15"/>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
+      <c r="A319" s="16"/>
       <c r="B319" s="4"/>
       <c r="R319" s="5"/>
       <c r="S319" s="5"/>
-      <c r="T319" s="5"/>
+      <c r="T319" s="15"/>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
+      <c r="A320" s="16"/>
       <c r="B320" s="7"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
@@ -3998,10 +5501,10 @@
       <c r="Q320" s="8"/>
       <c r="R320" s="9"/>
       <c r="S320" s="5"/>
-      <c r="T320" s="5"/>
+      <c r="T320" s="15"/>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A321" s="7"/>
+      <c r="A321" s="17"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -4020,18 +5523,18 @@
       <c r="Q321" s="8"/>
       <c r="R321" s="8"/>
       <c r="S321" s="9"/>
-      <c r="T321" s="5"/>
+      <c r="T321" s="15"/>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="T322" s="5"/>
+      <c r="A322" s="16"/>
+      <c r="T322" s="15"/>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A323" s="4"/>
-      <c r="T323" s="5"/>
+      <c r="A323" s="16"/>
+      <c r="T323" s="15"/>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
+      <c r="A324" s="14"/>
       <c r="B324" s="2" t="s">
         <v>122</v>
       </c>
@@ -4052,10 +5555,10 @@
       <c r="Q324" s="2"/>
       <c r="R324" s="2"/>
       <c r="S324" s="3"/>
-      <c r="T324" s="5"/>
+      <c r="T324" s="15"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A325" s="4"/>
+      <c r="A325" s="16"/>
       <c r="B325" s="1" t="s">
         <v>107</v>
       </c>
@@ -4067,44 +5570,44 @@
       <c r="H325" s="2"/>
       <c r="I325" s="3"/>
       <c r="S325" s="5"/>
-      <c r="T325" s="5"/>
+      <c r="T325" s="15"/>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A326" s="4"/>
+      <c r="A326" s="16"/>
       <c r="B326" s="4"/>
       <c r="I326" s="5"/>
       <c r="S326" s="5"/>
-      <c r="T326" s="5"/>
+      <c r="T326" s="15"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
+      <c r="A327" s="16"/>
       <c r="B327" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I327" s="5"/>
       <c r="S327" s="5"/>
-      <c r="T327" s="5"/>
+      <c r="T327" s="15"/>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A328" s="4"/>
+      <c r="A328" s="16"/>
       <c r="B328" s="4" t="s">
         <v>109</v>
       </c>
       <c r="I328" s="5"/>
       <c r="S328" s="5"/>
-      <c r="T328" s="5"/>
+      <c r="T328" s="15"/>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A329" s="4"/>
+      <c r="A329" s="16"/>
       <c r="B329" s="4" t="s">
         <v>110</v>
       </c>
       <c r="I329" s="5"/>
       <c r="S329" s="5"/>
-      <c r="T329" s="5"/>
+      <c r="T329" s="15"/>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
+      <c r="A330" s="16"/>
       <c r="B330" s="7" t="s">
         <v>111</v>
       </c>
@@ -4116,203 +5619,203 @@
       <c r="H330" s="8"/>
       <c r="I330" s="9"/>
       <c r="S330" s="5"/>
-      <c r="T330" s="5"/>
+      <c r="T330" s="15"/>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
+      <c r="A331" s="16"/>
       <c r="S331" s="5"/>
-      <c r="T331" s="5"/>
+      <c r="T331" s="15"/>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A332" s="4"/>
+      <c r="A332" s="16"/>
       <c r="S332" s="5"/>
-      <c r="T332" s="5"/>
+      <c r="T332" s="15"/>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A333" s="4"/>
+      <c r="A333" s="16"/>
       <c r="S333" s="5"/>
-      <c r="T333" s="5"/>
+      <c r="T333" s="15"/>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A334" s="4"/>
+      <c r="A334" s="16"/>
       <c r="S334" s="5"/>
-      <c r="T334" s="5"/>
+      <c r="T334" s="15"/>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A335" s="4"/>
+      <c r="A335" s="16"/>
       <c r="S335" s="5"/>
-      <c r="T335" s="5"/>
+      <c r="T335" s="15"/>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A336" s="4"/>
+      <c r="A336" s="16"/>
       <c r="S336" s="5"/>
-      <c r="T336" s="5"/>
+      <c r="T336" s="15"/>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
+      <c r="A337" s="16"/>
       <c r="S337" s="5"/>
-      <c r="T337" s="5"/>
+      <c r="T337" s="15"/>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
+      <c r="A338" s="16"/>
       <c r="S338" s="5"/>
-      <c r="T338" s="5"/>
+      <c r="T338" s="15"/>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
+      <c r="A339" s="16"/>
       <c r="S339" s="5"/>
-      <c r="T339" s="5"/>
+      <c r="T339" s="15"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
+      <c r="A340" s="16"/>
       <c r="S340" s="5"/>
-      <c r="T340" s="5"/>
+      <c r="T340" s="15"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A341" s="4"/>
+      <c r="A341" s="16"/>
       <c r="S341" s="5"/>
-      <c r="T341" s="5"/>
+      <c r="T341" s="15"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A342" s="4"/>
+      <c r="A342" s="16"/>
       <c r="S342" s="5"/>
-      <c r="T342" s="5"/>
+      <c r="T342" s="15"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
+      <c r="A343" s="16"/>
       <c r="S343" s="5"/>
-      <c r="T343" s="5"/>
+      <c r="T343" s="15"/>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A344" s="4"/>
+      <c r="A344" s="16"/>
       <c r="S344" s="5"/>
-      <c r="T344" s="5"/>
+      <c r="T344" s="15"/>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A345" s="4"/>
+      <c r="A345" s="16"/>
       <c r="S345" s="5"/>
-      <c r="T345" s="5"/>
+      <c r="T345" s="15"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
+      <c r="A346" s="16"/>
       <c r="B346" t="s">
         <v>123</v>
       </c>
       <c r="S346" s="5"/>
-      <c r="T346" s="5"/>
+      <c r="T346" s="15"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
+      <c r="A347" s="16"/>
       <c r="S347" s="5"/>
-      <c r="T347" s="5"/>
+      <c r="T347" s="15"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
+      <c r="A348" s="16"/>
       <c r="S348" s="5"/>
-      <c r="T348" s="5"/>
+      <c r="T348" s="15"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
+      <c r="A349" s="16"/>
       <c r="S349" s="5"/>
-      <c r="T349" s="5"/>
+      <c r="T349" s="15"/>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A350" s="4"/>
+      <c r="A350" s="16"/>
       <c r="S350" s="5"/>
-      <c r="T350" s="5"/>
+      <c r="T350" s="15"/>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A351" s="4"/>
+      <c r="A351" s="16"/>
       <c r="S351" s="5"/>
-      <c r="T351" s="5"/>
+      <c r="T351" s="15"/>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A352" s="4"/>
+      <c r="A352" s="16"/>
       <c r="S352" s="5"/>
-      <c r="T352" s="5"/>
+      <c r="T352" s="15"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A353" s="4"/>
+      <c r="A353" s="16"/>
       <c r="S353" s="5"/>
-      <c r="T353" s="5"/>
+      <c r="T353" s="15"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A354" s="4"/>
+      <c r="A354" s="16"/>
       <c r="S354" s="5"/>
-      <c r="T354" s="5"/>
+      <c r="T354" s="15"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
+      <c r="A355" s="16"/>
       <c r="S355" s="5"/>
-      <c r="T355" s="5"/>
+      <c r="T355" s="15"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A356" s="4"/>
+      <c r="A356" s="16"/>
       <c r="S356" s="5"/>
-      <c r="T356" s="5"/>
+      <c r="T356" s="15"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A357" s="4"/>
+      <c r="A357" s="16"/>
       <c r="S357" s="5"/>
-      <c r="T357" s="5"/>
+      <c r="T357" s="15"/>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
+      <c r="A358" s="16"/>
       <c r="S358" s="5"/>
-      <c r="T358" s="5"/>
+      <c r="T358" s="15"/>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
+      <c r="A359" s="16"/>
       <c r="S359" s="5"/>
-      <c r="T359" s="5"/>
+      <c r="T359" s="15"/>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A360" s="4"/>
+      <c r="A360" s="16"/>
       <c r="S360" s="5"/>
-      <c r="T360" s="5"/>
+      <c r="T360" s="15"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A361" s="4"/>
+      <c r="A361" s="16"/>
       <c r="S361" s="5"/>
-      <c r="T361" s="5"/>
+      <c r="T361" s="15"/>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A362" s="4"/>
+      <c r="A362" s="16"/>
       <c r="S362" s="5"/>
-      <c r="T362" s="5"/>
+      <c r="T362" s="15"/>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A363" s="4"/>
+      <c r="A363" s="16"/>
       <c r="S363" s="5"/>
-      <c r="T363" s="5"/>
+      <c r="T363" s="15"/>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
+      <c r="A364" s="16"/>
       <c r="S364" s="5"/>
-      <c r="T364" s="5"/>
+      <c r="T364" s="15"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A365" s="4"/>
+      <c r="A365" s="16"/>
       <c r="S365" s="5"/>
-      <c r="T365" s="5"/>
+      <c r="T365" s="15"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A366" s="4"/>
+      <c r="A366" s="16"/>
       <c r="S366" s="5"/>
-      <c r="T366" s="5"/>
+      <c r="T366" s="15"/>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A367" s="4"/>
+      <c r="A367" s="16"/>
       <c r="S367" s="5"/>
-      <c r="T367" s="5"/>
+      <c r="T367" s="15"/>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A368" s="4"/>
+      <c r="A368" s="16"/>
       <c r="S368" s="5"/>
-      <c r="T368" s="5"/>
+      <c r="T368" s="15"/>
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A369" s="7"/>
+      <c r="A369" s="17"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
@@ -4331,29 +5834,5133 @@
       <c r="Q369" s="8"/>
       <c r="R369" s="8"/>
       <c r="S369" s="9"/>
-      <c r="T369" s="5"/>
+      <c r="T369" s="15"/>
+    </row>
+    <row r="370" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="18"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="19"/>
+      <c r="E370" s="19"/>
+      <c r="F370" s="19"/>
+      <c r="G370" s="19"/>
+      <c r="H370" s="19"/>
+      <c r="I370" s="19"/>
+      <c r="J370" s="19"/>
+      <c r="K370" s="19"/>
+      <c r="L370" s="19"/>
+      <c r="M370" s="19"/>
+      <c r="N370" s="19"/>
+      <c r="O370" s="19"/>
+      <c r="P370" s="19"/>
+      <c r="Q370" s="19"/>
+      <c r="R370" s="19"/>
+      <c r="S370" s="19"/>
+      <c r="T370" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFD497-DF28-4FCF-BC46-A41E6DAD834C}">
+  <dimension ref="A3:T413"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="9"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" t="s">
+        <v>85</v>
+      </c>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="D115" t="s">
+        <v>124</v>
+      </c>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="E116" t="s">
+        <v>86</v>
+      </c>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="E117" t="s">
+        <v>87</v>
+      </c>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="D118" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="L118" s="5"/>
+      <c r="M118" t="s">
+        <v>89</v>
+      </c>
+      <c r="N118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="E119" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="E120" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="F124" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="H126" t="s">
+        <v>23</v>
+      </c>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="I127" t="s">
+        <v>24</v>
+      </c>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="I128" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="I129" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="I130" t="s">
+        <v>27</v>
+      </c>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="I131" t="s">
+        <v>28</v>
+      </c>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="I132" t="s">
+        <v>29</v>
+      </c>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="I133" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="I134" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="I135" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="I136" t="s">
+        <v>33</v>
+      </c>
+      <c r="L136" s="5"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="I137" t="s">
+        <v>34</v>
+      </c>
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="I138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L138" s="5"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="I139" t="s">
+        <v>36</v>
+      </c>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="I140" t="s">
+        <v>37</v>
+      </c>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="I141" t="s">
+        <v>38</v>
+      </c>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="I142" t="s">
+        <v>39</v>
+      </c>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="I143" t="s">
+        <v>40</v>
+      </c>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="I144" t="s">
+        <v>41</v>
+      </c>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="H145" t="s">
+        <v>42</v>
+      </c>
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="I146" t="s">
+        <v>43</v>
+      </c>
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="I147" t="s">
+        <v>44</v>
+      </c>
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="I148" t="s">
+        <v>45</v>
+      </c>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="I149" t="s">
+        <v>46</v>
+      </c>
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="I150" t="s">
+        <v>47</v>
+      </c>
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="J151" t="s">
+        <v>48</v>
+      </c>
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="J152" t="s">
+        <v>49</v>
+      </c>
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="I153" t="s">
+        <v>50</v>
+      </c>
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="J154" t="s">
+        <v>51</v>
+      </c>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="J155" t="s">
+        <v>52</v>
+      </c>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="J156" t="s">
+        <v>53</v>
+      </c>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="J157" t="s">
+        <v>54</v>
+      </c>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="I158" t="s">
+        <v>55</v>
+      </c>
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="J159" t="s">
+        <v>56</v>
+      </c>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="I160" t="s">
+        <v>57</v>
+      </c>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="J161" t="s">
+        <v>58</v>
+      </c>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="J162" t="s">
+        <v>59</v>
+      </c>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="J163" t="s">
+        <v>60</v>
+      </c>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="J164" t="s">
+        <v>61</v>
+      </c>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="I165" t="s">
+        <v>62</v>
+      </c>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="J166" t="s">
+        <v>63</v>
+      </c>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="J167" t="s">
+        <v>64</v>
+      </c>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="J168" t="s">
+        <v>65</v>
+      </c>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="I169" t="s">
+        <v>66</v>
+      </c>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="J170" t="s">
+        <v>67</v>
+      </c>
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="I171" t="s">
+        <v>68</v>
+      </c>
+      <c r="L171" s="5"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="J172" t="s">
+        <v>69</v>
+      </c>
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="J173" t="s">
+        <v>70</v>
+      </c>
+      <c r="L173" s="5"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="J174" t="s">
+        <v>71</v>
+      </c>
+      <c r="L174" s="5"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="J175" t="s">
+        <v>72</v>
+      </c>
+      <c r="L175" s="5"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="I176" t="s">
+        <v>73</v>
+      </c>
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="J177" t="s">
+        <v>74</v>
+      </c>
+      <c r="L177" s="5"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="J178" t="s">
+        <v>75</v>
+      </c>
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="4"/>
+      <c r="J179" t="s">
+        <v>76</v>
+      </c>
+      <c r="L179" s="5"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
+      <c r="I180" t="s">
+        <v>77</v>
+      </c>
+      <c r="L180" s="5"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="4"/>
+      <c r="J181" t="s">
+        <v>78</v>
+      </c>
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="J182" t="s">
+        <v>79</v>
+      </c>
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="J183" t="s">
+        <v>80</v>
+      </c>
+      <c r="L183" s="5"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="4"/>
+      <c r="I184" t="s">
+        <v>81</v>
+      </c>
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="4"/>
+      <c r="I185" t="s">
+        <v>82</v>
+      </c>
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="I186" t="s">
+        <v>83</v>
+      </c>
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="4"/>
+      <c r="E187" t="s">
+        <v>84</v>
+      </c>
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="7"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="9"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="4"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+      <c r="H227" s="8"/>
+      <c r="I227" s="9"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="G232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G233" s="5"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="9"/>
+    </row>
+    <row r="242" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="12"/>
+      <c r="K243" s="12"/>
+      <c r="L243" s="12"/>
+      <c r="M243" s="12"/>
+      <c r="N243" s="12"/>
+      <c r="O243" s="12"/>
+      <c r="P243" s="12"/>
+      <c r="Q243" s="12"/>
+      <c r="R243" s="12"/>
+      <c r="S243" s="12"/>
+      <c r="T243" s="13"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="15"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+      <c r="K245" s="21"/>
+      <c r="L245" s="21"/>
+      <c r="M245" s="21"/>
+      <c r="N245" s="21"/>
+      <c r="O245" s="21"/>
+      <c r="P245" s="21"/>
+      <c r="Q245" s="21"/>
+      <c r="R245" s="21"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="15"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="21"/>
+      <c r="K246" s="21"/>
+      <c r="L246" s="21"/>
+      <c r="M246" s="21"/>
+      <c r="N246" s="21"/>
+      <c r="O246" s="21"/>
+      <c r="P246" s="21"/>
+      <c r="Q246" s="21"/>
+      <c r="R246" s="21"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="15"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+      <c r="K247" s="21"/>
+      <c r="L247" s="21"/>
+      <c r="M247" s="21"/>
+      <c r="N247" s="21"/>
+      <c r="O247" s="21"/>
+      <c r="P247" s="21"/>
+      <c r="Q247" s="21"/>
+      <c r="R247" s="21"/>
+      <c r="S247" s="5"/>
+      <c r="T247" s="15"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
+      <c r="K248" s="21"/>
+      <c r="L248" s="21"/>
+      <c r="M248" s="21"/>
+      <c r="N248" s="21"/>
+      <c r="O248" s="21"/>
+      <c r="P248" s="21"/>
+      <c r="Q248" s="21"/>
+      <c r="R248" s="21"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="15"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="21"/>
+      <c r="K249" s="21"/>
+      <c r="L249" s="21"/>
+      <c r="M249" s="21"/>
+      <c r="N249" s="21"/>
+      <c r="O249" s="21"/>
+      <c r="P249" s="21"/>
+      <c r="Q249" s="21"/>
+      <c r="R249" s="21"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="15"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="21"/>
+      <c r="K250" s="21"/>
+      <c r="L250" s="21"/>
+      <c r="M250" s="21"/>
+      <c r="N250" s="21"/>
+      <c r="O250" s="21"/>
+      <c r="P250" s="21"/>
+      <c r="Q250" s="21"/>
+      <c r="R250" s="21"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="15"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+      <c r="J251" s="21"/>
+      <c r="K251" s="21"/>
+      <c r="L251" s="21"/>
+      <c r="M251" s="21"/>
+      <c r="N251" s="21"/>
+      <c r="O251" s="21"/>
+      <c r="P251" s="21"/>
+      <c r="Q251" s="21"/>
+      <c r="R251" s="21"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="15"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="21"/>
+      <c r="K252" s="21"/>
+      <c r="L252" s="21"/>
+      <c r="M252" s="21"/>
+      <c r="N252" s="21"/>
+      <c r="O252" s="21"/>
+      <c r="P252" s="21"/>
+      <c r="Q252" s="21"/>
+      <c r="R252" s="21"/>
+      <c r="S252" s="5"/>
+      <c r="T252" s="15"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="21"/>
+      <c r="K253" s="21"/>
+      <c r="L253" s="21"/>
+      <c r="M253" s="21"/>
+      <c r="N253" s="21"/>
+      <c r="O253" s="21"/>
+      <c r="P253" s="21"/>
+      <c r="Q253" s="21"/>
+      <c r="R253" s="21"/>
+      <c r="S253" s="5"/>
+      <c r="T253" s="15"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="21"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="21"/>
+      <c r="J254" s="21"/>
+      <c r="K254" s="21"/>
+      <c r="L254" s="21"/>
+      <c r="M254" s="21"/>
+      <c r="N254" s="21"/>
+      <c r="O254" s="21"/>
+      <c r="P254" s="21"/>
+      <c r="Q254" s="21"/>
+      <c r="R254" s="21"/>
+      <c r="S254" s="5"/>
+      <c r="T254" s="15"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="21"/>
+      <c r="K255" s="21"/>
+      <c r="L255" s="21"/>
+      <c r="M255" s="21"/>
+      <c r="N255" s="21"/>
+      <c r="O255" s="21"/>
+      <c r="P255" s="21"/>
+      <c r="Q255" s="21"/>
+      <c r="R255" s="21"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="15"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="21"/>
+      <c r="J256" s="21"/>
+      <c r="K256" s="21"/>
+      <c r="L256" s="21"/>
+      <c r="M256" s="21"/>
+      <c r="N256" s="21"/>
+      <c r="O256" s="21"/>
+      <c r="P256" s="21"/>
+      <c r="Q256" s="21"/>
+      <c r="R256" s="21"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="15"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="21"/>
+      <c r="K257" s="21"/>
+      <c r="L257" s="21"/>
+      <c r="M257" s="21"/>
+      <c r="N257" s="21"/>
+      <c r="O257" s="21"/>
+      <c r="P257" s="21"/>
+      <c r="Q257" s="21"/>
+      <c r="R257" s="21"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="15"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="21"/>
+      <c r="J258" s="21"/>
+      <c r="K258" s="21"/>
+      <c r="L258" s="21"/>
+      <c r="M258" s="21"/>
+      <c r="N258" s="21"/>
+      <c r="O258" s="21"/>
+      <c r="P258" s="21"/>
+      <c r="Q258" s="21"/>
+      <c r="R258" s="21"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="15"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+      <c r="J259" s="21"/>
+      <c r="K259" s="21"/>
+      <c r="L259" s="21"/>
+      <c r="M259" s="21"/>
+      <c r="N259" s="21"/>
+      <c r="O259" s="21"/>
+      <c r="P259" s="21"/>
+      <c r="Q259" s="21"/>
+      <c r="R259" s="21"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="15"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="21"/>
+      <c r="L260" s="21"/>
+      <c r="M260" s="21"/>
+      <c r="N260" s="21"/>
+      <c r="O260" s="21"/>
+      <c r="P260" s="21"/>
+      <c r="Q260" s="21"/>
+      <c r="R260" s="21"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="15"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
+      <c r="P261" s="2"/>
+      <c r="Q261" s="2"/>
+      <c r="R261" s="3"/>
+      <c r="S261" s="5"/>
+      <c r="T261" s="15"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="21"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="21"/>
+      <c r="P262" s="21"/>
+      <c r="Q262" s="21"/>
+      <c r="R262" s="5"/>
+      <c r="S262" s="5"/>
+      <c r="T262" s="15"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="21"/>
+      <c r="P263" s="21"/>
+      <c r="Q263" s="21"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="15"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
+      <c r="I264" s="21"/>
+      <c r="J264" s="21"/>
+      <c r="K264" s="21"/>
+      <c r="L264" s="21"/>
+      <c r="M264" s="21"/>
+      <c r="N264" s="21"/>
+      <c r="O264" s="21"/>
+      <c r="P264" s="21"/>
+      <c r="Q264" s="21"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="15"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21"/>
+      <c r="I265" s="21"/>
+      <c r="J265" s="21"/>
+      <c r="K265" s="21"/>
+      <c r="L265" s="21"/>
+      <c r="M265" s="21"/>
+      <c r="N265" s="21"/>
+      <c r="O265" s="21"/>
+      <c r="P265" s="21"/>
+      <c r="Q265" s="21"/>
+      <c r="R265" s="5"/>
+      <c r="S265" s="5"/>
+      <c r="T265" s="15"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+      <c r="J266" s="21"/>
+      <c r="K266" s="21"/>
+      <c r="L266" s="21"/>
+      <c r="M266" s="21"/>
+      <c r="N266" s="21"/>
+      <c r="O266" s="21"/>
+      <c r="P266" s="21"/>
+      <c r="Q266" s="21"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="5"/>
+      <c r="T266" s="15"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21"/>
+      <c r="I267" s="21"/>
+      <c r="J267" s="21"/>
+      <c r="K267" s="21"/>
+      <c r="L267" s="21"/>
+      <c r="M267" s="21"/>
+      <c r="N267" s="21"/>
+      <c r="O267" s="21"/>
+      <c r="P267" s="21"/>
+      <c r="Q267" s="21"/>
+      <c r="R267" s="5"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="15"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="21"/>
+      <c r="K268" s="21"/>
+      <c r="L268" s="21"/>
+      <c r="M268" s="21"/>
+      <c r="N268" s="21"/>
+      <c r="O268" s="21"/>
+      <c r="P268" s="21"/>
+      <c r="Q268" s="21"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="15"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
+      <c r="H269" s="21"/>
+      <c r="I269" s="21"/>
+      <c r="J269" s="21"/>
+      <c r="K269" s="21"/>
+      <c r="L269" s="21"/>
+      <c r="M269" s="21"/>
+      <c r="N269" s="21"/>
+      <c r="O269" s="21"/>
+      <c r="P269" s="21"/>
+      <c r="Q269" s="21"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="15"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21"/>
+      <c r="I270" s="21"/>
+      <c r="J270" s="21"/>
+      <c r="K270" s="21"/>
+      <c r="L270" s="21"/>
+      <c r="M270" s="21"/>
+      <c r="N270" s="21"/>
+      <c r="O270" s="21"/>
+      <c r="P270" s="21"/>
+      <c r="Q270" s="21"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="15"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
+      <c r="I271" s="21"/>
+      <c r="J271" s="21"/>
+      <c r="K271" s="21"/>
+      <c r="L271" s="21"/>
+      <c r="M271" s="21"/>
+      <c r="N271" s="21"/>
+      <c r="O271" s="21"/>
+      <c r="P271" s="21"/>
+      <c r="Q271" s="21"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="15"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21"/>
+      <c r="I272" s="21"/>
+      <c r="J272" s="21"/>
+      <c r="K272" s="21"/>
+      <c r="L272" s="21"/>
+      <c r="M272" s="21"/>
+      <c r="N272" s="21"/>
+      <c r="O272" s="21"/>
+      <c r="P272" s="21"/>
+      <c r="Q272" s="21"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="15"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="21"/>
+      <c r="K273" s="21"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="21"/>
+      <c r="N273" s="21"/>
+      <c r="O273" s="21"/>
+      <c r="P273" s="21"/>
+      <c r="Q273" s="21"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="15"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="21"/>
+      <c r="D274" s="21"/>
+      <c r="E274" s="21"/>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21"/>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+      <c r="J274" s="21"/>
+      <c r="K274" s="21"/>
+      <c r="L274" s="21"/>
+      <c r="M274" s="21"/>
+      <c r="N274" s="21"/>
+      <c r="O274" s="21"/>
+      <c r="P274" s="21"/>
+      <c r="Q274" s="21"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="15"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="21"/>
+      <c r="H275" s="21"/>
+      <c r="I275" s="21"/>
+      <c r="J275" s="21"/>
+      <c r="K275" s="21"/>
+      <c r="L275" s="21"/>
+      <c r="M275" s="21"/>
+      <c r="N275" s="21"/>
+      <c r="O275" s="21"/>
+      <c r="P275" s="21"/>
+      <c r="Q275" s="21"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="15"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="21"/>
+      <c r="I276" s="21"/>
+      <c r="J276" s="21"/>
+      <c r="K276" s="21"/>
+      <c r="L276" s="21"/>
+      <c r="M276" s="21"/>
+      <c r="N276" s="21"/>
+      <c r="O276" s="21"/>
+      <c r="P276" s="21"/>
+      <c r="Q276" s="21"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="15"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="21"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="21"/>
+      <c r="H277" s="21"/>
+      <c r="I277" s="21"/>
+      <c r="J277" s="21"/>
+      <c r="K277" s="21"/>
+      <c r="L277" s="21"/>
+      <c r="M277" s="21"/>
+      <c r="N277" s="21"/>
+      <c r="O277" s="21"/>
+      <c r="P277" s="21"/>
+      <c r="Q277" s="21"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="15"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="21"/>
+      <c r="I278" s="21"/>
+      <c r="J278" s="21"/>
+      <c r="K278" s="21"/>
+      <c r="L278" s="21"/>
+      <c r="M278" s="21"/>
+      <c r="N278" s="21"/>
+      <c r="O278" s="21"/>
+      <c r="P278" s="21"/>
+      <c r="Q278" s="21"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="15"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="21"/>
+      <c r="J279" s="21"/>
+      <c r="K279" s="21"/>
+      <c r="L279" s="21"/>
+      <c r="M279" s="21"/>
+      <c r="N279" s="21"/>
+      <c r="O279" s="21"/>
+      <c r="P279" s="21"/>
+      <c r="Q279" s="21"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="15"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="21"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="21"/>
+      <c r="J280" s="21"/>
+      <c r="K280" s="21"/>
+      <c r="L280" s="21"/>
+      <c r="M280" s="21"/>
+      <c r="N280" s="21"/>
+      <c r="O280" s="21"/>
+      <c r="P280" s="21"/>
+      <c r="Q280" s="21"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="15"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+      <c r="J281" s="21"/>
+      <c r="K281" s="21"/>
+      <c r="L281" s="21"/>
+      <c r="M281" s="21"/>
+      <c r="N281" s="21"/>
+      <c r="O281" s="21"/>
+      <c r="P281" s="21"/>
+      <c r="Q281" s="21"/>
+      <c r="R281" s="5"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="15"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21"/>
+      <c r="I282" s="21"/>
+      <c r="J282" s="21"/>
+      <c r="K282" s="21"/>
+      <c r="L282" s="21"/>
+      <c r="M282" s="21"/>
+      <c r="N282" s="21"/>
+      <c r="O282" s="21"/>
+      <c r="P282" s="21"/>
+      <c r="Q282" s="21"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="15"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
+      <c r="H283" s="21"/>
+      <c r="I283" s="21"/>
+      <c r="J283" s="21"/>
+      <c r="K283" s="21"/>
+      <c r="L283" s="21"/>
+      <c r="M283" s="21"/>
+      <c r="N283" s="21"/>
+      <c r="O283" s="21"/>
+      <c r="P283" s="21"/>
+      <c r="Q283" s="21"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="15"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+      <c r="J284" s="21"/>
+      <c r="K284" s="21"/>
+      <c r="L284" s="21"/>
+      <c r="M284" s="21"/>
+      <c r="N284" s="21"/>
+      <c r="O284" s="21"/>
+      <c r="P284" s="21"/>
+      <c r="Q284" s="21"/>
+      <c r="R284" s="5"/>
+      <c r="S284" s="5"/>
+      <c r="T284" s="15"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="21"/>
+      <c r="D285" s="21"/>
+      <c r="E285" s="21"/>
+      <c r="F285" s="21"/>
+      <c r="G285" s="21"/>
+      <c r="H285" s="21"/>
+      <c r="I285" s="21"/>
+      <c r="J285" s="21"/>
+      <c r="K285" s="21"/>
+      <c r="L285" s="21"/>
+      <c r="M285" s="21"/>
+      <c r="N285" s="21"/>
+      <c r="O285" s="21"/>
+      <c r="P285" s="21"/>
+      <c r="Q285" s="21"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="15"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="21"/>
+      <c r="G286" s="21"/>
+      <c r="H286" s="21"/>
+      <c r="I286" s="21"/>
+      <c r="J286" s="21"/>
+      <c r="K286" s="21"/>
+      <c r="L286" s="21"/>
+      <c r="M286" s="21"/>
+      <c r="N286" s="21"/>
+      <c r="O286" s="21"/>
+      <c r="P286" s="21"/>
+      <c r="Q286" s="21"/>
+      <c r="R286" s="5"/>
+      <c r="S286" s="5"/>
+      <c r="T286" s="15"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="21"/>
+      <c r="J287" s="21"/>
+      <c r="K287" s="21"/>
+      <c r="L287" s="21"/>
+      <c r="M287" s="21"/>
+      <c r="N287" s="21"/>
+      <c r="O287" s="21"/>
+      <c r="P287" s="21"/>
+      <c r="Q287" s="21"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="15"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
+      <c r="H288" s="21"/>
+      <c r="I288" s="21"/>
+      <c r="J288" s="21"/>
+      <c r="K288" s="21"/>
+      <c r="L288" s="21"/>
+      <c r="M288" s="21"/>
+      <c r="N288" s="21"/>
+      <c r="O288" s="21"/>
+      <c r="P288" s="21"/>
+      <c r="Q288" s="21"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="15"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
+      <c r="I289" s="21"/>
+      <c r="J289" s="21"/>
+      <c r="K289" s="21"/>
+      <c r="L289" s="21"/>
+      <c r="M289" s="21"/>
+      <c r="N289" s="21"/>
+      <c r="O289" s="21"/>
+      <c r="P289" s="21"/>
+      <c r="Q289" s="21"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="15"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="21"/>
+      <c r="L290" s="21"/>
+      <c r="M290" s="21"/>
+      <c r="N290" s="21"/>
+      <c r="O290" s="21"/>
+      <c r="P290" s="21"/>
+      <c r="Q290" s="21"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="15"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="21"/>
+      <c r="J291" s="21"/>
+      <c r="K291" s="21"/>
+      <c r="L291" s="21"/>
+      <c r="M291" s="21"/>
+      <c r="N291" s="21"/>
+      <c r="O291" s="21"/>
+      <c r="P291" s="21"/>
+      <c r="Q291" s="21"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="15"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="21"/>
+      <c r="D292" s="21"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
+      <c r="I292" s="21"/>
+      <c r="J292" s="21"/>
+      <c r="K292" s="21"/>
+      <c r="L292" s="21"/>
+      <c r="M292" s="21"/>
+      <c r="N292" s="21"/>
+      <c r="O292" s="21"/>
+      <c r="P292" s="21"/>
+      <c r="Q292" s="21"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="15"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="21"/>
+      <c r="J293" s="21"/>
+      <c r="K293" s="21"/>
+      <c r="L293" s="21"/>
+      <c r="M293" s="21"/>
+      <c r="N293" s="21"/>
+      <c r="O293" s="21"/>
+      <c r="P293" s="21"/>
+      <c r="Q293" s="21"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="15"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+      <c r="J294" s="21"/>
+      <c r="K294" s="21"/>
+      <c r="L294" s="21"/>
+      <c r="M294" s="21"/>
+      <c r="N294" s="21"/>
+      <c r="O294" s="21"/>
+      <c r="P294" s="21"/>
+      <c r="Q294" s="21"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="15"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="21"/>
+      <c r="D295" s="21"/>
+      <c r="E295" s="21"/>
+      <c r="F295" s="21"/>
+      <c r="G295" s="21"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="21"/>
+      <c r="J295" s="21"/>
+      <c r="K295" s="21"/>
+      <c r="L295" s="21"/>
+      <c r="M295" s="21"/>
+      <c r="N295" s="21"/>
+      <c r="O295" s="21"/>
+      <c r="P295" s="21"/>
+      <c r="Q295" s="21"/>
+      <c r="R295" s="5"/>
+      <c r="S295" s="5"/>
+      <c r="T295" s="15"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="21"/>
+      <c r="J296" s="21"/>
+      <c r="K296" s="21"/>
+      <c r="L296" s="21"/>
+      <c r="M296" s="21"/>
+      <c r="N296" s="21"/>
+      <c r="O296" s="21"/>
+      <c r="P296" s="21"/>
+      <c r="Q296" s="21"/>
+      <c r="R296" s="5"/>
+      <c r="S296" s="5"/>
+      <c r="T296" s="15"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="21"/>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21"/>
+      <c r="I297" s="21"/>
+      <c r="J297" s="21"/>
+      <c r="K297" s="21"/>
+      <c r="L297" s="21"/>
+      <c r="M297" s="21"/>
+      <c r="N297" s="21"/>
+      <c r="O297" s="21"/>
+      <c r="P297" s="21"/>
+      <c r="Q297" s="21"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="15"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="21"/>
+      <c r="D298" s="21"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="21"/>
+      <c r="I298" s="21"/>
+      <c r="J298" s="21"/>
+      <c r="K298" s="21"/>
+      <c r="L298" s="21"/>
+      <c r="M298" s="21"/>
+      <c r="N298" s="21"/>
+      <c r="O298" s="21"/>
+      <c r="P298" s="21"/>
+      <c r="Q298" s="21"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="15"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="21"/>
+      <c r="D299" s="21"/>
+      <c r="E299" s="21"/>
+      <c r="F299" s="21"/>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21"/>
+      <c r="I299" s="21"/>
+      <c r="J299" s="21"/>
+      <c r="K299" s="21"/>
+      <c r="L299" s="21"/>
+      <c r="M299" s="21"/>
+      <c r="N299" s="21"/>
+      <c r="O299" s="21"/>
+      <c r="P299" s="21"/>
+      <c r="Q299" s="21"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="15"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="21"/>
+      <c r="D300" s="21"/>
+      <c r="E300" s="21"/>
+      <c r="F300" s="21"/>
+      <c r="G300" s="21"/>
+      <c r="H300" s="21"/>
+      <c r="I300" s="21"/>
+      <c r="J300" s="21"/>
+      <c r="K300" s="21"/>
+      <c r="L300" s="21"/>
+      <c r="M300" s="21"/>
+      <c r="N300" s="21"/>
+      <c r="O300" s="21"/>
+      <c r="P300" s="21"/>
+      <c r="Q300" s="21"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="15"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="21"/>
+      <c r="D301" s="21"/>
+      <c r="E301" s="21"/>
+      <c r="F301" s="21"/>
+      <c r="G301" s="21"/>
+      <c r="H301" s="21"/>
+      <c r="I301" s="21"/>
+      <c r="J301" s="21"/>
+      <c r="K301" s="21"/>
+      <c r="L301" s="21"/>
+      <c r="M301" s="21"/>
+      <c r="N301" s="21"/>
+      <c r="O301" s="21"/>
+      <c r="P301" s="21"/>
+      <c r="Q301" s="21"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="15"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="21"/>
+      <c r="D302" s="21"/>
+      <c r="E302" s="21"/>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="21"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="21"/>
+      <c r="L302" s="21"/>
+      <c r="M302" s="21"/>
+      <c r="N302" s="21"/>
+      <c r="O302" s="21"/>
+      <c r="P302" s="21"/>
+      <c r="Q302" s="21"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="15"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="21"/>
+      <c r="F303" s="21"/>
+      <c r="G303" s="21"/>
+      <c r="H303" s="21"/>
+      <c r="I303" s="21"/>
+      <c r="J303" s="21"/>
+      <c r="K303" s="21"/>
+      <c r="L303" s="21"/>
+      <c r="M303" s="21"/>
+      <c r="N303" s="21"/>
+      <c r="O303" s="21"/>
+      <c r="P303" s="21"/>
+      <c r="Q303" s="21"/>
+      <c r="R303" s="5"/>
+      <c r="S303" s="5"/>
+      <c r="T303" s="15"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="21"/>
+      <c r="F304" s="21"/>
+      <c r="G304" s="21"/>
+      <c r="H304" s="21"/>
+      <c r="I304" s="21"/>
+      <c r="J304" s="21"/>
+      <c r="K304" s="21"/>
+      <c r="L304" s="21"/>
+      <c r="M304" s="21"/>
+      <c r="N304" s="21"/>
+      <c r="O304" s="21"/>
+      <c r="P304" s="21"/>
+      <c r="Q304" s="21"/>
+      <c r="R304" s="5"/>
+      <c r="S304" s="5"/>
+      <c r="T304" s="15"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="21"/>
+      <c r="F305" s="21"/>
+      <c r="G305" s="21"/>
+      <c r="H305" s="21"/>
+      <c r="I305" s="21"/>
+      <c r="J305" s="21"/>
+      <c r="K305" s="21"/>
+      <c r="L305" s="21"/>
+      <c r="M305" s="21"/>
+      <c r="N305" s="21"/>
+      <c r="O305" s="21"/>
+      <c r="P305" s="21"/>
+      <c r="Q305" s="21"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="5"/>
+      <c r="T305" s="15"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="21"/>
+      <c r="F306" s="21"/>
+      <c r="G306" s="21"/>
+      <c r="H306" s="21"/>
+      <c r="I306" s="21"/>
+      <c r="J306" s="21"/>
+      <c r="K306" s="21"/>
+      <c r="L306" s="21"/>
+      <c r="M306" s="21"/>
+      <c r="N306" s="21"/>
+      <c r="O306" s="21"/>
+      <c r="P306" s="21"/>
+      <c r="Q306" s="21"/>
+      <c r="R306" s="5"/>
+      <c r="S306" s="5"/>
+      <c r="T306" s="15"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="21"/>
+      <c r="G307" s="21"/>
+      <c r="H307" s="21"/>
+      <c r="I307" s="21"/>
+      <c r="J307" s="21"/>
+      <c r="K307" s="21"/>
+      <c r="L307" s="21"/>
+      <c r="M307" s="21"/>
+      <c r="N307" s="21"/>
+      <c r="O307" s="21"/>
+      <c r="P307" s="21"/>
+      <c r="Q307" s="21"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="15"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="21"/>
+      <c r="F308" s="21"/>
+      <c r="G308" s="21"/>
+      <c r="H308" s="21"/>
+      <c r="I308" s="21"/>
+      <c r="J308" s="21"/>
+      <c r="K308" s="21"/>
+      <c r="L308" s="21"/>
+      <c r="M308" s="21"/>
+      <c r="N308" s="21"/>
+      <c r="O308" s="21"/>
+      <c r="P308" s="21"/>
+      <c r="Q308" s="21"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="5"/>
+      <c r="T308" s="15"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="21"/>
+      <c r="G309" s="21"/>
+      <c r="H309" s="21"/>
+      <c r="I309" s="21"/>
+      <c r="J309" s="21"/>
+      <c r="K309" s="21"/>
+      <c r="L309" s="21"/>
+      <c r="M309" s="21"/>
+      <c r="N309" s="21"/>
+      <c r="O309" s="21"/>
+      <c r="P309" s="21"/>
+      <c r="Q309" s="21"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="15"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="21"/>
+      <c r="G310" s="21"/>
+      <c r="H310" s="21"/>
+      <c r="I310" s="21"/>
+      <c r="J310" s="21"/>
+      <c r="K310" s="21"/>
+      <c r="L310" s="21"/>
+      <c r="M310" s="21"/>
+      <c r="N310" s="21"/>
+      <c r="O310" s="21"/>
+      <c r="P310" s="21"/>
+      <c r="Q310" s="21"/>
+      <c r="R310" s="5"/>
+      <c r="S310" s="5"/>
+      <c r="T310" s="15"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="21"/>
+      <c r="F311" s="21"/>
+      <c r="G311" s="21"/>
+      <c r="H311" s="21"/>
+      <c r="I311" s="21"/>
+      <c r="J311" s="21"/>
+      <c r="K311" s="21"/>
+      <c r="L311" s="21"/>
+      <c r="M311" s="21"/>
+      <c r="N311" s="21"/>
+      <c r="O311" s="21"/>
+      <c r="P311" s="21"/>
+      <c r="Q311" s="21"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="5"/>
+      <c r="T311" s="15"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C312" s="21"/>
+      <c r="D312" s="21"/>
+      <c r="E312" s="21"/>
+      <c r="F312" s="21"/>
+      <c r="G312" s="21"/>
+      <c r="H312" s="21"/>
+      <c r="I312" s="21"/>
+      <c r="J312" s="21"/>
+      <c r="K312" s="21"/>
+      <c r="L312" s="21"/>
+      <c r="M312" s="21"/>
+      <c r="N312" s="21"/>
+      <c r="O312" s="21"/>
+      <c r="P312" s="21"/>
+      <c r="Q312" s="21"/>
+      <c r="R312" s="5"/>
+      <c r="S312" s="5"/>
+      <c r="T312" s="15"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="21"/>
+      <c r="D313" s="21"/>
+      <c r="E313" s="21"/>
+      <c r="F313" s="21"/>
+      <c r="G313" s="21"/>
+      <c r="H313" s="21"/>
+      <c r="I313" s="21"/>
+      <c r="J313" s="21"/>
+      <c r="K313" s="21"/>
+      <c r="L313" s="21"/>
+      <c r="M313" s="21"/>
+      <c r="N313" s="21"/>
+      <c r="O313" s="21"/>
+      <c r="P313" s="21"/>
+      <c r="Q313" s="21"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="5"/>
+      <c r="T313" s="15"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
+      <c r="E314" s="21"/>
+      <c r="F314" s="21"/>
+      <c r="G314" s="21"/>
+      <c r="H314" s="21"/>
+      <c r="I314" s="21"/>
+      <c r="J314" s="21"/>
+      <c r="K314" s="21"/>
+      <c r="L314" s="21"/>
+      <c r="M314" s="21"/>
+      <c r="N314" s="21"/>
+      <c r="O314" s="21"/>
+      <c r="P314" s="21"/>
+      <c r="Q314" s="21"/>
+      <c r="R314" s="5"/>
+      <c r="S314" s="5"/>
+      <c r="T314" s="15"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="21"/>
+      <c r="E315" s="21"/>
+      <c r="F315" s="21"/>
+      <c r="G315" s="21"/>
+      <c r="H315" s="21"/>
+      <c r="I315" s="21"/>
+      <c r="J315" s="21"/>
+      <c r="K315" s="21"/>
+      <c r="L315" s="21"/>
+      <c r="M315" s="21"/>
+      <c r="N315" s="21"/>
+      <c r="O315" s="21"/>
+      <c r="P315" s="21"/>
+      <c r="Q315" s="21"/>
+      <c r="R315" s="5"/>
+      <c r="S315" s="5"/>
+      <c r="T315" s="15"/>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="21"/>
+      <c r="G316" s="21"/>
+      <c r="H316" s="21"/>
+      <c r="I316" s="21"/>
+      <c r="J316" s="21"/>
+      <c r="K316" s="21"/>
+      <c r="L316" s="21"/>
+      <c r="M316" s="21"/>
+      <c r="N316" s="21"/>
+      <c r="O316" s="21"/>
+      <c r="P316" s="21"/>
+      <c r="Q316" s="21"/>
+      <c r="R316" s="5"/>
+      <c r="S316" s="5"/>
+      <c r="T316" s="15"/>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="21"/>
+      <c r="F317" s="21"/>
+      <c r="G317" s="21"/>
+      <c r="H317" s="21"/>
+      <c r="I317" s="21"/>
+      <c r="J317" s="21"/>
+      <c r="K317" s="21"/>
+      <c r="L317" s="21"/>
+      <c r="M317" s="21"/>
+      <c r="N317" s="21"/>
+      <c r="O317" s="21"/>
+      <c r="P317" s="21"/>
+      <c r="Q317" s="21"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="15"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="21"/>
+      <c r="D318" s="21"/>
+      <c r="E318" s="21"/>
+      <c r="F318" s="21"/>
+      <c r="G318" s="21"/>
+      <c r="H318" s="21"/>
+      <c r="I318" s="21"/>
+      <c r="J318" s="21"/>
+      <c r="K318" s="21"/>
+      <c r="L318" s="21"/>
+      <c r="M318" s="21"/>
+      <c r="N318" s="21"/>
+      <c r="O318" s="21"/>
+      <c r="P318" s="21"/>
+      <c r="Q318" s="21"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="5"/>
+      <c r="T318" s="15"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="21"/>
+      <c r="D319" s="21"/>
+      <c r="E319" s="21"/>
+      <c r="F319" s="21"/>
+      <c r="G319" s="21"/>
+      <c r="H319" s="21"/>
+      <c r="I319" s="21"/>
+      <c r="J319" s="21"/>
+      <c r="K319" s="21"/>
+      <c r="L319" s="21"/>
+      <c r="M319" s="21"/>
+      <c r="N319" s="21"/>
+      <c r="O319" s="21"/>
+      <c r="P319" s="21"/>
+      <c r="Q319" s="21"/>
+      <c r="R319" s="5"/>
+      <c r="S319" s="5"/>
+      <c r="T319" s="15"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="21"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="21"/>
+      <c r="I320" s="21"/>
+      <c r="J320" s="21"/>
+      <c r="K320" s="21"/>
+      <c r="L320" s="21"/>
+      <c r="M320" s="21"/>
+      <c r="N320" s="21"/>
+      <c r="O320" s="21"/>
+      <c r="P320" s="21"/>
+      <c r="Q320" s="21"/>
+      <c r="R320" s="5"/>
+      <c r="S320" s="5"/>
+      <c r="T320" s="15"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
+      <c r="E321" s="21"/>
+      <c r="F321" s="21"/>
+      <c r="G321" s="21"/>
+      <c r="H321" s="21"/>
+      <c r="I321" s="21"/>
+      <c r="J321" s="21"/>
+      <c r="K321" s="21"/>
+      <c r="L321" s="21"/>
+      <c r="M321" s="21"/>
+      <c r="N321" s="21"/>
+      <c r="O321" s="21"/>
+      <c r="P321" s="21"/>
+      <c r="Q321" s="21"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="15"/>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="21"/>
+      <c r="D322" s="21"/>
+      <c r="E322" s="21"/>
+      <c r="F322" s="21"/>
+      <c r="G322" s="21"/>
+      <c r="H322" s="21"/>
+      <c r="I322" s="21"/>
+      <c r="J322" s="21"/>
+      <c r="K322" s="21"/>
+      <c r="L322" s="21"/>
+      <c r="M322" s="21"/>
+      <c r="N322" s="21"/>
+      <c r="O322" s="21"/>
+      <c r="P322" s="21"/>
+      <c r="Q322" s="21"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="5"/>
+      <c r="T322" s="15"/>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="21"/>
+      <c r="D323" s="21"/>
+      <c r="E323" s="21"/>
+      <c r="F323" s="21"/>
+      <c r="G323" s="21"/>
+      <c r="H323" s="21"/>
+      <c r="I323" s="21"/>
+      <c r="J323" s="21"/>
+      <c r="K323" s="21"/>
+      <c r="L323" s="21"/>
+      <c r="M323" s="21"/>
+      <c r="N323" s="21"/>
+      <c r="O323" s="21"/>
+      <c r="P323" s="21"/>
+      <c r="Q323" s="21"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="5"/>
+      <c r="T323" s="15"/>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="21"/>
+      <c r="D324" s="21"/>
+      <c r="E324" s="21"/>
+      <c r="F324" s="21"/>
+      <c r="G324" s="21"/>
+      <c r="H324" s="21"/>
+      <c r="I324" s="21"/>
+      <c r="J324" s="21"/>
+      <c r="K324" s="21"/>
+      <c r="L324" s="21"/>
+      <c r="M324" s="21"/>
+      <c r="N324" s="21"/>
+      <c r="O324" s="21"/>
+      <c r="P324" s="21"/>
+      <c r="Q324" s="21"/>
+      <c r="R324" s="5"/>
+      <c r="S324" s="5"/>
+      <c r="T324" s="15"/>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="21"/>
+      <c r="D325" s="21"/>
+      <c r="E325" s="21"/>
+      <c r="F325" s="21"/>
+      <c r="G325" s="21"/>
+      <c r="H325" s="21"/>
+      <c r="I325" s="21"/>
+      <c r="J325" s="21"/>
+      <c r="K325" s="21"/>
+      <c r="L325" s="21"/>
+      <c r="M325" s="21"/>
+      <c r="N325" s="21"/>
+      <c r="O325" s="21"/>
+      <c r="P325" s="21"/>
+      <c r="Q325" s="21"/>
+      <c r="R325" s="5"/>
+      <c r="S325" s="5"/>
+      <c r="T325" s="15"/>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="21"/>
+      <c r="D326" s="21"/>
+      <c r="E326" s="21"/>
+      <c r="F326" s="21"/>
+      <c r="G326" s="21"/>
+      <c r="H326" s="21"/>
+      <c r="I326" s="21"/>
+      <c r="J326" s="21"/>
+      <c r="K326" s="21"/>
+      <c r="L326" s="21"/>
+      <c r="M326" s="21"/>
+      <c r="N326" s="21"/>
+      <c r="O326" s="21"/>
+      <c r="P326" s="21"/>
+      <c r="Q326" s="21"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="5"/>
+      <c r="T326" s="15"/>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="21"/>
+      <c r="D327" s="21"/>
+      <c r="E327" s="21"/>
+      <c r="F327" s="21"/>
+      <c r="G327" s="21"/>
+      <c r="H327" s="21"/>
+      <c r="I327" s="21"/>
+      <c r="J327" s="21"/>
+      <c r="K327" s="21"/>
+      <c r="L327" s="21"/>
+      <c r="M327" s="21"/>
+      <c r="N327" s="21"/>
+      <c r="O327" s="21"/>
+      <c r="P327" s="21"/>
+      <c r="Q327" s="21"/>
+      <c r="R327" s="5"/>
+      <c r="S327" s="5"/>
+      <c r="T327" s="15"/>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="21"/>
+      <c r="D328" s="21"/>
+      <c r="E328" s="21"/>
+      <c r="F328" s="21"/>
+      <c r="G328" s="21"/>
+      <c r="H328" s="21"/>
+      <c r="I328" s="21"/>
+      <c r="J328" s="21"/>
+      <c r="K328" s="21"/>
+      <c r="L328" s="21"/>
+      <c r="M328" s="21"/>
+      <c r="N328" s="21"/>
+      <c r="O328" s="21"/>
+      <c r="P328" s="21"/>
+      <c r="Q328" s="21"/>
+      <c r="R328" s="5"/>
+      <c r="S328" s="5"/>
+      <c r="T328" s="15"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="21"/>
+      <c r="D329" s="21"/>
+      <c r="E329" s="21"/>
+      <c r="F329" s="21"/>
+      <c r="G329" s="21"/>
+      <c r="H329" s="21"/>
+      <c r="I329" s="21"/>
+      <c r="J329" s="21"/>
+      <c r="K329" s="21"/>
+      <c r="L329" s="21"/>
+      <c r="M329" s="21"/>
+      <c r="N329" s="21"/>
+      <c r="O329" s="21"/>
+      <c r="P329" s="21"/>
+      <c r="Q329" s="21"/>
+      <c r="R329" s="5"/>
+      <c r="S329" s="5"/>
+      <c r="T329" s="15"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="21"/>
+      <c r="G330" s="21"/>
+      <c r="H330" s="21"/>
+      <c r="I330" s="21"/>
+      <c r="J330" s="21"/>
+      <c r="K330" s="21"/>
+      <c r="L330" s="21"/>
+      <c r="M330" s="21"/>
+      <c r="N330" s="21"/>
+      <c r="O330" s="21"/>
+      <c r="P330" s="21"/>
+      <c r="Q330" s="21"/>
+      <c r="R330" s="5"/>
+      <c r="S330" s="5"/>
+      <c r="T330" s="15"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="21"/>
+      <c r="D331" s="21"/>
+      <c r="E331" s="21"/>
+      <c r="F331" s="21"/>
+      <c r="G331" s="21"/>
+      <c r="H331" s="21"/>
+      <c r="I331" s="21"/>
+      <c r="J331" s="21"/>
+      <c r="K331" s="21"/>
+      <c r="L331" s="21"/>
+      <c r="M331" s="21"/>
+      <c r="N331" s="21"/>
+      <c r="O331" s="21"/>
+      <c r="P331" s="21"/>
+      <c r="Q331" s="21"/>
+      <c r="R331" s="5"/>
+      <c r="S331" s="5"/>
+      <c r="T331" s="15"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="21"/>
+      <c r="D332" s="21"/>
+      <c r="E332" s="21"/>
+      <c r="F332" s="21"/>
+      <c r="G332" s="21"/>
+      <c r="H332" s="21"/>
+      <c r="I332" s="21"/>
+      <c r="J332" s="21"/>
+      <c r="K332" s="21"/>
+      <c r="L332" s="21"/>
+      <c r="M332" s="21"/>
+      <c r="N332" s="21"/>
+      <c r="O332" s="21"/>
+      <c r="P332" s="21"/>
+      <c r="Q332" s="21"/>
+      <c r="R332" s="5"/>
+      <c r="S332" s="5"/>
+      <c r="T332" s="15"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
+      <c r="E333" s="21"/>
+      <c r="F333" s="21"/>
+      <c r="G333" s="21"/>
+      <c r="H333" s="21"/>
+      <c r="I333" s="21"/>
+      <c r="J333" s="21"/>
+      <c r="K333" s="21"/>
+      <c r="L333" s="21"/>
+      <c r="M333" s="21"/>
+      <c r="N333" s="21"/>
+      <c r="O333" s="21"/>
+      <c r="P333" s="21"/>
+      <c r="Q333" s="21"/>
+      <c r="R333" s="5"/>
+      <c r="S333" s="5"/>
+      <c r="T333" s="15"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="8"/>
+      <c r="D334" s="8"/>
+      <c r="E334" s="8"/>
+      <c r="F334" s="8"/>
+      <c r="G334" s="8"/>
+      <c r="H334" s="8"/>
+      <c r="I334" s="8"/>
+      <c r="J334" s="8"/>
+      <c r="K334" s="8"/>
+      <c r="L334" s="8"/>
+      <c r="M334" s="8"/>
+      <c r="N334" s="8"/>
+      <c r="O334" s="8"/>
+      <c r="P334" s="8"/>
+      <c r="Q334" s="8"/>
+      <c r="R334" s="9"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="15"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A335" s="7"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8"/>
+      <c r="E335" s="8"/>
+      <c r="F335" s="8"/>
+      <c r="G335" s="8"/>
+      <c r="H335" s="8"/>
+      <c r="I335" s="8"/>
+      <c r="J335" s="8"/>
+      <c r="K335" s="8"/>
+      <c r="L335" s="8"/>
+      <c r="M335" s="8"/>
+      <c r="N335" s="8"/>
+      <c r="O335" s="8"/>
+      <c r="P335" s="8"/>
+      <c r="Q335" s="8"/>
+      <c r="R335" s="8"/>
+      <c r="S335" s="9"/>
+      <c r="T335" s="15"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A336" s="16"/>
+      <c r="T336" s="15"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A337" s="16"/>
+      <c r="T337" s="15"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="B338" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+      <c r="M338" s="2"/>
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
+      <c r="P338" s="2"/>
+      <c r="Q338" s="2"/>
+      <c r="R338" s="2"/>
+      <c r="S338" s="3"/>
+      <c r="T338" s="15"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+      <c r="B339" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="21"/>
+      <c r="I339" s="21"/>
+      <c r="J339" s="21"/>
+      <c r="K339" s="21"/>
+      <c r="L339" s="21"/>
+      <c r="M339" s="21"/>
+      <c r="N339" s="21"/>
+      <c r="O339" s="21"/>
+      <c r="P339" s="21"/>
+      <c r="Q339" s="21"/>
+      <c r="R339" s="21"/>
+      <c r="S339" s="5"/>
+      <c r="T339" s="15"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="21"/>
+      <c r="E340" s="21"/>
+      <c r="F340" s="21"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="21"/>
+      <c r="I340" s="21"/>
+      <c r="J340" s="21"/>
+      <c r="K340" s="21"/>
+      <c r="L340" s="21"/>
+      <c r="M340" s="21"/>
+      <c r="N340" s="21"/>
+      <c r="O340" s="21"/>
+      <c r="P340" s="21"/>
+      <c r="Q340" s="21"/>
+      <c r="R340" s="21"/>
+      <c r="S340" s="5"/>
+      <c r="T340" s="15"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C341" s="21"/>
+      <c r="D341" s="21"/>
+      <c r="E341" s="21"/>
+      <c r="F341" s="21"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="21"/>
+      <c r="I341" s="21"/>
+      <c r="J341" s="21"/>
+      <c r="K341" s="21"/>
+      <c r="L341" s="21"/>
+      <c r="M341" s="21"/>
+      <c r="N341" s="21"/>
+      <c r="O341" s="21"/>
+      <c r="P341" s="21"/>
+      <c r="Q341" s="21"/>
+      <c r="R341" s="21"/>
+      <c r="S341" s="5"/>
+      <c r="T341" s="15"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A342" s="4"/>
+      <c r="B342" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C342" s="8"/>
+      <c r="D342" s="8"/>
+      <c r="E342" s="8"/>
+      <c r="F342" s="8"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="21"/>
+      <c r="I342" s="21"/>
+      <c r="J342" s="21"/>
+      <c r="K342" s="21"/>
+      <c r="L342" s="21"/>
+      <c r="M342" s="21"/>
+      <c r="N342" s="21"/>
+      <c r="O342" s="21"/>
+      <c r="P342" s="21"/>
+      <c r="Q342" s="21"/>
+      <c r="R342" s="21"/>
+      <c r="S342" s="5"/>
+      <c r="T342" s="15"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+      <c r="B343" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C343" s="21"/>
+      <c r="D343" s="21"/>
+      <c r="E343" s="21"/>
+      <c r="F343" s="21"/>
+      <c r="G343" s="21"/>
+      <c r="H343" s="21"/>
+      <c r="I343" s="21"/>
+      <c r="J343" s="21"/>
+      <c r="K343" s="21"/>
+      <c r="L343" s="21"/>
+      <c r="M343" s="21"/>
+      <c r="N343" s="21"/>
+      <c r="O343" s="21"/>
+      <c r="P343" s="21"/>
+      <c r="Q343" s="21"/>
+      <c r="R343" s="21"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="15"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+      <c r="B344" s="21"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="21"/>
+      <c r="E344" s="21"/>
+      <c r="F344" s="21"/>
+      <c r="G344" s="21"/>
+      <c r="H344" s="21"/>
+      <c r="I344" s="21"/>
+      <c r="J344" s="21"/>
+      <c r="K344" s="21"/>
+      <c r="L344" s="21"/>
+      <c r="M344" s="21"/>
+      <c r="N344" s="21"/>
+      <c r="O344" s="21"/>
+      <c r="P344" s="21"/>
+      <c r="Q344" s="21"/>
+      <c r="R344" s="21"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="15"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="21"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
+      <c r="G345" s="21"/>
+      <c r="H345" s="21"/>
+      <c r="I345" s="21"/>
+      <c r="J345" s="21"/>
+      <c r="K345" s="21"/>
+      <c r="L345" s="21"/>
+      <c r="M345" s="21"/>
+      <c r="N345" s="21"/>
+      <c r="O345" s="21"/>
+      <c r="P345" s="21"/>
+      <c r="Q345" s="21"/>
+      <c r="R345" s="21"/>
+      <c r="S345" s="5"/>
+      <c r="T345" s="15"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+      <c r="B346" s="21"/>
+      <c r="C346" s="21"/>
+      <c r="D346" s="21"/>
+      <c r="E346" s="21"/>
+      <c r="F346" s="21"/>
+      <c r="G346" s="21"/>
+      <c r="H346" s="21"/>
+      <c r="I346" s="21"/>
+      <c r="J346" s="21"/>
+      <c r="K346" s="21"/>
+      <c r="L346" s="21"/>
+      <c r="M346" s="21"/>
+      <c r="N346" s="21"/>
+      <c r="O346" s="21"/>
+      <c r="P346" s="21"/>
+      <c r="Q346" s="21"/>
+      <c r="R346" s="21"/>
+      <c r="S346" s="5"/>
+      <c r="T346" s="15"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+      <c r="B347" s="21"/>
+      <c r="C347" s="21"/>
+      <c r="D347" s="21"/>
+      <c r="E347" s="21"/>
+      <c r="F347" s="21"/>
+      <c r="G347" s="21"/>
+      <c r="H347" s="21"/>
+      <c r="I347" s="21"/>
+      <c r="J347" s="21"/>
+      <c r="K347" s="21"/>
+      <c r="L347" s="21"/>
+      <c r="M347" s="21"/>
+      <c r="N347" s="21"/>
+      <c r="O347" s="21"/>
+      <c r="P347" s="21"/>
+      <c r="Q347" s="21"/>
+      <c r="R347" s="21"/>
+      <c r="S347" s="5"/>
+      <c r="T347" s="15"/>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A348" s="4"/>
+      <c r="B348" s="21"/>
+      <c r="C348" s="21"/>
+      <c r="D348" s="21"/>
+      <c r="E348" s="21"/>
+      <c r="F348" s="21"/>
+      <c r="G348" s="21"/>
+      <c r="H348" s="21"/>
+      <c r="I348" s="21"/>
+      <c r="J348" s="21"/>
+      <c r="K348" s="21"/>
+      <c r="L348" s="21"/>
+      <c r="M348" s="21"/>
+      <c r="N348" s="21"/>
+      <c r="O348" s="21"/>
+      <c r="P348" s="21"/>
+      <c r="Q348" s="21"/>
+      <c r="R348" s="21"/>
+      <c r="S348" s="5"/>
+      <c r="T348" s="15"/>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+      <c r="B349" s="21"/>
+      <c r="C349" s="21"/>
+      <c r="D349" s="21"/>
+      <c r="E349" s="21"/>
+      <c r="F349" s="21"/>
+      <c r="G349" s="21"/>
+      <c r="H349" s="21"/>
+      <c r="I349" s="21"/>
+      <c r="J349" s="21"/>
+      <c r="K349" s="21"/>
+      <c r="L349" s="21"/>
+      <c r="M349" s="21"/>
+      <c r="N349" s="21"/>
+      <c r="O349" s="21"/>
+      <c r="P349" s="21"/>
+      <c r="Q349" s="21"/>
+      <c r="R349" s="21"/>
+      <c r="S349" s="5"/>
+      <c r="T349" s="15"/>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+      <c r="B350" s="21"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="21"/>
+      <c r="E350" s="21"/>
+      <c r="F350" s="21"/>
+      <c r="G350" s="21"/>
+      <c r="H350" s="21"/>
+      <c r="I350" s="21"/>
+      <c r="J350" s="21"/>
+      <c r="K350" s="21"/>
+      <c r="L350" s="21"/>
+      <c r="M350" s="21"/>
+      <c r="N350" s="21"/>
+      <c r="O350" s="21"/>
+      <c r="P350" s="21"/>
+      <c r="Q350" s="21"/>
+      <c r="R350" s="21"/>
+      <c r="S350" s="5"/>
+      <c r="T350" s="15"/>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+      <c r="B351" s="21"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="21"/>
+      <c r="E351" s="21"/>
+      <c r="F351" s="21"/>
+      <c r="G351" s="21"/>
+      <c r="H351" s="21"/>
+      <c r="I351" s="21"/>
+      <c r="J351" s="21"/>
+      <c r="K351" s="21"/>
+      <c r="L351" s="21"/>
+      <c r="M351" s="21"/>
+      <c r="N351" s="21"/>
+      <c r="O351" s="21"/>
+      <c r="P351" s="21"/>
+      <c r="Q351" s="21"/>
+      <c r="R351" s="21"/>
+      <c r="S351" s="5"/>
+      <c r="T351" s="15"/>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+      <c r="B352" s="21"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
+      <c r="E352" s="21"/>
+      <c r="F352" s="21"/>
+      <c r="G352" s="21"/>
+      <c r="H352" s="21"/>
+      <c r="I352" s="21"/>
+      <c r="J352" s="21"/>
+      <c r="K352" s="21"/>
+      <c r="L352" s="21"/>
+      <c r="M352" s="21"/>
+      <c r="N352" s="21"/>
+      <c r="O352" s="21"/>
+      <c r="P352" s="21"/>
+      <c r="Q352" s="21"/>
+      <c r="R352" s="21"/>
+      <c r="S352" s="5"/>
+      <c r="T352" s="15"/>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+      <c r="B353" s="21"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
+      <c r="E353" s="21"/>
+      <c r="F353" s="21"/>
+      <c r="G353" s="21"/>
+      <c r="H353" s="21"/>
+      <c r="I353" s="21"/>
+      <c r="J353" s="21"/>
+      <c r="K353" s="21"/>
+      <c r="L353" s="21"/>
+      <c r="M353" s="21"/>
+      <c r="N353" s="21"/>
+      <c r="O353" s="21"/>
+      <c r="P353" s="21"/>
+      <c r="Q353" s="21"/>
+      <c r="R353" s="21"/>
+      <c r="S353" s="5"/>
+      <c r="T353" s="15"/>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A354" s="4"/>
+      <c r="B354" s="21"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="21"/>
+      <c r="H354" s="21"/>
+      <c r="I354" s="21"/>
+      <c r="J354" s="21"/>
+      <c r="K354" s="21"/>
+      <c r="L354" s="21"/>
+      <c r="M354" s="21"/>
+      <c r="N354" s="21"/>
+      <c r="O354" s="21"/>
+      <c r="P354" s="21"/>
+      <c r="Q354" s="21"/>
+      <c r="R354" s="21"/>
+      <c r="S354" s="5"/>
+      <c r="T354" s="15"/>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
+      <c r="G355" s="21"/>
+      <c r="H355" s="21"/>
+      <c r="I355" s="21"/>
+      <c r="J355" s="21"/>
+      <c r="K355" s="21"/>
+      <c r="L355" s="21"/>
+      <c r="M355" s="21"/>
+      <c r="N355" s="21"/>
+      <c r="O355" s="21"/>
+      <c r="P355" s="21"/>
+      <c r="Q355" s="21"/>
+      <c r="R355" s="21"/>
+      <c r="S355" s="5"/>
+      <c r="T355" s="15"/>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A356" s="4"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
+      <c r="E356" s="21"/>
+      <c r="F356" s="21"/>
+      <c r="G356" s="21"/>
+      <c r="H356" s="21"/>
+      <c r="I356" s="21"/>
+      <c r="J356" s="21"/>
+      <c r="K356" s="21"/>
+      <c r="L356" s="21"/>
+      <c r="M356" s="21"/>
+      <c r="N356" s="21"/>
+      <c r="O356" s="21"/>
+      <c r="P356" s="21"/>
+      <c r="Q356" s="21"/>
+      <c r="R356" s="21"/>
+      <c r="S356" s="5"/>
+      <c r="T356" s="15"/>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A357" s="4"/>
+      <c r="B357" s="21"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
+      <c r="E357" s="21"/>
+      <c r="F357" s="21"/>
+      <c r="G357" s="21"/>
+      <c r="H357" s="21"/>
+      <c r="I357" s="21"/>
+      <c r="J357" s="21"/>
+      <c r="K357" s="21"/>
+      <c r="L357" s="21"/>
+      <c r="M357" s="21"/>
+      <c r="N357" s="21"/>
+      <c r="O357" s="21"/>
+      <c r="P357" s="21"/>
+      <c r="Q357" s="21"/>
+      <c r="R357" s="21"/>
+      <c r="S357" s="5"/>
+      <c r="T357" s="15"/>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A358" s="4"/>
+      <c r="B358" s="21"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
+      <c r="E358" s="21"/>
+      <c r="F358" s="21"/>
+      <c r="G358" s="21"/>
+      <c r="H358" s="21"/>
+      <c r="I358" s="21"/>
+      <c r="J358" s="21"/>
+      <c r="K358" s="21"/>
+      <c r="L358" s="21"/>
+      <c r="M358" s="21"/>
+      <c r="N358" s="21"/>
+      <c r="O358" s="21"/>
+      <c r="P358" s="21"/>
+      <c r="Q358" s="21"/>
+      <c r="R358" s="21"/>
+      <c r="S358" s="5"/>
+      <c r="T358" s="15"/>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A359" s="4"/>
+      <c r="B359" s="21"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
+      <c r="E359" s="21"/>
+      <c r="F359" s="21"/>
+      <c r="G359" s="21"/>
+      <c r="H359" s="21"/>
+      <c r="I359" s="21"/>
+      <c r="J359" s="21"/>
+      <c r="K359" s="21"/>
+      <c r="L359" s="21"/>
+      <c r="M359" s="21"/>
+      <c r="N359" s="21"/>
+      <c r="O359" s="21"/>
+      <c r="P359" s="21"/>
+      <c r="Q359" s="21"/>
+      <c r="R359" s="21"/>
+      <c r="S359" s="5"/>
+      <c r="T359" s="15"/>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A360" s="4"/>
+      <c r="B360" s="21"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
+      <c r="E360" s="21"/>
+      <c r="F360" s="21"/>
+      <c r="G360" s="21"/>
+      <c r="H360" s="21"/>
+      <c r="I360" s="21"/>
+      <c r="J360" s="21"/>
+      <c r="K360" s="21"/>
+      <c r="L360" s="21"/>
+      <c r="M360" s="21"/>
+      <c r="N360" s="21"/>
+      <c r="O360" s="21"/>
+      <c r="P360" s="21"/>
+      <c r="Q360" s="21"/>
+      <c r="R360" s="21"/>
+      <c r="S360" s="5"/>
+      <c r="T360" s="15"/>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A361" s="4"/>
+      <c r="B361" s="21"/>
+      <c r="C361" s="21"/>
+      <c r="D361" s="21"/>
+      <c r="E361" s="21"/>
+      <c r="F361" s="21"/>
+      <c r="G361" s="21"/>
+      <c r="H361" s="21"/>
+      <c r="I361" s="21"/>
+      <c r="J361" s="21"/>
+      <c r="K361" s="21"/>
+      <c r="L361" s="21"/>
+      <c r="M361" s="21"/>
+      <c r="N361" s="21"/>
+      <c r="O361" s="21"/>
+      <c r="P361" s="21"/>
+      <c r="Q361" s="21"/>
+      <c r="R361" s="21"/>
+      <c r="S361" s="5"/>
+      <c r="T361" s="15"/>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A362" s="4"/>
+      <c r="B362" s="21"/>
+      <c r="C362" s="21"/>
+      <c r="D362" s="21"/>
+      <c r="E362" s="21"/>
+      <c r="F362" s="21"/>
+      <c r="G362" s="21"/>
+      <c r="H362" s="21"/>
+      <c r="I362" s="21"/>
+      <c r="J362" s="21"/>
+      <c r="K362" s="21"/>
+      <c r="L362" s="21"/>
+      <c r="M362" s="21"/>
+      <c r="N362" s="21"/>
+      <c r="O362" s="21"/>
+      <c r="P362" s="21"/>
+      <c r="Q362" s="21"/>
+      <c r="R362" s="21"/>
+      <c r="S362" s="5"/>
+      <c r="T362" s="15"/>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A363" s="4"/>
+      <c r="B363" s="21"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
+      <c r="E363" s="21"/>
+      <c r="F363" s="21"/>
+      <c r="G363" s="21"/>
+      <c r="H363" s="21"/>
+      <c r="I363" s="21"/>
+      <c r="J363" s="21"/>
+      <c r="K363" s="21"/>
+      <c r="L363" s="21"/>
+      <c r="M363" s="21"/>
+      <c r="N363" s="21"/>
+      <c r="O363" s="21"/>
+      <c r="P363" s="21"/>
+      <c r="Q363" s="21"/>
+      <c r="R363" s="21"/>
+      <c r="S363" s="5"/>
+      <c r="T363" s="15"/>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A364" s="4"/>
+      <c r="B364" s="21"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="21"/>
+      <c r="E364" s="21"/>
+      <c r="F364" s="21"/>
+      <c r="G364" s="21"/>
+      <c r="H364" s="21"/>
+      <c r="I364" s="21"/>
+      <c r="J364" s="21"/>
+      <c r="K364" s="21"/>
+      <c r="L364" s="21"/>
+      <c r="M364" s="21"/>
+      <c r="N364" s="21"/>
+      <c r="O364" s="21"/>
+      <c r="P364" s="21"/>
+      <c r="Q364" s="21"/>
+      <c r="R364" s="21"/>
+      <c r="S364" s="5"/>
+      <c r="T364" s="15"/>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A365" s="4"/>
+      <c r="B365" s="21"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
+      <c r="E365" s="21"/>
+      <c r="F365" s="21"/>
+      <c r="G365" s="21"/>
+      <c r="H365" s="21"/>
+      <c r="I365" s="21"/>
+      <c r="J365" s="21"/>
+      <c r="K365" s="21"/>
+      <c r="L365" s="21"/>
+      <c r="M365" s="21"/>
+      <c r="N365" s="21"/>
+      <c r="O365" s="21"/>
+      <c r="P365" s="21"/>
+      <c r="Q365" s="21"/>
+      <c r="R365" s="21"/>
+      <c r="S365" s="5"/>
+      <c r="T365" s="15"/>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A366" s="4"/>
+      <c r="B366" s="21"/>
+      <c r="C366" s="21"/>
+      <c r="D366" s="21"/>
+      <c r="E366" s="21"/>
+      <c r="F366" s="21"/>
+      <c r="G366" s="21"/>
+      <c r="H366" s="21"/>
+      <c r="I366" s="21"/>
+      <c r="J366" s="21"/>
+      <c r="K366" s="21"/>
+      <c r="L366" s="21"/>
+      <c r="M366" s="21"/>
+      <c r="N366" s="21"/>
+      <c r="O366" s="21"/>
+      <c r="P366" s="21"/>
+      <c r="Q366" s="21"/>
+      <c r="R366" s="21"/>
+      <c r="S366" s="5"/>
+      <c r="T366" s="15"/>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A367" s="7"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="8"/>
+      <c r="D367" s="8"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="8"/>
+      <c r="G367" s="8"/>
+      <c r="H367" s="8"/>
+      <c r="I367" s="8"/>
+      <c r="J367" s="8"/>
+      <c r="K367" s="8"/>
+      <c r="L367" s="8"/>
+      <c r="M367" s="8"/>
+      <c r="N367" s="8"/>
+      <c r="O367" s="8"/>
+      <c r="P367" s="8"/>
+      <c r="Q367" s="8"/>
+      <c r="R367" s="8"/>
+      <c r="S367" s="9"/>
+      <c r="T367" s="15"/>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A368" s="16"/>
+      <c r="T368" s="15"/>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A369" s="16"/>
+      <c r="T369" s="15"/>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A370" s="7"/>
-      <c r="B370" s="8"/>
-      <c r="C370" s="8"/>
-      <c r="D370" s="8"/>
-      <c r="E370" s="8"/>
-      <c r="F370" s="8"/>
-      <c r="G370" s="8"/>
-      <c r="H370" s="8"/>
-      <c r="I370" s="8"/>
-      <c r="J370" s="8"/>
-      <c r="K370" s="8"/>
-      <c r="L370" s="8"/>
-      <c r="M370" s="8"/>
-      <c r="N370" s="8"/>
-      <c r="O370" s="8"/>
-      <c r="P370" s="8"/>
-      <c r="Q370" s="8"/>
-      <c r="R370" s="8"/>
-      <c r="S370" s="8"/>
-      <c r="T370" s="9"/>
+      <c r="A370" s="1"/>
+      <c r="B370" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="2"/>
+      <c r="I370" s="2"/>
+      <c r="J370" s="2"/>
+      <c r="K370" s="2"/>
+      <c r="L370" s="2"/>
+      <c r="M370" s="2"/>
+      <c r="N370" s="2"/>
+      <c r="O370" s="2"/>
+      <c r="P370" s="2"/>
+      <c r="Q370" s="2"/>
+      <c r="R370" s="2"/>
+      <c r="S370" s="3"/>
+      <c r="T370" s="15"/>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A371" s="4"/>
+      <c r="B371" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="21"/>
+      <c r="H371" s="21"/>
+      <c r="I371" s="21"/>
+      <c r="J371" s="21"/>
+      <c r="K371" s="21"/>
+      <c r="L371" s="21"/>
+      <c r="M371" s="21"/>
+      <c r="N371" s="21"/>
+      <c r="O371" s="21"/>
+      <c r="P371" s="21"/>
+      <c r="Q371" s="21"/>
+      <c r="R371" s="21"/>
+      <c r="S371" s="5"/>
+      <c r="T371" s="15"/>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A372" s="4"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="21"/>
+      <c r="D372" s="21"/>
+      <c r="E372" s="21"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="21"/>
+      <c r="H372" s="21"/>
+      <c r="I372" s="21"/>
+      <c r="J372" s="21"/>
+      <c r="K372" s="21"/>
+      <c r="L372" s="21"/>
+      <c r="M372" s="21"/>
+      <c r="N372" s="21"/>
+      <c r="O372" s="21"/>
+      <c r="P372" s="21"/>
+      <c r="Q372" s="21"/>
+      <c r="R372" s="21"/>
+      <c r="S372" s="5"/>
+      <c r="T372" s="15"/>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A373" s="4"/>
+      <c r="B373" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C373" s="21"/>
+      <c r="D373" s="21"/>
+      <c r="E373" s="21"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="21"/>
+      <c r="H373" s="21"/>
+      <c r="I373" s="21"/>
+      <c r="J373" s="21"/>
+      <c r="K373" s="21"/>
+      <c r="L373" s="21"/>
+      <c r="M373" s="21"/>
+      <c r="N373" s="21"/>
+      <c r="O373" s="21"/>
+      <c r="P373" s="21"/>
+      <c r="Q373" s="21"/>
+      <c r="R373" s="21"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="15"/>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A374" s="4"/>
+      <c r="B374" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="9"/>
+      <c r="G374" s="21"/>
+      <c r="H374" s="21"/>
+      <c r="I374" s="21"/>
+      <c r="J374" s="21"/>
+      <c r="K374" s="21"/>
+      <c r="L374" s="21"/>
+      <c r="M374" s="21"/>
+      <c r="N374" s="21"/>
+      <c r="O374" s="21"/>
+      <c r="P374" s="21"/>
+      <c r="Q374" s="21"/>
+      <c r="R374" s="21"/>
+      <c r="S374" s="5"/>
+      <c r="T374" s="15"/>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A375" s="4"/>
+      <c r="B375" s="21"/>
+      <c r="C375" s="21"/>
+      <c r="D375" s="21"/>
+      <c r="E375" s="21"/>
+      <c r="F375" s="21"/>
+      <c r="G375" s="21"/>
+      <c r="H375" s="21"/>
+      <c r="I375" s="21"/>
+      <c r="J375" s="21"/>
+      <c r="K375" s="21"/>
+      <c r="L375" s="21"/>
+      <c r="M375" s="21"/>
+      <c r="N375" s="21"/>
+      <c r="O375" s="21"/>
+      <c r="P375" s="21"/>
+      <c r="Q375" s="21"/>
+      <c r="R375" s="21"/>
+      <c r="S375" s="5"/>
+      <c r="T375" s="15"/>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A376" s="4"/>
+      <c r="B376" s="21"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
+      <c r="E376" s="21"/>
+      <c r="F376" s="21"/>
+      <c r="G376" s="21"/>
+      <c r="H376" s="21"/>
+      <c r="I376" s="21"/>
+      <c r="J376" s="21"/>
+      <c r="K376" s="21"/>
+      <c r="L376" s="21"/>
+      <c r="M376" s="21"/>
+      <c r="N376" s="21"/>
+      <c r="O376" s="21"/>
+      <c r="P376" s="21"/>
+      <c r="Q376" s="21"/>
+      <c r="R376" s="21"/>
+      <c r="S376" s="5"/>
+      <c r="T376" s="15"/>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A377" s="4"/>
+      <c r="B377" s="21"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="21"/>
+      <c r="F377" s="21"/>
+      <c r="G377" s="21"/>
+      <c r="H377" s="21"/>
+      <c r="I377" s="21"/>
+      <c r="J377" s="21"/>
+      <c r="K377" s="21"/>
+      <c r="L377" s="21"/>
+      <c r="M377" s="21"/>
+      <c r="N377" s="21"/>
+      <c r="O377" s="21"/>
+      <c r="P377" s="21"/>
+      <c r="Q377" s="21"/>
+      <c r="R377" s="21"/>
+      <c r="S377" s="5"/>
+      <c r="T377" s="15"/>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A378" s="4"/>
+      <c r="B378" s="21"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
+      <c r="E378" s="21"/>
+      <c r="F378" s="21"/>
+      <c r="G378" s="21"/>
+      <c r="H378" s="21"/>
+      <c r="I378" s="21"/>
+      <c r="J378" s="21"/>
+      <c r="K378" s="21"/>
+      <c r="L378" s="21"/>
+      <c r="M378" s="21"/>
+      <c r="N378" s="21"/>
+      <c r="O378" s="21"/>
+      <c r="P378" s="21"/>
+      <c r="Q378" s="21"/>
+      <c r="R378" s="21"/>
+      <c r="S378" s="5"/>
+      <c r="T378" s="15"/>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A379" s="4"/>
+      <c r="B379" s="21"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
+      <c r="E379" s="21"/>
+      <c r="F379" s="21"/>
+      <c r="G379" s="21"/>
+      <c r="H379" s="21"/>
+      <c r="I379" s="21"/>
+      <c r="J379" s="21"/>
+      <c r="K379" s="21"/>
+      <c r="L379" s="21"/>
+      <c r="M379" s="21"/>
+      <c r="N379" s="21"/>
+      <c r="O379" s="21"/>
+      <c r="P379" s="21"/>
+      <c r="Q379" s="21"/>
+      <c r="R379" s="21"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="15"/>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A380" s="4"/>
+      <c r="B380" s="21"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
+      <c r="E380" s="21"/>
+      <c r="F380" s="21"/>
+      <c r="G380" s="21"/>
+      <c r="H380" s="21"/>
+      <c r="I380" s="21"/>
+      <c r="J380" s="21"/>
+      <c r="K380" s="21"/>
+      <c r="L380" s="21"/>
+      <c r="M380" s="21"/>
+      <c r="N380" s="21"/>
+      <c r="O380" s="21"/>
+      <c r="P380" s="21"/>
+      <c r="Q380" s="21"/>
+      <c r="R380" s="21"/>
+      <c r="S380" s="5"/>
+      <c r="T380" s="15"/>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A381" s="4"/>
+      <c r="B381" s="21"/>
+      <c r="C381" s="21"/>
+      <c r="D381" s="21"/>
+      <c r="E381" s="21"/>
+      <c r="F381" s="21"/>
+      <c r="G381" s="21"/>
+      <c r="H381" s="21"/>
+      <c r="I381" s="21"/>
+      <c r="J381" s="21"/>
+      <c r="K381" s="21"/>
+      <c r="L381" s="21"/>
+      <c r="M381" s="21"/>
+      <c r="N381" s="21"/>
+      <c r="O381" s="21"/>
+      <c r="P381" s="21"/>
+      <c r="Q381" s="21"/>
+      <c r="R381" s="21"/>
+      <c r="S381" s="5"/>
+      <c r="T381" s="15"/>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A382" s="4"/>
+      <c r="B382" s="21"/>
+      <c r="C382" s="21"/>
+      <c r="D382" s="21"/>
+      <c r="E382" s="21"/>
+      <c r="F382" s="21"/>
+      <c r="G382" s="21"/>
+      <c r="H382" s="21"/>
+      <c r="I382" s="21"/>
+      <c r="J382" s="21"/>
+      <c r="K382" s="21"/>
+      <c r="L382" s="21"/>
+      <c r="M382" s="21"/>
+      <c r="N382" s="21"/>
+      <c r="O382" s="21"/>
+      <c r="P382" s="21"/>
+      <c r="Q382" s="21"/>
+      <c r="R382" s="21"/>
+      <c r="S382" s="5"/>
+      <c r="T382" s="15"/>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A383" s="4"/>
+      <c r="B383" s="21"/>
+      <c r="C383" s="21"/>
+      <c r="D383" s="21"/>
+      <c r="E383" s="21"/>
+      <c r="F383" s="21"/>
+      <c r="G383" s="21"/>
+      <c r="H383" s="21"/>
+      <c r="I383" s="21"/>
+      <c r="J383" s="21"/>
+      <c r="K383" s="21"/>
+      <c r="L383" s="21"/>
+      <c r="M383" s="21"/>
+      <c r="N383" s="21"/>
+      <c r="O383" s="21"/>
+      <c r="P383" s="21"/>
+      <c r="Q383" s="21"/>
+      <c r="R383" s="21"/>
+      <c r="S383" s="5"/>
+      <c r="T383" s="15"/>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A384" s="4"/>
+      <c r="B384" s="21"/>
+      <c r="C384" s="21"/>
+      <c r="D384" s="21"/>
+      <c r="E384" s="21"/>
+      <c r="F384" s="21"/>
+      <c r="G384" s="21"/>
+      <c r="H384" s="21"/>
+      <c r="I384" s="21"/>
+      <c r="J384" s="21"/>
+      <c r="K384" s="21"/>
+      <c r="L384" s="21"/>
+      <c r="M384" s="21"/>
+      <c r="N384" s="21"/>
+      <c r="O384" s="21"/>
+      <c r="P384" s="21"/>
+      <c r="Q384" s="21"/>
+      <c r="R384" s="21"/>
+      <c r="S384" s="5"/>
+      <c r="T384" s="15"/>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A385" s="4"/>
+      <c r="B385" s="21"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="21"/>
+      <c r="E385" s="21"/>
+      <c r="F385" s="21"/>
+      <c r="G385" s="21"/>
+      <c r="H385" s="21"/>
+      <c r="I385" s="21"/>
+      <c r="J385" s="21"/>
+      <c r="K385" s="21"/>
+      <c r="L385" s="21"/>
+      <c r="M385" s="21"/>
+      <c r="N385" s="21"/>
+      <c r="O385" s="21"/>
+      <c r="P385" s="21"/>
+      <c r="Q385" s="21"/>
+      <c r="R385" s="21"/>
+      <c r="S385" s="5"/>
+      <c r="T385" s="15"/>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A386" s="4"/>
+      <c r="B386" s="21"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="21"/>
+      <c r="E386" s="21"/>
+      <c r="F386" s="21"/>
+      <c r="G386" s="21"/>
+      <c r="H386" s="21"/>
+      <c r="I386" s="21"/>
+      <c r="J386" s="21"/>
+      <c r="K386" s="21"/>
+      <c r="L386" s="21"/>
+      <c r="M386" s="21"/>
+      <c r="N386" s="21"/>
+      <c r="O386" s="21"/>
+      <c r="P386" s="21"/>
+      <c r="Q386" s="21"/>
+      <c r="R386" s="21"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="15"/>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A387" s="4"/>
+      <c r="B387" s="21"/>
+      <c r="C387" s="21"/>
+      <c r="D387" s="21"/>
+      <c r="E387" s="21"/>
+      <c r="F387" s="21"/>
+      <c r="G387" s="21"/>
+      <c r="H387" s="21"/>
+      <c r="I387" s="21"/>
+      <c r="J387" s="21"/>
+      <c r="K387" s="21"/>
+      <c r="L387" s="21"/>
+      <c r="M387" s="21"/>
+      <c r="N387" s="21"/>
+      <c r="O387" s="21"/>
+      <c r="P387" s="21"/>
+      <c r="Q387" s="21"/>
+      <c r="R387" s="21"/>
+      <c r="S387" s="5"/>
+      <c r="T387" s="15"/>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A388" s="4"/>
+      <c r="B388" s="21"/>
+      <c r="C388" s="21"/>
+      <c r="D388" s="21"/>
+      <c r="E388" s="21"/>
+      <c r="F388" s="21"/>
+      <c r="G388" s="21"/>
+      <c r="H388" s="21"/>
+      <c r="I388" s="21"/>
+      <c r="J388" s="21"/>
+      <c r="K388" s="21"/>
+      <c r="L388" s="21"/>
+      <c r="M388" s="21"/>
+      <c r="N388" s="21"/>
+      <c r="O388" s="21"/>
+      <c r="P388" s="21"/>
+      <c r="Q388" s="21"/>
+      <c r="R388" s="21"/>
+      <c r="S388" s="5"/>
+      <c r="T388" s="15"/>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A389" s="4"/>
+      <c r="B389" s="21"/>
+      <c r="C389" s="21"/>
+      <c r="D389" s="21"/>
+      <c r="E389" s="21"/>
+      <c r="F389" s="21"/>
+      <c r="G389" s="21"/>
+      <c r="H389" s="21"/>
+      <c r="I389" s="21"/>
+      <c r="J389" s="21"/>
+      <c r="K389" s="21"/>
+      <c r="L389" s="21"/>
+      <c r="M389" s="21"/>
+      <c r="N389" s="21"/>
+      <c r="O389" s="21"/>
+      <c r="P389" s="21"/>
+      <c r="Q389" s="21"/>
+      <c r="R389" s="21"/>
+      <c r="S389" s="5"/>
+      <c r="T389" s="15"/>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+      <c r="B390" s="21"/>
+      <c r="C390" s="21"/>
+      <c r="D390" s="21"/>
+      <c r="E390" s="21"/>
+      <c r="F390" s="21"/>
+      <c r="G390" s="21"/>
+      <c r="H390" s="21"/>
+      <c r="I390" s="21"/>
+      <c r="J390" s="21"/>
+      <c r="K390" s="21"/>
+      <c r="L390" s="21"/>
+      <c r="M390" s="21"/>
+      <c r="N390" s="21"/>
+      <c r="O390" s="21"/>
+      <c r="P390" s="21"/>
+      <c r="Q390" s="21"/>
+      <c r="R390" s="21"/>
+      <c r="S390" s="5"/>
+      <c r="T390" s="15"/>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+      <c r="B391" s="21"/>
+      <c r="C391" s="21"/>
+      <c r="D391" s="21"/>
+      <c r="E391" s="21"/>
+      <c r="F391" s="21"/>
+      <c r="G391" s="21"/>
+      <c r="H391" s="21"/>
+      <c r="I391" s="21"/>
+      <c r="J391" s="21"/>
+      <c r="K391" s="21"/>
+      <c r="L391" s="21"/>
+      <c r="M391" s="21"/>
+      <c r="N391" s="21"/>
+      <c r="O391" s="21"/>
+      <c r="P391" s="21"/>
+      <c r="Q391" s="21"/>
+      <c r="R391" s="21"/>
+      <c r="S391" s="5"/>
+      <c r="T391" s="15"/>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A392" s="4"/>
+      <c r="B392" s="21"/>
+      <c r="C392" s="21"/>
+      <c r="D392" s="21"/>
+      <c r="E392" s="21"/>
+      <c r="F392" s="21"/>
+      <c r="G392" s="21"/>
+      <c r="H392" s="21"/>
+      <c r="I392" s="21"/>
+      <c r="J392" s="21"/>
+      <c r="K392" s="21"/>
+      <c r="L392" s="21"/>
+      <c r="M392" s="21"/>
+      <c r="N392" s="21"/>
+      <c r="O392" s="21"/>
+      <c r="P392" s="21"/>
+      <c r="Q392" s="21"/>
+      <c r="R392" s="21"/>
+      <c r="S392" s="5"/>
+      <c r="T392" s="15"/>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A393" s="4"/>
+      <c r="B393" s="21"/>
+      <c r="C393" s="21"/>
+      <c r="D393" s="21"/>
+      <c r="E393" s="21"/>
+      <c r="F393" s="21"/>
+      <c r="G393" s="21"/>
+      <c r="H393" s="21"/>
+      <c r="I393" s="21"/>
+      <c r="J393" s="21"/>
+      <c r="K393" s="21"/>
+      <c r="L393" s="21"/>
+      <c r="M393" s="21"/>
+      <c r="N393" s="21"/>
+      <c r="O393" s="21"/>
+      <c r="P393" s="21"/>
+      <c r="Q393" s="21"/>
+      <c r="R393" s="21"/>
+      <c r="S393" s="5"/>
+      <c r="T393" s="15"/>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A394" s="4"/>
+      <c r="B394" s="21"/>
+      <c r="C394" s="21"/>
+      <c r="D394" s="21"/>
+      <c r="E394" s="21"/>
+      <c r="F394" s="21"/>
+      <c r="G394" s="21"/>
+      <c r="H394" s="21"/>
+      <c r="I394" s="21"/>
+      <c r="J394" s="21"/>
+      <c r="K394" s="21"/>
+      <c r="L394" s="21"/>
+      <c r="M394" s="21"/>
+      <c r="N394" s="21"/>
+      <c r="O394" s="21"/>
+      <c r="P394" s="21"/>
+      <c r="Q394" s="21"/>
+      <c r="R394" s="21"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="15"/>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+      <c r="B395" s="21"/>
+      <c r="C395" s="21"/>
+      <c r="D395" s="21"/>
+      <c r="E395" s="21"/>
+      <c r="F395" s="21"/>
+      <c r="G395" s="21"/>
+      <c r="H395" s="21"/>
+      <c r="I395" s="21"/>
+      <c r="J395" s="21"/>
+      <c r="K395" s="21"/>
+      <c r="L395" s="21"/>
+      <c r="M395" s="21"/>
+      <c r="N395" s="21"/>
+      <c r="O395" s="21"/>
+      <c r="P395" s="21"/>
+      <c r="Q395" s="21"/>
+      <c r="R395" s="21"/>
+      <c r="S395" s="5"/>
+      <c r="T395" s="15"/>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A396" s="4"/>
+      <c r="B396" s="21"/>
+      <c r="C396" s="21"/>
+      <c r="D396" s="21"/>
+      <c r="E396" s="21"/>
+      <c r="F396" s="21"/>
+      <c r="G396" s="21"/>
+      <c r="H396" s="21"/>
+      <c r="I396" s="21"/>
+      <c r="J396" s="21"/>
+      <c r="K396" s="21"/>
+      <c r="L396" s="21"/>
+      <c r="M396" s="21"/>
+      <c r="N396" s="21"/>
+      <c r="O396" s="21"/>
+      <c r="P396" s="21"/>
+      <c r="Q396" s="21"/>
+      <c r="R396" s="21"/>
+      <c r="S396" s="5"/>
+      <c r="T396" s="15"/>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+      <c r="B397" s="21"/>
+      <c r="C397" s="21"/>
+      <c r="D397" s="21"/>
+      <c r="E397" s="21"/>
+      <c r="F397" s="21"/>
+      <c r="G397" s="21"/>
+      <c r="H397" s="21"/>
+      <c r="I397" s="21"/>
+      <c r="J397" s="21"/>
+      <c r="K397" s="21"/>
+      <c r="L397" s="21"/>
+      <c r="M397" s="21"/>
+      <c r="N397" s="21"/>
+      <c r="O397" s="21"/>
+      <c r="P397" s="21"/>
+      <c r="Q397" s="21"/>
+      <c r="R397" s="21"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="15"/>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A398" s="4"/>
+      <c r="B398" s="21"/>
+      <c r="C398" s="21"/>
+      <c r="D398" s="21"/>
+      <c r="E398" s="21"/>
+      <c r="F398" s="21"/>
+      <c r="G398" s="21"/>
+      <c r="H398" s="21"/>
+      <c r="I398" s="21"/>
+      <c r="J398" s="21"/>
+      <c r="K398" s="21"/>
+      <c r="L398" s="21"/>
+      <c r="M398" s="21"/>
+      <c r="N398" s="21"/>
+      <c r="O398" s="21"/>
+      <c r="P398" s="21"/>
+      <c r="Q398" s="21"/>
+      <c r="R398" s="21"/>
+      <c r="S398" s="5"/>
+      <c r="T398" s="15"/>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+      <c r="B399" s="21"/>
+      <c r="C399" s="21"/>
+      <c r="D399" s="21"/>
+      <c r="E399" s="21"/>
+      <c r="F399" s="21"/>
+      <c r="G399" s="21"/>
+      <c r="H399" s="21"/>
+      <c r="I399" s="21"/>
+      <c r="J399" s="21"/>
+      <c r="K399" s="21"/>
+      <c r="L399" s="21"/>
+      <c r="M399" s="21"/>
+      <c r="N399" s="21"/>
+      <c r="O399" s="21"/>
+      <c r="P399" s="21"/>
+      <c r="Q399" s="21"/>
+      <c r="R399" s="21"/>
+      <c r="S399" s="5"/>
+      <c r="T399" s="15"/>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+      <c r="B400" s="21"/>
+      <c r="C400" s="21"/>
+      <c r="D400" s="21"/>
+      <c r="E400" s="21"/>
+      <c r="F400" s="21"/>
+      <c r="G400" s="21"/>
+      <c r="H400" s="21"/>
+      <c r="I400" s="21"/>
+      <c r="J400" s="21"/>
+      <c r="K400" s="21"/>
+      <c r="L400" s="21"/>
+      <c r="M400" s="21"/>
+      <c r="N400" s="21"/>
+      <c r="O400" s="21"/>
+      <c r="P400" s="21"/>
+      <c r="Q400" s="21"/>
+      <c r="R400" s="21"/>
+      <c r="S400" s="5"/>
+      <c r="T400" s="15"/>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+      <c r="B401" s="21"/>
+      <c r="C401" s="21"/>
+      <c r="D401" s="21"/>
+      <c r="E401" s="21"/>
+      <c r="F401" s="21"/>
+      <c r="G401" s="21"/>
+      <c r="H401" s="21"/>
+      <c r="I401" s="21"/>
+      <c r="J401" s="21"/>
+      <c r="K401" s="21"/>
+      <c r="L401" s="21"/>
+      <c r="M401" s="21"/>
+      <c r="N401" s="21"/>
+      <c r="O401" s="21"/>
+      <c r="P401" s="21"/>
+      <c r="Q401" s="21"/>
+      <c r="R401" s="21"/>
+      <c r="S401" s="5"/>
+      <c r="T401" s="15"/>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="21"/>
+      <c r="D402" s="21"/>
+      <c r="E402" s="21"/>
+      <c r="F402" s="21"/>
+      <c r="G402" s="21"/>
+      <c r="H402" s="21"/>
+      <c r="I402" s="21"/>
+      <c r="J402" s="21"/>
+      <c r="K402" s="21"/>
+      <c r="L402" s="21"/>
+      <c r="M402" s="21"/>
+      <c r="N402" s="21"/>
+      <c r="O402" s="21"/>
+      <c r="P402" s="21"/>
+      <c r="Q402" s="21"/>
+      <c r="R402" s="21"/>
+      <c r="S402" s="5"/>
+      <c r="T402" s="15"/>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+      <c r="B403" s="21"/>
+      <c r="C403" s="21"/>
+      <c r="D403" s="21"/>
+      <c r="E403" s="21"/>
+      <c r="F403" s="21"/>
+      <c r="G403" s="21"/>
+      <c r="H403" s="21"/>
+      <c r="I403" s="21"/>
+      <c r="J403" s="21"/>
+      <c r="K403" s="21"/>
+      <c r="L403" s="21"/>
+      <c r="M403" s="21"/>
+      <c r="N403" s="21"/>
+      <c r="O403" s="21"/>
+      <c r="P403" s="21"/>
+      <c r="Q403" s="21"/>
+      <c r="R403" s="21"/>
+      <c r="S403" s="5"/>
+      <c r="T403" s="15"/>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+      <c r="B404" s="21"/>
+      <c r="C404" s="21"/>
+      <c r="D404" s="21"/>
+      <c r="E404" s="21"/>
+      <c r="F404" s="21"/>
+      <c r="G404" s="21"/>
+      <c r="H404" s="21"/>
+      <c r="I404" s="21"/>
+      <c r="J404" s="21"/>
+      <c r="K404" s="21"/>
+      <c r="L404" s="21"/>
+      <c r="M404" s="21"/>
+      <c r="N404" s="21"/>
+      <c r="O404" s="21"/>
+      <c r="P404" s="21"/>
+      <c r="Q404" s="21"/>
+      <c r="R404" s="21"/>
+      <c r="S404" s="5"/>
+      <c r="T404" s="15"/>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+      <c r="B405" s="21"/>
+      <c r="C405" s="21"/>
+      <c r="D405" s="21"/>
+      <c r="E405" s="21"/>
+      <c r="F405" s="21"/>
+      <c r="G405" s="21"/>
+      <c r="H405" s="21"/>
+      <c r="I405" s="21"/>
+      <c r="J405" s="21"/>
+      <c r="K405" s="21"/>
+      <c r="L405" s="21"/>
+      <c r="M405" s="21"/>
+      <c r="N405" s="21"/>
+      <c r="O405" s="21"/>
+      <c r="P405" s="21"/>
+      <c r="Q405" s="21"/>
+      <c r="R405" s="21"/>
+      <c r="S405" s="5"/>
+      <c r="T405" s="15"/>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A406" s="4"/>
+      <c r="B406" s="21"/>
+      <c r="C406" s="21"/>
+      <c r="D406" s="21"/>
+      <c r="E406" s="21"/>
+      <c r="F406" s="21"/>
+      <c r="G406" s="21"/>
+      <c r="H406" s="21"/>
+      <c r="I406" s="21"/>
+      <c r="J406" s="21"/>
+      <c r="K406" s="21"/>
+      <c r="L406" s="21"/>
+      <c r="M406" s="21"/>
+      <c r="N406" s="21"/>
+      <c r="O406" s="21"/>
+      <c r="P406" s="21"/>
+      <c r="Q406" s="21"/>
+      <c r="R406" s="21"/>
+      <c r="S406" s="5"/>
+      <c r="T406" s="15"/>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+      <c r="B407" s="21"/>
+      <c r="C407" s="21"/>
+      <c r="D407" s="21"/>
+      <c r="E407" s="21"/>
+      <c r="F407" s="21"/>
+      <c r="G407" s="21"/>
+      <c r="H407" s="21"/>
+      <c r="I407" s="21"/>
+      <c r="J407" s="21"/>
+      <c r="K407" s="21"/>
+      <c r="L407" s="21"/>
+      <c r="M407" s="21"/>
+      <c r="N407" s="21"/>
+      <c r="O407" s="21"/>
+      <c r="P407" s="21"/>
+      <c r="Q407" s="21"/>
+      <c r="R407" s="21"/>
+      <c r="S407" s="5"/>
+      <c r="T407" s="15"/>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A408" s="4"/>
+      <c r="B408" s="21"/>
+      <c r="C408" s="21"/>
+      <c r="D408" s="21"/>
+      <c r="E408" s="21"/>
+      <c r="F408" s="21"/>
+      <c r="G408" s="21"/>
+      <c r="H408" s="21"/>
+      <c r="I408" s="21"/>
+      <c r="J408" s="21"/>
+      <c r="K408" s="21"/>
+      <c r="L408" s="21"/>
+      <c r="M408" s="21"/>
+      <c r="N408" s="21"/>
+      <c r="O408" s="21"/>
+      <c r="P408" s="21"/>
+      <c r="Q408" s="21"/>
+      <c r="R408" s="21"/>
+      <c r="S408" s="5"/>
+      <c r="T408" s="15"/>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+      <c r="B409" s="21"/>
+      <c r="C409" s="21"/>
+      <c r="D409" s="21"/>
+      <c r="E409" s="21"/>
+      <c r="F409" s="21"/>
+      <c r="G409" s="21"/>
+      <c r="H409" s="21"/>
+      <c r="I409" s="21"/>
+      <c r="J409" s="21"/>
+      <c r="K409" s="21"/>
+      <c r="L409" s="21"/>
+      <c r="M409" s="21"/>
+      <c r="N409" s="21"/>
+      <c r="O409" s="21"/>
+      <c r="P409" s="21"/>
+      <c r="Q409" s="21"/>
+      <c r="R409" s="21"/>
+      <c r="S409" s="5"/>
+      <c r="T409" s="15"/>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
+      <c r="D410" s="21"/>
+      <c r="E410" s="21"/>
+      <c r="F410" s="21"/>
+      <c r="G410" s="21"/>
+      <c r="H410" s="21"/>
+      <c r="I410" s="21"/>
+      <c r="J410" s="21"/>
+      <c r="K410" s="21"/>
+      <c r="L410" s="21"/>
+      <c r="M410" s="21"/>
+      <c r="N410" s="21"/>
+      <c r="O410" s="21"/>
+      <c r="P410" s="21"/>
+      <c r="Q410" s="21"/>
+      <c r="R410" s="21"/>
+      <c r="S410" s="5"/>
+      <c r="T410" s="15"/>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+      <c r="B411" s="21"/>
+      <c r="C411" s="21"/>
+      <c r="D411" s="21"/>
+      <c r="E411" s="21"/>
+      <c r="F411" s="21"/>
+      <c r="G411" s="21"/>
+      <c r="H411" s="21"/>
+      <c r="I411" s="21"/>
+      <c r="J411" s="21"/>
+      <c r="K411" s="21"/>
+      <c r="L411" s="21"/>
+      <c r="M411" s="21"/>
+      <c r="N411" s="21"/>
+      <c r="O411" s="21"/>
+      <c r="P411" s="21"/>
+      <c r="Q411" s="21"/>
+      <c r="R411" s="21"/>
+      <c r="S411" s="5"/>
+      <c r="T411" s="15"/>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A412" s="7"/>
+      <c r="B412" s="8"/>
+      <c r="C412" s="8"/>
+      <c r="D412" s="8"/>
+      <c r="E412" s="8"/>
+      <c r="F412" s="8"/>
+      <c r="G412" s="8"/>
+      <c r="H412" s="8"/>
+      <c r="I412" s="8"/>
+      <c r="J412" s="8"/>
+      <c r="K412" s="8"/>
+      <c r="L412" s="8"/>
+      <c r="M412" s="8"/>
+      <c r="N412" s="8"/>
+      <c r="O412" s="8"/>
+      <c r="P412" s="8"/>
+      <c r="Q412" s="8"/>
+      <c r="R412" s="8"/>
+      <c r="S412" s="9"/>
+      <c r="T412" s="15"/>
+    </row>
+    <row r="413" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="18"/>
+      <c r="B413" s="19"/>
+      <c r="C413" s="19"/>
+      <c r="D413" s="19"/>
+      <c r="E413" s="19"/>
+      <c r="F413" s="19"/>
+      <c r="G413" s="19"/>
+      <c r="H413" s="19"/>
+      <c r="I413" s="19"/>
+      <c r="J413" s="19"/>
+      <c r="K413" s="19"/>
+      <c r="L413" s="19"/>
+      <c r="M413" s="19"/>
+      <c r="N413" s="19"/>
+      <c r="O413" s="19"/>
+      <c r="P413" s="19"/>
+      <c r="Q413" s="19"/>
+      <c r="R413" s="19"/>
+      <c r="S413" s="19"/>
+      <c r="T413" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/15.Async-Apex.xlsx
+++ b/me/15.Async-Apex.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F52053-7431-469A-B859-BFED73A19F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC7130-2C3F-4F2D-A738-C2B35409CE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Future Methods" sheetId="1" r:id="rId1"/>
     <sheet name="Batch Apex" sheetId="2" r:id="rId2"/>
+    <sheet name="Queueable Apex" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="191">
   <si>
     <t xml:space="preserve">Future methods are the most used async features on salesforce platform. We can use future methods to separate into 2 different transactions. That means there will be a separate async </t>
   </si>
@@ -566,6 +567,66 @@
   </si>
   <si>
     <t>20*50 + 45 =  1045(21 execute)</t>
+  </si>
+  <si>
+    <t>Queueable Apex is very similar to the future methods, but it overcomes some of the limitations of future methods</t>
+  </si>
+  <si>
+    <t>3.async-queueable-apex</t>
+  </si>
+  <si>
+    <t>LeadQueueable.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\15.Async-Apex\3.async-queueable-apex\LeadQueueable.apxc</t>
+  </si>
+  <si>
+    <t>public class LeadQueueable implements Queueable{</t>
+  </si>
+  <si>
+    <t>    public void execute(QueueableContext context){</t>
+  </si>
+  <si>
+    <t>        List&lt;Lead&gt; existingRecords = [SELECT Id, LeadSource FROM Lead];</t>
+  </si>
+  <si>
+    <t>        // write async code</t>
+  </si>
+  <si>
+    <t>            record.LeadSource = 'Web Queueable';</t>
+  </si>
+  <si>
+    <t>        // you can call another queueable class as well</t>
+  </si>
+  <si>
+    <t>salesforce\15.Async-Apex\3.async-queueable-apex\dev-console.txt</t>
+  </si>
+  <si>
+    <t>LeadQueueable leadQueuableInstance = new LeadQueueable();</t>
+  </si>
+  <si>
+    <t>Id jobId = System.enqueueJob(leadQueuableInstance);</t>
+  </si>
+  <si>
+    <t>Queueable Apex can handle the non-primitive data types so we can directly pass our s-object records in side the Queueable Apex</t>
+  </si>
+  <si>
+    <t>Queueable Apex also allows us to monitor our Apex jobs. So if we define Queueable Apex, then we can track the progress from the setup page</t>
+  </si>
+  <si>
+    <t>Prefer using the future methods than Queueable Apex</t>
+  </si>
+  <si>
+    <t>Queueable Apex allow us to chain our job, this means we can call another queueable class from a queueable class</t>
+  </si>
+  <si>
+    <t>Track the progress of async operations</t>
+  </si>
+  <si>
+    <t>Batch Apex or Queueable Apex is we can get this id in our code and we can use this id to track the progress using the Apex code which is not possible in future methods</t>
+  </si>
+  <si>
+    <t>The future methods we only track the progress from Apex Jobs, we can see the results compled or failed</t>
   </si>
 </sst>
 </file>
@@ -796,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -819,6 +880,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3136,6 +3199,499 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>475059</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CCFD48-ED74-A4BF-5293-4E6AB8D29294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="857250"/>
+          <a:ext cx="9523809" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>61757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FD62FB-91FA-BAE5-8F8C-F8B52988FE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="4305300"/>
+          <a:ext cx="11087100" cy="5852957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E62E1B-D2FF-DD73-F4AD-C24E131F1738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="8896350"/>
+          <a:ext cx="1000125" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113456</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>152175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F4BE9-1918-34DE-ABD0-C42F720D4AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="33785175"/>
+          <a:ext cx="6752381" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>22780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1566F3-A10A-8B90-89E4-B38595844786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728943" y="35728276"/>
+          <a:ext cx="11070851" cy="4490004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>67496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE445833-0A73-ED95-8141-EBE5BD2792DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="40554088"/>
+          <a:ext cx="11004176" cy="5042908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9477B014-9EE3-8563-9A02-CF386184C66F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2151529" y="37909500"/>
+          <a:ext cx="1199030" cy="3440206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A5DC89-941D-9484-9C3F-70733C166D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2375647" y="30838588"/>
+          <a:ext cx="1905000" cy="10813677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>80689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C26CAB-2867-04DF-06D9-0B54CFB66785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="46448383"/>
+          <a:ext cx="11228294" cy="5638806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCD574F-5C4D-DDC5-44E5-0F2D098641B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="33326294"/>
+          <a:ext cx="7014882" cy="15800294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3401,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AE370"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A340" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
@@ -5868,8 +6424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFD497-DF28-4FCF-BC46-A41E6DAD834C}">
   <dimension ref="A3:T413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N185" sqref="N185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7295,40 +7851,13 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="3"/>
-      <c r="G245" s="21"/>
-      <c r="H245" s="21"/>
-      <c r="I245" s="21"/>
-      <c r="J245" s="21"/>
-      <c r="K245" s="21"/>
-      <c r="L245" s="21"/>
-      <c r="M245" s="21"/>
-      <c r="N245" s="21"/>
-      <c r="O245" s="21"/>
-      <c r="P245" s="21"/>
-      <c r="Q245" s="21"/>
-      <c r="R245" s="21"/>
       <c r="S245" s="5"/>
       <c r="T245" s="15"/>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="21"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21"/>
       <c r="F246" s="5"/>
-      <c r="G246" s="21"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="21"/>
-      <c r="J246" s="21"/>
-      <c r="K246" s="21"/>
-      <c r="L246" s="21"/>
-      <c r="M246" s="21"/>
-      <c r="N246" s="21"/>
-      <c r="O246" s="21"/>
-      <c r="P246" s="21"/>
-      <c r="Q246" s="21"/>
-      <c r="R246" s="21"/>
       <c r="S246" s="5"/>
       <c r="T246" s="15"/>
     </row>
@@ -7337,22 +7866,7 @@
       <c r="B247" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C247" s="21"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
       <c r="F247" s="5"/>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
-      <c r="J247" s="21"/>
-      <c r="K247" s="21"/>
-      <c r="L247" s="21"/>
-      <c r="M247" s="21"/>
-      <c r="N247" s="21"/>
-      <c r="O247" s="21"/>
-      <c r="P247" s="21"/>
-      <c r="Q247" s="21"/>
-      <c r="R247" s="21"/>
       <c r="S247" s="5"/>
       <c r="T247" s="15"/>
     </row>
@@ -7365,282 +7879,66 @@
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
       <c r="F248" s="9"/>
-      <c r="G248" s="21"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="21"/>
-      <c r="J248" s="21"/>
-      <c r="K248" s="21"/>
-      <c r="L248" s="21"/>
-      <c r="M248" s="21"/>
-      <c r="N248" s="21"/>
-      <c r="O248" s="21"/>
-      <c r="P248" s="21"/>
-      <c r="Q248" s="21"/>
-      <c r="R248" s="21"/>
       <c r="S248" s="5"/>
       <c r="T248" s="15"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="21"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="21"/>
-      <c r="J249" s="21"/>
-      <c r="K249" s="21"/>
-      <c r="L249" s="21"/>
-      <c r="M249" s="21"/>
-      <c r="N249" s="21"/>
-      <c r="O249" s="21"/>
-      <c r="P249" s="21"/>
-      <c r="Q249" s="21"/>
-      <c r="R249" s="21"/>
       <c r="S249" s="5"/>
       <c r="T249" s="15"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="21"/>
-      <c r="H250" s="21"/>
-      <c r="I250" s="21"/>
-      <c r="J250" s="21"/>
-      <c r="K250" s="21"/>
-      <c r="L250" s="21"/>
-      <c r="M250" s="21"/>
-      <c r="N250" s="21"/>
-      <c r="O250" s="21"/>
-      <c r="P250" s="21"/>
-      <c r="Q250" s="21"/>
-      <c r="R250" s="21"/>
       <c r="S250" s="5"/>
       <c r="T250" s="15"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="21"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="21"/>
-      <c r="J251" s="21"/>
-      <c r="K251" s="21"/>
-      <c r="L251" s="21"/>
-      <c r="M251" s="21"/>
-      <c r="N251" s="21"/>
-      <c r="O251" s="21"/>
-      <c r="P251" s="21"/>
-      <c r="Q251" s="21"/>
-      <c r="R251" s="21"/>
       <c r="S251" s="5"/>
       <c r="T251" s="15"/>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="21"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="21"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="21"/>
-      <c r="J252" s="21"/>
-      <c r="K252" s="21"/>
-      <c r="L252" s="21"/>
-      <c r="M252" s="21"/>
-      <c r="N252" s="21"/>
-      <c r="O252" s="21"/>
-      <c r="P252" s="21"/>
-      <c r="Q252" s="21"/>
-      <c r="R252" s="21"/>
       <c r="S252" s="5"/>
       <c r="T252" s="15"/>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="21"/>
-      <c r="K253" s="21"/>
-      <c r="L253" s="21"/>
-      <c r="M253" s="21"/>
-      <c r="N253" s="21"/>
-      <c r="O253" s="21"/>
-      <c r="P253" s="21"/>
-      <c r="Q253" s="21"/>
-      <c r="R253" s="21"/>
       <c r="S253" s="5"/>
       <c r="T253" s="15"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
-      <c r="H254" s="21"/>
-      <c r="I254" s="21"/>
-      <c r="J254" s="21"/>
-      <c r="K254" s="21"/>
-      <c r="L254" s="21"/>
-      <c r="M254" s="21"/>
-      <c r="N254" s="21"/>
-      <c r="O254" s="21"/>
-      <c r="P254" s="21"/>
-      <c r="Q254" s="21"/>
-      <c r="R254" s="21"/>
       <c r="S254" s="5"/>
       <c r="T254" s="15"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="21"/>
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="21"/>
-      <c r="J255" s="21"/>
-      <c r="K255" s="21"/>
-      <c r="L255" s="21"/>
-      <c r="M255" s="21"/>
-      <c r="N255" s="21"/>
-      <c r="O255" s="21"/>
-      <c r="P255" s="21"/>
-      <c r="Q255" s="21"/>
-      <c r="R255" s="21"/>
       <c r="S255" s="5"/>
       <c r="T255" s="15"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="21"/>
-      <c r="F256" s="21"/>
-      <c r="G256" s="21"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="21"/>
-      <c r="J256" s="21"/>
-      <c r="K256" s="21"/>
-      <c r="L256" s="21"/>
-      <c r="M256" s="21"/>
-      <c r="N256" s="21"/>
-      <c r="O256" s="21"/>
-      <c r="P256" s="21"/>
-      <c r="Q256" s="21"/>
-      <c r="R256" s="21"/>
       <c r="S256" s="5"/>
       <c r="T256" s="15"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
-      <c r="J257" s="21"/>
-      <c r="K257" s="21"/>
-      <c r="L257" s="21"/>
-      <c r="M257" s="21"/>
-      <c r="N257" s="21"/>
-      <c r="O257" s="21"/>
-      <c r="P257" s="21"/>
-      <c r="Q257" s="21"/>
-      <c r="R257" s="21"/>
       <c r="S257" s="5"/>
       <c r="T257" s="15"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="21"/>
-      <c r="F258" s="21"/>
-      <c r="G258" s="21"/>
-      <c r="H258" s="21"/>
-      <c r="I258" s="21"/>
-      <c r="J258" s="21"/>
-      <c r="K258" s="21"/>
-      <c r="L258" s="21"/>
-      <c r="M258" s="21"/>
-      <c r="N258" s="21"/>
-      <c r="O258" s="21"/>
-      <c r="P258" s="21"/>
-      <c r="Q258" s="21"/>
-      <c r="R258" s="21"/>
       <c r="S258" s="5"/>
       <c r="T258" s="15"/>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-      <c r="D259" s="21"/>
-      <c r="E259" s="21"/>
-      <c r="F259" s="21"/>
-      <c r="G259" s="21"/>
-      <c r="H259" s="21"/>
-      <c r="I259" s="21"/>
-      <c r="J259" s="21"/>
-      <c r="K259" s="21"/>
-      <c r="L259" s="21"/>
-      <c r="M259" s="21"/>
-      <c r="N259" s="21"/>
-      <c r="O259" s="21"/>
-      <c r="P259" s="21"/>
-      <c r="Q259" s="21"/>
-      <c r="R259" s="21"/>
       <c r="S259" s="5"/>
       <c r="T259" s="15"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="21"/>
-      <c r="F260" s="21"/>
-      <c r="G260" s="21"/>
-      <c r="H260" s="21"/>
-      <c r="I260" s="21"/>
-      <c r="J260" s="21"/>
-      <c r="K260" s="21"/>
-      <c r="L260" s="21"/>
-      <c r="M260" s="21"/>
-      <c r="N260" s="21"/>
-      <c r="O260" s="21"/>
-      <c r="P260" s="21"/>
-      <c r="Q260" s="21"/>
-      <c r="R260" s="21"/>
       <c r="S260" s="5"/>
       <c r="T260" s="15"/>
     </row>
@@ -7671,21 +7969,6 @@
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="21"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-      <c r="L262" s="21"/>
-      <c r="M262" s="21"/>
-      <c r="N262" s="21"/>
-      <c r="O262" s="21"/>
-      <c r="P262" s="21"/>
-      <c r="Q262" s="21"/>
       <c r="R262" s="5"/>
       <c r="S262" s="5"/>
       <c r="T262" s="15"/>
@@ -7693,21 +7976,6 @@
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="21"/>
-      <c r="F263" s="21"/>
-      <c r="G263" s="21"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
-      <c r="N263" s="21"/>
-      <c r="O263" s="21"/>
-      <c r="P263" s="21"/>
-      <c r="Q263" s="21"/>
       <c r="R263" s="5"/>
       <c r="S263" s="5"/>
       <c r="T263" s="15"/>
@@ -7715,21 +7983,6 @@
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="21"/>
-      <c r="F264" s="21"/>
-      <c r="G264" s="21"/>
-      <c r="H264" s="21"/>
-      <c r="I264" s="21"/>
-      <c r="J264" s="21"/>
-      <c r="K264" s="21"/>
-      <c r="L264" s="21"/>
-      <c r="M264" s="21"/>
-      <c r="N264" s="21"/>
-      <c r="O264" s="21"/>
-      <c r="P264" s="21"/>
-      <c r="Q264" s="21"/>
       <c r="R264" s="5"/>
       <c r="S264" s="5"/>
       <c r="T264" s="15"/>
@@ -7737,21 +7990,6 @@
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="21"/>
-      <c r="F265" s="21"/>
-      <c r="G265" s="21"/>
-      <c r="H265" s="21"/>
-      <c r="I265" s="21"/>
-      <c r="J265" s="21"/>
-      <c r="K265" s="21"/>
-      <c r="L265" s="21"/>
-      <c r="M265" s="21"/>
-      <c r="N265" s="21"/>
-      <c r="O265" s="21"/>
-      <c r="P265" s="21"/>
-      <c r="Q265" s="21"/>
       <c r="R265" s="5"/>
       <c r="S265" s="5"/>
       <c r="T265" s="15"/>
@@ -7759,21 +7997,6 @@
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="21"/>
-      <c r="F266" s="21"/>
-      <c r="G266" s="21"/>
-      <c r="H266" s="21"/>
-      <c r="I266" s="21"/>
-      <c r="J266" s="21"/>
-      <c r="K266" s="21"/>
-      <c r="L266" s="21"/>
-      <c r="M266" s="21"/>
-      <c r="N266" s="21"/>
-      <c r="O266" s="21"/>
-      <c r="P266" s="21"/>
-      <c r="Q266" s="21"/>
       <c r="R266" s="5"/>
       <c r="S266" s="5"/>
       <c r="T266" s="15"/>
@@ -7781,21 +8004,6 @@
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="21"/>
-      <c r="F267" s="21"/>
-      <c r="G267" s="21"/>
-      <c r="H267" s="21"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="21"/>
-      <c r="K267" s="21"/>
-      <c r="L267" s="21"/>
-      <c r="M267" s="21"/>
-      <c r="N267" s="21"/>
-      <c r="O267" s="21"/>
-      <c r="P267" s="21"/>
-      <c r="Q267" s="21"/>
       <c r="R267" s="5"/>
       <c r="S267" s="5"/>
       <c r="T267" s="15"/>
@@ -7803,21 +8011,6 @@
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="21"/>
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="21"/>
-      <c r="N268" s="21"/>
-      <c r="O268" s="21"/>
-      <c r="P268" s="21"/>
-      <c r="Q268" s="21"/>
       <c r="R268" s="5"/>
       <c r="S268" s="5"/>
       <c r="T268" s="15"/>
@@ -7825,21 +8018,6 @@
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="21"/>
-      <c r="F269" s="21"/>
-      <c r="G269" s="21"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="21"/>
-      <c r="K269" s="21"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="21"/>
-      <c r="N269" s="21"/>
-      <c r="O269" s="21"/>
-      <c r="P269" s="21"/>
-      <c r="Q269" s="21"/>
       <c r="R269" s="5"/>
       <c r="S269" s="5"/>
       <c r="T269" s="15"/>
@@ -7847,21 +8025,6 @@
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
-      <c r="C270" s="21"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="21"/>
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
-      <c r="J270" s="21"/>
-      <c r="K270" s="21"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="21"/>
-      <c r="N270" s="21"/>
-      <c r="O270" s="21"/>
-      <c r="P270" s="21"/>
-      <c r="Q270" s="21"/>
       <c r="R270" s="5"/>
       <c r="S270" s="5"/>
       <c r="T270" s="15"/>
@@ -7869,21 +8032,6 @@
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
-      <c r="C271" s="21"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="21"/>
-      <c r="F271" s="21"/>
-      <c r="G271" s="21"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="21"/>
-      <c r="K271" s="21"/>
-      <c r="L271" s="21"/>
-      <c r="M271" s="21"/>
-      <c r="N271" s="21"/>
-      <c r="O271" s="21"/>
-      <c r="P271" s="21"/>
-      <c r="Q271" s="21"/>
       <c r="R271" s="5"/>
       <c r="S271" s="5"/>
       <c r="T271" s="15"/>
@@ -7891,21 +8039,6 @@
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="21"/>
-      <c r="F272" s="21"/>
-      <c r="G272" s="21"/>
-      <c r="H272" s="21"/>
-      <c r="I272" s="21"/>
-      <c r="J272" s="21"/>
-      <c r="K272" s="21"/>
-      <c r="L272" s="21"/>
-      <c r="M272" s="21"/>
-      <c r="N272" s="21"/>
-      <c r="O272" s="21"/>
-      <c r="P272" s="21"/>
-      <c r="Q272" s="21"/>
       <c r="R272" s="5"/>
       <c r="S272" s="5"/>
       <c r="T272" s="15"/>
@@ -7913,21 +8046,6 @@
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="21"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="21"/>
-      <c r="F273" s="21"/>
-      <c r="G273" s="21"/>
-      <c r="H273" s="21"/>
-      <c r="I273" s="21"/>
-      <c r="J273" s="21"/>
-      <c r="K273" s="21"/>
-      <c r="L273" s="21"/>
-      <c r="M273" s="21"/>
-      <c r="N273" s="21"/>
-      <c r="O273" s="21"/>
-      <c r="P273" s="21"/>
-      <c r="Q273" s="21"/>
       <c r="R273" s="5"/>
       <c r="S273" s="5"/>
       <c r="T273" s="15"/>
@@ -7935,21 +8053,6 @@
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
-      <c r="C274" s="21"/>
-      <c r="D274" s="21"/>
-      <c r="E274" s="21"/>
-      <c r="F274" s="21"/>
-      <c r="G274" s="21"/>
-      <c r="H274" s="21"/>
-      <c r="I274" s="21"/>
-      <c r="J274" s="21"/>
-      <c r="K274" s="21"/>
-      <c r="L274" s="21"/>
-      <c r="M274" s="21"/>
-      <c r="N274" s="21"/>
-      <c r="O274" s="21"/>
-      <c r="P274" s="21"/>
-      <c r="Q274" s="21"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
       <c r="T274" s="15"/>
@@ -7957,21 +8060,6 @@
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="21"/>
-      <c r="D275" s="21"/>
-      <c r="E275" s="21"/>
-      <c r="F275" s="21"/>
-      <c r="G275" s="21"/>
-      <c r="H275" s="21"/>
-      <c r="I275" s="21"/>
-      <c r="J275" s="21"/>
-      <c r="K275" s="21"/>
-      <c r="L275" s="21"/>
-      <c r="M275" s="21"/>
-      <c r="N275" s="21"/>
-      <c r="O275" s="21"/>
-      <c r="P275" s="21"/>
-      <c r="Q275" s="21"/>
       <c r="R275" s="5"/>
       <c r="S275" s="5"/>
       <c r="T275" s="15"/>
@@ -7979,21 +8067,6 @@
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
-      <c r="C276" s="21"/>
-      <c r="D276" s="21"/>
-      <c r="E276" s="21"/>
-      <c r="F276" s="21"/>
-      <c r="G276" s="21"/>
-      <c r="H276" s="21"/>
-      <c r="I276" s="21"/>
-      <c r="J276" s="21"/>
-      <c r="K276" s="21"/>
-      <c r="L276" s="21"/>
-      <c r="M276" s="21"/>
-      <c r="N276" s="21"/>
-      <c r="O276" s="21"/>
-      <c r="P276" s="21"/>
-      <c r="Q276" s="21"/>
       <c r="R276" s="5"/>
       <c r="S276" s="5"/>
       <c r="T276" s="15"/>
@@ -8001,21 +8074,6 @@
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
-      <c r="C277" s="21"/>
-      <c r="D277" s="21"/>
-      <c r="E277" s="21"/>
-      <c r="F277" s="21"/>
-      <c r="G277" s="21"/>
-      <c r="H277" s="21"/>
-      <c r="I277" s="21"/>
-      <c r="J277" s="21"/>
-      <c r="K277" s="21"/>
-      <c r="L277" s="21"/>
-      <c r="M277" s="21"/>
-      <c r="N277" s="21"/>
-      <c r="O277" s="21"/>
-      <c r="P277" s="21"/>
-      <c r="Q277" s="21"/>
       <c r="R277" s="5"/>
       <c r="S277" s="5"/>
       <c r="T277" s="15"/>
@@ -8023,21 +8081,6 @@
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
-      <c r="C278" s="21"/>
-      <c r="D278" s="21"/>
-      <c r="E278" s="21"/>
-      <c r="F278" s="21"/>
-      <c r="G278" s="21"/>
-      <c r="H278" s="21"/>
-      <c r="I278" s="21"/>
-      <c r="J278" s="21"/>
-      <c r="K278" s="21"/>
-      <c r="L278" s="21"/>
-      <c r="M278" s="21"/>
-      <c r="N278" s="21"/>
-      <c r="O278" s="21"/>
-      <c r="P278" s="21"/>
-      <c r="Q278" s="21"/>
       <c r="R278" s="5"/>
       <c r="S278" s="5"/>
       <c r="T278" s="15"/>
@@ -8045,21 +8088,6 @@
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
-      <c r="C279" s="21"/>
-      <c r="D279" s="21"/>
-      <c r="E279" s="21"/>
-      <c r="F279" s="21"/>
-      <c r="G279" s="21"/>
-      <c r="H279" s="21"/>
-      <c r="I279" s="21"/>
-      <c r="J279" s="21"/>
-      <c r="K279" s="21"/>
-      <c r="L279" s="21"/>
-      <c r="M279" s="21"/>
-      <c r="N279" s="21"/>
-      <c r="O279" s="21"/>
-      <c r="P279" s="21"/>
-      <c r="Q279" s="21"/>
       <c r="R279" s="5"/>
       <c r="S279" s="5"/>
       <c r="T279" s="15"/>
@@ -8067,21 +8095,6 @@
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="21"/>
-      <c r="F280" s="21"/>
-      <c r="G280" s="21"/>
-      <c r="H280" s="21"/>
-      <c r="I280" s="21"/>
-      <c r="J280" s="21"/>
-      <c r="K280" s="21"/>
-      <c r="L280" s="21"/>
-      <c r="M280" s="21"/>
-      <c r="N280" s="21"/>
-      <c r="O280" s="21"/>
-      <c r="P280" s="21"/>
-      <c r="Q280" s="21"/>
       <c r="R280" s="5"/>
       <c r="S280" s="5"/>
       <c r="T280" s="15"/>
@@ -8089,21 +8102,6 @@
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="21"/>
-      <c r="F281" s="21"/>
-      <c r="G281" s="21"/>
-      <c r="H281" s="21"/>
-      <c r="I281" s="21"/>
-      <c r="J281" s="21"/>
-      <c r="K281" s="21"/>
-      <c r="L281" s="21"/>
-      <c r="M281" s="21"/>
-      <c r="N281" s="21"/>
-      <c r="O281" s="21"/>
-      <c r="P281" s="21"/>
-      <c r="Q281" s="21"/>
       <c r="R281" s="5"/>
       <c r="S281" s="5"/>
       <c r="T281" s="15"/>
@@ -8111,21 +8109,6 @@
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="21"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="21"/>
-      <c r="F282" s="21"/>
-      <c r="G282" s="21"/>
-      <c r="H282" s="21"/>
-      <c r="I282" s="21"/>
-      <c r="J282" s="21"/>
-      <c r="K282" s="21"/>
-      <c r="L282" s="21"/>
-      <c r="M282" s="21"/>
-      <c r="N282" s="21"/>
-      <c r="O282" s="21"/>
-      <c r="P282" s="21"/>
-      <c r="Q282" s="21"/>
       <c r="R282" s="5"/>
       <c r="S282" s="5"/>
       <c r="T282" s="15"/>
@@ -8133,21 +8116,6 @@
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="21"/>
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
-      <c r="H283" s="21"/>
-      <c r="I283" s="21"/>
-      <c r="J283" s="21"/>
-      <c r="K283" s="21"/>
-      <c r="L283" s="21"/>
-      <c r="M283" s="21"/>
-      <c r="N283" s="21"/>
-      <c r="O283" s="21"/>
-      <c r="P283" s="21"/>
-      <c r="Q283" s="21"/>
       <c r="R283" s="5"/>
       <c r="S283" s="5"/>
       <c r="T283" s="15"/>
@@ -8155,21 +8123,6 @@
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="21"/>
-      <c r="D284" s="21"/>
-      <c r="E284" s="21"/>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-      <c r="H284" s="21"/>
-      <c r="I284" s="21"/>
-      <c r="J284" s="21"/>
-      <c r="K284" s="21"/>
-      <c r="L284" s="21"/>
-      <c r="M284" s="21"/>
-      <c r="N284" s="21"/>
-      <c r="O284" s="21"/>
-      <c r="P284" s="21"/>
-      <c r="Q284" s="21"/>
       <c r="R284" s="5"/>
       <c r="S284" s="5"/>
       <c r="T284" s="15"/>
@@ -8177,21 +8130,6 @@
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="21"/>
-      <c r="D285" s="21"/>
-      <c r="E285" s="21"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
-      <c r="H285" s="21"/>
-      <c r="I285" s="21"/>
-      <c r="J285" s="21"/>
-      <c r="K285" s="21"/>
-      <c r="L285" s="21"/>
-      <c r="M285" s="21"/>
-      <c r="N285" s="21"/>
-      <c r="O285" s="21"/>
-      <c r="P285" s="21"/>
-      <c r="Q285" s="21"/>
       <c r="R285" s="5"/>
       <c r="S285" s="5"/>
       <c r="T285" s="15"/>
@@ -8199,21 +8137,6 @@
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="21"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
-      <c r="H286" s="21"/>
-      <c r="I286" s="21"/>
-      <c r="J286" s="21"/>
-      <c r="K286" s="21"/>
-      <c r="L286" s="21"/>
-      <c r="M286" s="21"/>
-      <c r="N286" s="21"/>
-      <c r="O286" s="21"/>
-      <c r="P286" s="21"/>
-      <c r="Q286" s="21"/>
       <c r="R286" s="5"/>
       <c r="S286" s="5"/>
       <c r="T286" s="15"/>
@@ -8221,21 +8144,6 @@
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
-      <c r="C287" s="21"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="21"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-      <c r="H287" s="21"/>
-      <c r="I287" s="21"/>
-      <c r="J287" s="21"/>
-      <c r="K287" s="21"/>
-      <c r="L287" s="21"/>
-      <c r="M287" s="21"/>
-      <c r="N287" s="21"/>
-      <c r="O287" s="21"/>
-      <c r="P287" s="21"/>
-      <c r="Q287" s="21"/>
       <c r="R287" s="5"/>
       <c r="S287" s="5"/>
       <c r="T287" s="15"/>
@@ -8243,21 +8151,6 @@
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="21"/>
-      <c r="D288" s="21"/>
-      <c r="E288" s="21"/>
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
-      <c r="H288" s="21"/>
-      <c r="I288" s="21"/>
-      <c r="J288" s="21"/>
-      <c r="K288" s="21"/>
-      <c r="L288" s="21"/>
-      <c r="M288" s="21"/>
-      <c r="N288" s="21"/>
-      <c r="O288" s="21"/>
-      <c r="P288" s="21"/>
-      <c r="Q288" s="21"/>
       <c r="R288" s="5"/>
       <c r="S288" s="5"/>
       <c r="T288" s="15"/>
@@ -8265,21 +8158,6 @@
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="21"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="21"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="21"/>
-      <c r="K289" s="21"/>
-      <c r="L289" s="21"/>
-      <c r="M289" s="21"/>
-      <c r="N289" s="21"/>
-      <c r="O289" s="21"/>
-      <c r="P289" s="21"/>
-      <c r="Q289" s="21"/>
       <c r="R289" s="5"/>
       <c r="S289" s="5"/>
       <c r="T289" s="15"/>
@@ -8287,21 +8165,6 @@
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
-      <c r="C290" s="21"/>
-      <c r="D290" s="21"/>
-      <c r="E290" s="21"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="21"/>
-      <c r="L290" s="21"/>
-      <c r="M290" s="21"/>
-      <c r="N290" s="21"/>
-      <c r="O290" s="21"/>
-      <c r="P290" s="21"/>
-      <c r="Q290" s="21"/>
       <c r="R290" s="5"/>
       <c r="S290" s="5"/>
       <c r="T290" s="15"/>
@@ -8309,21 +8172,6 @@
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
-      <c r="C291" s="21"/>
-      <c r="D291" s="21"/>
-      <c r="E291" s="21"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
-      <c r="H291" s="21"/>
-      <c r="I291" s="21"/>
-      <c r="J291" s="21"/>
-      <c r="K291" s="21"/>
-      <c r="L291" s="21"/>
-      <c r="M291" s="21"/>
-      <c r="N291" s="21"/>
-      <c r="O291" s="21"/>
-      <c r="P291" s="21"/>
-      <c r="Q291" s="21"/>
       <c r="R291" s="5"/>
       <c r="S291" s="5"/>
       <c r="T291" s="15"/>
@@ -8331,21 +8179,6 @@
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="21"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="21"/>
-      <c r="H292" s="21"/>
-      <c r="I292" s="21"/>
-      <c r="J292" s="21"/>
-      <c r="K292" s="21"/>
-      <c r="L292" s="21"/>
-      <c r="M292" s="21"/>
-      <c r="N292" s="21"/>
-      <c r="O292" s="21"/>
-      <c r="P292" s="21"/>
-      <c r="Q292" s="21"/>
       <c r="R292" s="5"/>
       <c r="S292" s="5"/>
       <c r="T292" s="15"/>
@@ -8353,21 +8186,6 @@
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
-      <c r="H293" s="21"/>
-      <c r="I293" s="21"/>
-      <c r="J293" s="21"/>
-      <c r="K293" s="21"/>
-      <c r="L293" s="21"/>
-      <c r="M293" s="21"/>
-      <c r="N293" s="21"/>
-      <c r="O293" s="21"/>
-      <c r="P293" s="21"/>
-      <c r="Q293" s="21"/>
       <c r="R293" s="5"/>
       <c r="S293" s="5"/>
       <c r="T293" s="15"/>
@@ -8375,21 +8193,6 @@
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
-      <c r="C294" s="21"/>
-      <c r="D294" s="21"/>
-      <c r="E294" s="21"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="21"/>
-      <c r="H294" s="21"/>
-      <c r="I294" s="21"/>
-      <c r="J294" s="21"/>
-      <c r="K294" s="21"/>
-      <c r="L294" s="21"/>
-      <c r="M294" s="21"/>
-      <c r="N294" s="21"/>
-      <c r="O294" s="21"/>
-      <c r="P294" s="21"/>
-      <c r="Q294" s="21"/>
       <c r="R294" s="5"/>
       <c r="S294" s="5"/>
       <c r="T294" s="15"/>
@@ -8397,21 +8200,6 @@
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
-      <c r="C295" s="21"/>
-      <c r="D295" s="21"/>
-      <c r="E295" s="21"/>
-      <c r="F295" s="21"/>
-      <c r="G295" s="21"/>
-      <c r="H295" s="21"/>
-      <c r="I295" s="21"/>
-      <c r="J295" s="21"/>
-      <c r="K295" s="21"/>
-      <c r="L295" s="21"/>
-      <c r="M295" s="21"/>
-      <c r="N295" s="21"/>
-      <c r="O295" s="21"/>
-      <c r="P295" s="21"/>
-      <c r="Q295" s="21"/>
       <c r="R295" s="5"/>
       <c r="S295" s="5"/>
       <c r="T295" s="15"/>
@@ -8419,21 +8207,6 @@
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="21"/>
-      <c r="F296" s="21"/>
-      <c r="G296" s="21"/>
-      <c r="H296" s="21"/>
-      <c r="I296" s="21"/>
-      <c r="J296" s="21"/>
-      <c r="K296" s="21"/>
-      <c r="L296" s="21"/>
-      <c r="M296" s="21"/>
-      <c r="N296" s="21"/>
-      <c r="O296" s="21"/>
-      <c r="P296" s="21"/>
-      <c r="Q296" s="21"/>
       <c r="R296" s="5"/>
       <c r="S296" s="5"/>
       <c r="T296" s="15"/>
@@ -8441,21 +8214,6 @@
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="21"/>
-      <c r="D297" s="21"/>
-      <c r="E297" s="21"/>
-      <c r="F297" s="21"/>
-      <c r="G297" s="21"/>
-      <c r="H297" s="21"/>
-      <c r="I297" s="21"/>
-      <c r="J297" s="21"/>
-      <c r="K297" s="21"/>
-      <c r="L297" s="21"/>
-      <c r="M297" s="21"/>
-      <c r="N297" s="21"/>
-      <c r="O297" s="21"/>
-      <c r="P297" s="21"/>
-      <c r="Q297" s="21"/>
       <c r="R297" s="5"/>
       <c r="S297" s="5"/>
       <c r="T297" s="15"/>
@@ -8463,21 +8221,6 @@
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="21"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="21"/>
-      <c r="F298" s="21"/>
-      <c r="G298" s="21"/>
-      <c r="H298" s="21"/>
-      <c r="I298" s="21"/>
-      <c r="J298" s="21"/>
-      <c r="K298" s="21"/>
-      <c r="L298" s="21"/>
-      <c r="M298" s="21"/>
-      <c r="N298" s="21"/>
-      <c r="O298" s="21"/>
-      <c r="P298" s="21"/>
-      <c r="Q298" s="21"/>
       <c r="R298" s="5"/>
       <c r="S298" s="5"/>
       <c r="T298" s="15"/>
@@ -8485,21 +8228,6 @@
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="21"/>
-      <c r="D299" s="21"/>
-      <c r="E299" s="21"/>
-      <c r="F299" s="21"/>
-      <c r="G299" s="21"/>
-      <c r="H299" s="21"/>
-      <c r="I299" s="21"/>
-      <c r="J299" s="21"/>
-      <c r="K299" s="21"/>
-      <c r="L299" s="21"/>
-      <c r="M299" s="21"/>
-      <c r="N299" s="21"/>
-      <c r="O299" s="21"/>
-      <c r="P299" s="21"/>
-      <c r="Q299" s="21"/>
       <c r="R299" s="5"/>
       <c r="S299" s="5"/>
       <c r="T299" s="15"/>
@@ -8507,21 +8235,6 @@
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="21"/>
-      <c r="D300" s="21"/>
-      <c r="E300" s="21"/>
-      <c r="F300" s="21"/>
-      <c r="G300" s="21"/>
-      <c r="H300" s="21"/>
-      <c r="I300" s="21"/>
-      <c r="J300" s="21"/>
-      <c r="K300" s="21"/>
-      <c r="L300" s="21"/>
-      <c r="M300" s="21"/>
-      <c r="N300" s="21"/>
-      <c r="O300" s="21"/>
-      <c r="P300" s="21"/>
-      <c r="Q300" s="21"/>
       <c r="R300" s="5"/>
       <c r="S300" s="5"/>
       <c r="T300" s="15"/>
@@ -8529,21 +8242,6 @@
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="21"/>
-      <c r="D301" s="21"/>
-      <c r="E301" s="21"/>
-      <c r="F301" s="21"/>
-      <c r="G301" s="21"/>
-      <c r="H301" s="21"/>
-      <c r="I301" s="21"/>
-      <c r="J301" s="21"/>
-      <c r="K301" s="21"/>
-      <c r="L301" s="21"/>
-      <c r="M301" s="21"/>
-      <c r="N301" s="21"/>
-      <c r="O301" s="21"/>
-      <c r="P301" s="21"/>
-      <c r="Q301" s="21"/>
       <c r="R301" s="5"/>
       <c r="S301" s="5"/>
       <c r="T301" s="15"/>
@@ -8551,21 +8249,6 @@
     <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="21"/>
-      <c r="D302" s="21"/>
-      <c r="E302" s="21"/>
-      <c r="F302" s="21"/>
-      <c r="G302" s="21"/>
-      <c r="H302" s="21"/>
-      <c r="I302" s="21"/>
-      <c r="J302" s="21"/>
-      <c r="K302" s="21"/>
-      <c r="L302" s="21"/>
-      <c r="M302" s="21"/>
-      <c r="N302" s="21"/>
-      <c r="O302" s="21"/>
-      <c r="P302" s="21"/>
-      <c r="Q302" s="21"/>
       <c r="R302" s="5"/>
       <c r="S302" s="5"/>
       <c r="T302" s="15"/>
@@ -8573,21 +8256,6 @@
     <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
-      <c r="C303" s="21"/>
-      <c r="D303" s="21"/>
-      <c r="E303" s="21"/>
-      <c r="F303" s="21"/>
-      <c r="G303" s="21"/>
-      <c r="H303" s="21"/>
-      <c r="I303" s="21"/>
-      <c r="J303" s="21"/>
-      <c r="K303" s="21"/>
-      <c r="L303" s="21"/>
-      <c r="M303" s="21"/>
-      <c r="N303" s="21"/>
-      <c r="O303" s="21"/>
-      <c r="P303" s="21"/>
-      <c r="Q303" s="21"/>
       <c r="R303" s="5"/>
       <c r="S303" s="5"/>
       <c r="T303" s="15"/>
@@ -8595,21 +8263,6 @@
     <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
-      <c r="C304" s="21"/>
-      <c r="D304" s="21"/>
-      <c r="E304" s="21"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="21"/>
-      <c r="H304" s="21"/>
-      <c r="I304" s="21"/>
-      <c r="J304" s="21"/>
-      <c r="K304" s="21"/>
-      <c r="L304" s="21"/>
-      <c r="M304" s="21"/>
-      <c r="N304" s="21"/>
-      <c r="O304" s="21"/>
-      <c r="P304" s="21"/>
-      <c r="Q304" s="21"/>
       <c r="R304" s="5"/>
       <c r="S304" s="5"/>
       <c r="T304" s="15"/>
@@ -8617,21 +8270,6 @@
     <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="21"/>
-      <c r="E305" s="21"/>
-      <c r="F305" s="21"/>
-      <c r="G305" s="21"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="21"/>
-      <c r="J305" s="21"/>
-      <c r="K305" s="21"/>
-      <c r="L305" s="21"/>
-      <c r="M305" s="21"/>
-      <c r="N305" s="21"/>
-      <c r="O305" s="21"/>
-      <c r="P305" s="21"/>
-      <c r="Q305" s="21"/>
       <c r="R305" s="5"/>
       <c r="S305" s="5"/>
       <c r="T305" s="15"/>
@@ -8639,21 +8277,6 @@
     <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
-      <c r="C306" s="21"/>
-      <c r="D306" s="21"/>
-      <c r="E306" s="21"/>
-      <c r="F306" s="21"/>
-      <c r="G306" s="21"/>
-      <c r="H306" s="21"/>
-      <c r="I306" s="21"/>
-      <c r="J306" s="21"/>
-      <c r="K306" s="21"/>
-      <c r="L306" s="21"/>
-      <c r="M306" s="21"/>
-      <c r="N306" s="21"/>
-      <c r="O306" s="21"/>
-      <c r="P306" s="21"/>
-      <c r="Q306" s="21"/>
       <c r="R306" s="5"/>
       <c r="S306" s="5"/>
       <c r="T306" s="15"/>
@@ -8661,21 +8284,6 @@
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
-      <c r="C307" s="21"/>
-      <c r="D307" s="21"/>
-      <c r="E307" s="21"/>
-      <c r="F307" s="21"/>
-      <c r="G307" s="21"/>
-      <c r="H307" s="21"/>
-      <c r="I307" s="21"/>
-      <c r="J307" s="21"/>
-      <c r="K307" s="21"/>
-      <c r="L307" s="21"/>
-      <c r="M307" s="21"/>
-      <c r="N307" s="21"/>
-      <c r="O307" s="21"/>
-      <c r="P307" s="21"/>
-      <c r="Q307" s="21"/>
       <c r="R307" s="5"/>
       <c r="S307" s="5"/>
       <c r="T307" s="15"/>
@@ -8683,21 +8291,6 @@
     <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
-      <c r="C308" s="21"/>
-      <c r="D308" s="21"/>
-      <c r="E308" s="21"/>
-      <c r="F308" s="21"/>
-      <c r="G308" s="21"/>
-      <c r="H308" s="21"/>
-      <c r="I308" s="21"/>
-      <c r="J308" s="21"/>
-      <c r="K308" s="21"/>
-      <c r="L308" s="21"/>
-      <c r="M308" s="21"/>
-      <c r="N308" s="21"/>
-      <c r="O308" s="21"/>
-      <c r="P308" s="21"/>
-      <c r="Q308" s="21"/>
       <c r="R308" s="5"/>
       <c r="S308" s="5"/>
       <c r="T308" s="15"/>
@@ -8705,21 +8298,6 @@
     <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
-      <c r="C309" s="21"/>
-      <c r="D309" s="21"/>
-      <c r="E309" s="21"/>
-      <c r="F309" s="21"/>
-      <c r="G309" s="21"/>
-      <c r="H309" s="21"/>
-      <c r="I309" s="21"/>
-      <c r="J309" s="21"/>
-      <c r="K309" s="21"/>
-      <c r="L309" s="21"/>
-      <c r="M309" s="21"/>
-      <c r="N309" s="21"/>
-      <c r="O309" s="21"/>
-      <c r="P309" s="21"/>
-      <c r="Q309" s="21"/>
       <c r="R309" s="5"/>
       <c r="S309" s="5"/>
       <c r="T309" s="15"/>
@@ -8727,21 +8305,6 @@
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
-      <c r="C310" s="21"/>
-      <c r="D310" s="21"/>
-      <c r="E310" s="21"/>
-      <c r="F310" s="21"/>
-      <c r="G310" s="21"/>
-      <c r="H310" s="21"/>
-      <c r="I310" s="21"/>
-      <c r="J310" s="21"/>
-      <c r="K310" s="21"/>
-      <c r="L310" s="21"/>
-      <c r="M310" s="21"/>
-      <c r="N310" s="21"/>
-      <c r="O310" s="21"/>
-      <c r="P310" s="21"/>
-      <c r="Q310" s="21"/>
       <c r="R310" s="5"/>
       <c r="S310" s="5"/>
       <c r="T310" s="15"/>
@@ -8751,21 +8314,6 @@
       <c r="B311" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C311" s="21"/>
-      <c r="D311" s="21"/>
-      <c r="E311" s="21"/>
-      <c r="F311" s="21"/>
-      <c r="G311" s="21"/>
-      <c r="H311" s="21"/>
-      <c r="I311" s="21"/>
-      <c r="J311" s="21"/>
-      <c r="K311" s="21"/>
-      <c r="L311" s="21"/>
-      <c r="M311" s="21"/>
-      <c r="N311" s="21"/>
-      <c r="O311" s="21"/>
-      <c r="P311" s="21"/>
-      <c r="Q311" s="21"/>
       <c r="R311" s="5"/>
       <c r="S311" s="5"/>
       <c r="T311" s="15"/>
@@ -8775,21 +8323,6 @@
       <c r="B312" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C312" s="21"/>
-      <c r="D312" s="21"/>
-      <c r="E312" s="21"/>
-      <c r="F312" s="21"/>
-      <c r="G312" s="21"/>
-      <c r="H312" s="21"/>
-      <c r="I312" s="21"/>
-      <c r="J312" s="21"/>
-      <c r="K312" s="21"/>
-      <c r="L312" s="21"/>
-      <c r="M312" s="21"/>
-      <c r="N312" s="21"/>
-      <c r="O312" s="21"/>
-      <c r="P312" s="21"/>
-      <c r="Q312" s="21"/>
       <c r="R312" s="5"/>
       <c r="S312" s="5"/>
       <c r="T312" s="15"/>
@@ -8797,21 +8330,6 @@
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="21"/>
-      <c r="D313" s="21"/>
-      <c r="E313" s="21"/>
-      <c r="F313" s="21"/>
-      <c r="G313" s="21"/>
-      <c r="H313" s="21"/>
-      <c r="I313" s="21"/>
-      <c r="J313" s="21"/>
-      <c r="K313" s="21"/>
-      <c r="L313" s="21"/>
-      <c r="M313" s="21"/>
-      <c r="N313" s="21"/>
-      <c r="O313" s="21"/>
-      <c r="P313" s="21"/>
-      <c r="Q313" s="21"/>
       <c r="R313" s="5"/>
       <c r="S313" s="5"/>
       <c r="T313" s="15"/>
@@ -8819,21 +8337,6 @@
     <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
-      <c r="C314" s="21"/>
-      <c r="D314" s="21"/>
-      <c r="E314" s="21"/>
-      <c r="F314" s="21"/>
-      <c r="G314" s="21"/>
-      <c r="H314" s="21"/>
-      <c r="I314" s="21"/>
-      <c r="J314" s="21"/>
-      <c r="K314" s="21"/>
-      <c r="L314" s="21"/>
-      <c r="M314" s="21"/>
-      <c r="N314" s="21"/>
-      <c r="O314" s="21"/>
-      <c r="P314" s="21"/>
-      <c r="Q314" s="21"/>
       <c r="R314" s="5"/>
       <c r="S314" s="5"/>
       <c r="T314" s="15"/>
@@ -8841,21 +8344,6 @@
     <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
-      <c r="C315" s="21"/>
-      <c r="D315" s="21"/>
-      <c r="E315" s="21"/>
-      <c r="F315" s="21"/>
-      <c r="G315" s="21"/>
-      <c r="H315" s="21"/>
-      <c r="I315" s="21"/>
-      <c r="J315" s="21"/>
-      <c r="K315" s="21"/>
-      <c r="L315" s="21"/>
-      <c r="M315" s="21"/>
-      <c r="N315" s="21"/>
-      <c r="O315" s="21"/>
-      <c r="P315" s="21"/>
-      <c r="Q315" s="21"/>
       <c r="R315" s="5"/>
       <c r="S315" s="5"/>
       <c r="T315" s="15"/>
@@ -8863,21 +8351,6 @@
     <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
-      <c r="C316" s="21"/>
-      <c r="D316" s="21"/>
-      <c r="E316" s="21"/>
-      <c r="F316" s="21"/>
-      <c r="G316" s="21"/>
-      <c r="H316" s="21"/>
-      <c r="I316" s="21"/>
-      <c r="J316" s="21"/>
-      <c r="K316" s="21"/>
-      <c r="L316" s="21"/>
-      <c r="M316" s="21"/>
-      <c r="N316" s="21"/>
-      <c r="O316" s="21"/>
-      <c r="P316" s="21"/>
-      <c r="Q316" s="21"/>
       <c r="R316" s="5"/>
       <c r="S316" s="5"/>
       <c r="T316" s="15"/>
@@ -8885,21 +8358,6 @@
     <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
-      <c r="C317" s="21"/>
-      <c r="D317" s="21"/>
-      <c r="E317" s="21"/>
-      <c r="F317" s="21"/>
-      <c r="G317" s="21"/>
-      <c r="H317" s="21"/>
-      <c r="I317" s="21"/>
-      <c r="J317" s="21"/>
-      <c r="K317" s="21"/>
-      <c r="L317" s="21"/>
-      <c r="M317" s="21"/>
-      <c r="N317" s="21"/>
-      <c r="O317" s="21"/>
-      <c r="P317" s="21"/>
-      <c r="Q317" s="21"/>
       <c r="R317" s="5"/>
       <c r="S317" s="5"/>
       <c r="T317" s="15"/>
@@ -8907,21 +8365,6 @@
     <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
-      <c r="C318" s="21"/>
-      <c r="D318" s="21"/>
-      <c r="E318" s="21"/>
-      <c r="F318" s="21"/>
-      <c r="G318" s="21"/>
-      <c r="H318" s="21"/>
-      <c r="I318" s="21"/>
-      <c r="J318" s="21"/>
-      <c r="K318" s="21"/>
-      <c r="L318" s="21"/>
-      <c r="M318" s="21"/>
-      <c r="N318" s="21"/>
-      <c r="O318" s="21"/>
-      <c r="P318" s="21"/>
-      <c r="Q318" s="21"/>
       <c r="R318" s="5"/>
       <c r="S318" s="5"/>
       <c r="T318" s="15"/>
@@ -8929,21 +8372,6 @@
     <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
-      <c r="C319" s="21"/>
-      <c r="D319" s="21"/>
-      <c r="E319" s="21"/>
-      <c r="F319" s="21"/>
-      <c r="G319" s="21"/>
-      <c r="H319" s="21"/>
-      <c r="I319" s="21"/>
-      <c r="J319" s="21"/>
-      <c r="K319" s="21"/>
-      <c r="L319" s="21"/>
-      <c r="M319" s="21"/>
-      <c r="N319" s="21"/>
-      <c r="O319" s="21"/>
-      <c r="P319" s="21"/>
-      <c r="Q319" s="21"/>
       <c r="R319" s="5"/>
       <c r="S319" s="5"/>
       <c r="T319" s="15"/>
@@ -8951,21 +8379,6 @@
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="21"/>
-      <c r="D320" s="21"/>
-      <c r="E320" s="21"/>
-      <c r="F320" s="21"/>
-      <c r="G320" s="21"/>
-      <c r="H320" s="21"/>
-      <c r="I320" s="21"/>
-      <c r="J320" s="21"/>
-      <c r="K320" s="21"/>
-      <c r="L320" s="21"/>
-      <c r="M320" s="21"/>
-      <c r="N320" s="21"/>
-      <c r="O320" s="21"/>
-      <c r="P320" s="21"/>
-      <c r="Q320" s="21"/>
       <c r="R320" s="5"/>
       <c r="S320" s="5"/>
       <c r="T320" s="15"/>
@@ -8973,21 +8386,6 @@
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
-      <c r="C321" s="21"/>
-      <c r="D321" s="21"/>
-      <c r="E321" s="21"/>
-      <c r="F321" s="21"/>
-      <c r="G321" s="21"/>
-      <c r="H321" s="21"/>
-      <c r="I321" s="21"/>
-      <c r="J321" s="21"/>
-      <c r="K321" s="21"/>
-      <c r="L321" s="21"/>
-      <c r="M321" s="21"/>
-      <c r="N321" s="21"/>
-      <c r="O321" s="21"/>
-      <c r="P321" s="21"/>
-      <c r="Q321" s="21"/>
       <c r="R321" s="5"/>
       <c r="S321" s="5"/>
       <c r="T321" s="15"/>
@@ -8995,21 +8393,6 @@
     <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
-      <c r="C322" s="21"/>
-      <c r="D322" s="21"/>
-      <c r="E322" s="21"/>
-      <c r="F322" s="21"/>
-      <c r="G322" s="21"/>
-      <c r="H322" s="21"/>
-      <c r="I322" s="21"/>
-      <c r="J322" s="21"/>
-      <c r="K322" s="21"/>
-      <c r="L322" s="21"/>
-      <c r="M322" s="21"/>
-      <c r="N322" s="21"/>
-      <c r="O322" s="21"/>
-      <c r="P322" s="21"/>
-      <c r="Q322" s="21"/>
       <c r="R322" s="5"/>
       <c r="S322" s="5"/>
       <c r="T322" s="15"/>
@@ -9017,21 +8400,6 @@
     <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
-      <c r="C323" s="21"/>
-      <c r="D323" s="21"/>
-      <c r="E323" s="21"/>
-      <c r="F323" s="21"/>
-      <c r="G323" s="21"/>
-      <c r="H323" s="21"/>
-      <c r="I323" s="21"/>
-      <c r="J323" s="21"/>
-      <c r="K323" s="21"/>
-      <c r="L323" s="21"/>
-      <c r="M323" s="21"/>
-      <c r="N323" s="21"/>
-      <c r="O323" s="21"/>
-      <c r="P323" s="21"/>
-      <c r="Q323" s="21"/>
       <c r="R323" s="5"/>
       <c r="S323" s="5"/>
       <c r="T323" s="15"/>
@@ -9039,21 +8407,6 @@
     <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
-      <c r="C324" s="21"/>
-      <c r="D324" s="21"/>
-      <c r="E324" s="21"/>
-      <c r="F324" s="21"/>
-      <c r="G324" s="21"/>
-      <c r="H324" s="21"/>
-      <c r="I324" s="21"/>
-      <c r="J324" s="21"/>
-      <c r="K324" s="21"/>
-      <c r="L324" s="21"/>
-      <c r="M324" s="21"/>
-      <c r="N324" s="21"/>
-      <c r="O324" s="21"/>
-      <c r="P324" s="21"/>
-      <c r="Q324" s="21"/>
       <c r="R324" s="5"/>
       <c r="S324" s="5"/>
       <c r="T324" s="15"/>
@@ -9061,21 +8414,6 @@
     <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
-      <c r="C325" s="21"/>
-      <c r="D325" s="21"/>
-      <c r="E325" s="21"/>
-      <c r="F325" s="21"/>
-      <c r="G325" s="21"/>
-      <c r="H325" s="21"/>
-      <c r="I325" s="21"/>
-      <c r="J325" s="21"/>
-      <c r="K325" s="21"/>
-      <c r="L325" s="21"/>
-      <c r="M325" s="21"/>
-      <c r="N325" s="21"/>
-      <c r="O325" s="21"/>
-      <c r="P325" s="21"/>
-      <c r="Q325" s="21"/>
       <c r="R325" s="5"/>
       <c r="S325" s="5"/>
       <c r="T325" s="15"/>
@@ -9083,21 +8421,6 @@
     <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
-      <c r="C326" s="21"/>
-      <c r="D326" s="21"/>
-      <c r="E326" s="21"/>
-      <c r="F326" s="21"/>
-      <c r="G326" s="21"/>
-      <c r="H326" s="21"/>
-      <c r="I326" s="21"/>
-      <c r="J326" s="21"/>
-      <c r="K326" s="21"/>
-      <c r="L326" s="21"/>
-      <c r="M326" s="21"/>
-      <c r="N326" s="21"/>
-      <c r="O326" s="21"/>
-      <c r="P326" s="21"/>
-      <c r="Q326" s="21"/>
       <c r="R326" s="5"/>
       <c r="S326" s="5"/>
       <c r="T326" s="15"/>
@@ -9105,21 +8428,6 @@
     <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
-      <c r="C327" s="21"/>
-      <c r="D327" s="21"/>
-      <c r="E327" s="21"/>
-      <c r="F327" s="21"/>
-      <c r="G327" s="21"/>
-      <c r="H327" s="21"/>
-      <c r="I327" s="21"/>
-      <c r="J327" s="21"/>
-      <c r="K327" s="21"/>
-      <c r="L327" s="21"/>
-      <c r="M327" s="21"/>
-      <c r="N327" s="21"/>
-      <c r="O327" s="21"/>
-      <c r="P327" s="21"/>
-      <c r="Q327" s="21"/>
       <c r="R327" s="5"/>
       <c r="S327" s="5"/>
       <c r="T327" s="15"/>
@@ -9127,21 +8435,6 @@
     <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
-      <c r="C328" s="21"/>
-      <c r="D328" s="21"/>
-      <c r="E328" s="21"/>
-      <c r="F328" s="21"/>
-      <c r="G328" s="21"/>
-      <c r="H328" s="21"/>
-      <c r="I328" s="21"/>
-      <c r="J328" s="21"/>
-      <c r="K328" s="21"/>
-      <c r="L328" s="21"/>
-      <c r="M328" s="21"/>
-      <c r="N328" s="21"/>
-      <c r="O328" s="21"/>
-      <c r="P328" s="21"/>
-      <c r="Q328" s="21"/>
       <c r="R328" s="5"/>
       <c r="S328" s="5"/>
       <c r="T328" s="15"/>
@@ -9149,21 +8442,6 @@
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
-      <c r="C329" s="21"/>
-      <c r="D329" s="21"/>
-      <c r="E329" s="21"/>
-      <c r="F329" s="21"/>
-      <c r="G329" s="21"/>
-      <c r="H329" s="21"/>
-      <c r="I329" s="21"/>
-      <c r="J329" s="21"/>
-      <c r="K329" s="21"/>
-      <c r="L329" s="21"/>
-      <c r="M329" s="21"/>
-      <c r="N329" s="21"/>
-      <c r="O329" s="21"/>
-      <c r="P329" s="21"/>
-      <c r="Q329" s="21"/>
       <c r="R329" s="5"/>
       <c r="S329" s="5"/>
       <c r="T329" s="15"/>
@@ -9171,21 +8449,6 @@
     <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="21"/>
-      <c r="N330" s="21"/>
-      <c r="O330" s="21"/>
-      <c r="P330" s="21"/>
-      <c r="Q330" s="21"/>
       <c r="R330" s="5"/>
       <c r="S330" s="5"/>
       <c r="T330" s="15"/>
@@ -9193,21 +8456,6 @@
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
-      <c r="C331" s="21"/>
-      <c r="D331" s="21"/>
-      <c r="E331" s="21"/>
-      <c r="F331" s="21"/>
-      <c r="G331" s="21"/>
-      <c r="H331" s="21"/>
-      <c r="I331" s="21"/>
-      <c r="J331" s="21"/>
-      <c r="K331" s="21"/>
-      <c r="L331" s="21"/>
-      <c r="M331" s="21"/>
-      <c r="N331" s="21"/>
-      <c r="O331" s="21"/>
-      <c r="P331" s="21"/>
-      <c r="Q331" s="21"/>
       <c r="R331" s="5"/>
       <c r="S331" s="5"/>
       <c r="T331" s="15"/>
@@ -9215,21 +8463,6 @@
     <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="21"/>
-      <c r="D332" s="21"/>
-      <c r="E332" s="21"/>
-      <c r="F332" s="21"/>
-      <c r="G332" s="21"/>
-      <c r="H332" s="21"/>
-      <c r="I332" s="21"/>
-      <c r="J332" s="21"/>
-      <c r="K332" s="21"/>
-      <c r="L332" s="21"/>
-      <c r="M332" s="21"/>
-      <c r="N332" s="21"/>
-      <c r="O332" s="21"/>
-      <c r="P332" s="21"/>
-      <c r="Q332" s="21"/>
       <c r="R332" s="5"/>
       <c r="S332" s="5"/>
       <c r="T332" s="15"/>
@@ -9237,21 +8470,6 @@
     <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
-      <c r="C333" s="21"/>
-      <c r="D333" s="21"/>
-      <c r="E333" s="21"/>
-      <c r="F333" s="21"/>
-      <c r="G333" s="21"/>
-      <c r="H333" s="21"/>
-      <c r="I333" s="21"/>
-      <c r="J333" s="21"/>
-      <c r="K333" s="21"/>
-      <c r="L333" s="21"/>
-      <c r="M333" s="21"/>
-      <c r="N333" s="21"/>
-      <c r="O333" s="21"/>
-      <c r="P333" s="21"/>
-      <c r="Q333" s="21"/>
       <c r="R333" s="5"/>
       <c r="S333" s="5"/>
       <c r="T333" s="15"/>
@@ -9342,39 +8560,13 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="3"/>
-      <c r="H339" s="21"/>
-      <c r="I339" s="21"/>
-      <c r="J339" s="21"/>
-      <c r="K339" s="21"/>
-      <c r="L339" s="21"/>
-      <c r="M339" s="21"/>
-      <c r="N339" s="21"/>
-      <c r="O339" s="21"/>
-      <c r="P339" s="21"/>
-      <c r="Q339" s="21"/>
-      <c r="R339" s="21"/>
       <c r="S339" s="5"/>
       <c r="T339" s="15"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="21"/>
-      <c r="D340" s="21"/>
-      <c r="E340" s="21"/>
-      <c r="F340" s="21"/>
       <c r="G340" s="5"/>
-      <c r="H340" s="21"/>
-      <c r="I340" s="21"/>
-      <c r="J340" s="21"/>
-      <c r="K340" s="21"/>
-      <c r="L340" s="21"/>
-      <c r="M340" s="21"/>
-      <c r="N340" s="21"/>
-      <c r="O340" s="21"/>
-      <c r="P340" s="21"/>
-      <c r="Q340" s="21"/>
-      <c r="R340" s="21"/>
       <c r="S340" s="5"/>
       <c r="T340" s="15"/>
     </row>
@@ -9383,22 +8575,7 @@
       <c r="B341" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C341" s="21"/>
-      <c r="D341" s="21"/>
-      <c r="E341" s="21"/>
-      <c r="F341" s="21"/>
       <c r="G341" s="5"/>
-      <c r="H341" s="21"/>
-      <c r="I341" s="21"/>
-      <c r="J341" s="21"/>
-      <c r="K341" s="21"/>
-      <c r="L341" s="21"/>
-      <c r="M341" s="21"/>
-      <c r="N341" s="21"/>
-      <c r="O341" s="21"/>
-      <c r="P341" s="21"/>
-      <c r="Q341" s="21"/>
-      <c r="R341" s="21"/>
       <c r="S341" s="5"/>
       <c r="T341" s="15"/>
     </row>
@@ -9412,547 +8589,129 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
       <c r="G342" s="9"/>
-      <c r="H342" s="21"/>
-      <c r="I342" s="21"/>
-      <c r="J342" s="21"/>
-      <c r="K342" s="21"/>
-      <c r="L342" s="21"/>
-      <c r="M342" s="21"/>
-      <c r="N342" s="21"/>
-      <c r="O342" s="21"/>
-      <c r="P342" s="21"/>
-      <c r="Q342" s="21"/>
-      <c r="R342" s="21"/>
       <c r="S342" s="5"/>
       <c r="T342" s="15"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="B343" s="21" t="s">
+      <c r="B343" t="s">
         <v>167</v>
       </c>
-      <c r="C343" s="21"/>
-      <c r="D343" s="21"/>
-      <c r="E343" s="21"/>
-      <c r="F343" s="21"/>
-      <c r="G343" s="21"/>
-      <c r="H343" s="21"/>
-      <c r="I343" s="21"/>
-      <c r="J343" s="21"/>
-      <c r="K343" s="21"/>
-      <c r="L343" s="21"/>
-      <c r="M343" s="21"/>
-      <c r="N343" s="21"/>
-      <c r="O343" s="21"/>
-      <c r="P343" s="21"/>
-      <c r="Q343" s="21"/>
-      <c r="R343" s="21"/>
       <c r="S343" s="5"/>
       <c r="T343" s="15"/>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="B344" s="21"/>
-      <c r="C344" s="21"/>
-      <c r="D344" s="21"/>
-      <c r="E344" s="21"/>
-      <c r="F344" s="21"/>
-      <c r="G344" s="21"/>
-      <c r="H344" s="21"/>
-      <c r="I344" s="21"/>
-      <c r="J344" s="21"/>
-      <c r="K344" s="21"/>
-      <c r="L344" s="21"/>
-      <c r="M344" s="21"/>
-      <c r="N344" s="21"/>
-      <c r="O344" s="21"/>
-      <c r="P344" s="21"/>
-      <c r="Q344" s="21"/>
-      <c r="R344" s="21"/>
       <c r="S344" s="5"/>
       <c r="T344" s="15"/>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="B345" s="21"/>
-      <c r="C345" s="21"/>
-      <c r="D345" s="21"/>
-      <c r="E345" s="21"/>
-      <c r="F345" s="21"/>
-      <c r="G345" s="21"/>
-      <c r="H345" s="21"/>
-      <c r="I345" s="21"/>
-      <c r="J345" s="21"/>
-      <c r="K345" s="21"/>
-      <c r="L345" s="21"/>
-      <c r="M345" s="21"/>
-      <c r="N345" s="21"/>
-      <c r="O345" s="21"/>
-      <c r="P345" s="21"/>
-      <c r="Q345" s="21"/>
-      <c r="R345" s="21"/>
       <c r="S345" s="5"/>
       <c r="T345" s="15"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="B346" s="21"/>
-      <c r="C346" s="21"/>
-      <c r="D346" s="21"/>
-      <c r="E346" s="21"/>
-      <c r="F346" s="21"/>
-      <c r="G346" s="21"/>
-      <c r="H346" s="21"/>
-      <c r="I346" s="21"/>
-      <c r="J346" s="21"/>
-      <c r="K346" s="21"/>
-      <c r="L346" s="21"/>
-      <c r="M346" s="21"/>
-      <c r="N346" s="21"/>
-      <c r="O346" s="21"/>
-      <c r="P346" s="21"/>
-      <c r="Q346" s="21"/>
-      <c r="R346" s="21"/>
       <c r="S346" s="5"/>
       <c r="T346" s="15"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="B347" s="21"/>
-      <c r="C347" s="21"/>
-      <c r="D347" s="21"/>
-      <c r="E347" s="21"/>
-      <c r="F347" s="21"/>
-      <c r="G347" s="21"/>
-      <c r="H347" s="21"/>
-      <c r="I347" s="21"/>
-      <c r="J347" s="21"/>
-      <c r="K347" s="21"/>
-      <c r="L347" s="21"/>
-      <c r="M347" s="21"/>
-      <c r="N347" s="21"/>
-      <c r="O347" s="21"/>
-      <c r="P347" s="21"/>
-      <c r="Q347" s="21"/>
-      <c r="R347" s="21"/>
       <c r="S347" s="5"/>
       <c r="T347" s="15"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="B348" s="21"/>
-      <c r="C348" s="21"/>
-      <c r="D348" s="21"/>
-      <c r="E348" s="21"/>
-      <c r="F348" s="21"/>
-      <c r="G348" s="21"/>
-      <c r="H348" s="21"/>
-      <c r="I348" s="21"/>
-      <c r="J348" s="21"/>
-      <c r="K348" s="21"/>
-      <c r="L348" s="21"/>
-      <c r="M348" s="21"/>
-      <c r="N348" s="21"/>
-      <c r="O348" s="21"/>
-      <c r="P348" s="21"/>
-      <c r="Q348" s="21"/>
-      <c r="R348" s="21"/>
       <c r="S348" s="5"/>
       <c r="T348" s="15"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="B349" s="21"/>
-      <c r="C349" s="21"/>
-      <c r="D349" s="21"/>
-      <c r="E349" s="21"/>
-      <c r="F349" s="21"/>
-      <c r="G349" s="21"/>
-      <c r="H349" s="21"/>
-      <c r="I349" s="21"/>
-      <c r="J349" s="21"/>
-      <c r="K349" s="21"/>
-      <c r="L349" s="21"/>
-      <c r="M349" s="21"/>
-      <c r="N349" s="21"/>
-      <c r="O349" s="21"/>
-      <c r="P349" s="21"/>
-      <c r="Q349" s="21"/>
-      <c r="R349" s="21"/>
       <c r="S349" s="5"/>
       <c r="T349" s="15"/>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="B350" s="21"/>
-      <c r="C350" s="21"/>
-      <c r="D350" s="21"/>
-      <c r="E350" s="21"/>
-      <c r="F350" s="21"/>
-      <c r="G350" s="21"/>
-      <c r="H350" s="21"/>
-      <c r="I350" s="21"/>
-      <c r="J350" s="21"/>
-      <c r="K350" s="21"/>
-      <c r="L350" s="21"/>
-      <c r="M350" s="21"/>
-      <c r="N350" s="21"/>
-      <c r="O350" s="21"/>
-      <c r="P350" s="21"/>
-      <c r="Q350" s="21"/>
-      <c r="R350" s="21"/>
       <c r="S350" s="5"/>
       <c r="T350" s="15"/>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="B351" s="21"/>
-      <c r="C351" s="21"/>
-      <c r="D351" s="21"/>
-      <c r="E351" s="21"/>
-      <c r="F351" s="21"/>
-      <c r="G351" s="21"/>
-      <c r="H351" s="21"/>
-      <c r="I351" s="21"/>
-      <c r="J351" s="21"/>
-      <c r="K351" s="21"/>
-      <c r="L351" s="21"/>
-      <c r="M351" s="21"/>
-      <c r="N351" s="21"/>
-      <c r="O351" s="21"/>
-      <c r="P351" s="21"/>
-      <c r="Q351" s="21"/>
-      <c r="R351" s="21"/>
       <c r="S351" s="5"/>
       <c r="T351" s="15"/>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="B352" s="21"/>
-      <c r="C352" s="21"/>
-      <c r="D352" s="21"/>
-      <c r="E352" s="21"/>
-      <c r="F352" s="21"/>
-      <c r="G352" s="21"/>
-      <c r="H352" s="21"/>
-      <c r="I352" s="21"/>
-      <c r="J352" s="21"/>
-      <c r="K352" s="21"/>
-      <c r="L352" s="21"/>
-      <c r="M352" s="21"/>
-      <c r="N352" s="21"/>
-      <c r="O352" s="21"/>
-      <c r="P352" s="21"/>
-      <c r="Q352" s="21"/>
-      <c r="R352" s="21"/>
       <c r="S352" s="5"/>
       <c r="T352" s="15"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="B353" s="21"/>
-      <c r="C353" s="21"/>
-      <c r="D353" s="21"/>
-      <c r="E353" s="21"/>
-      <c r="F353" s="21"/>
-      <c r="G353" s="21"/>
-      <c r="H353" s="21"/>
-      <c r="I353" s="21"/>
-      <c r="J353" s="21"/>
-      <c r="K353" s="21"/>
-      <c r="L353" s="21"/>
-      <c r="M353" s="21"/>
-      <c r="N353" s="21"/>
-      <c r="O353" s="21"/>
-      <c r="P353" s="21"/>
-      <c r="Q353" s="21"/>
-      <c r="R353" s="21"/>
       <c r="S353" s="5"/>
       <c r="T353" s="15"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="B354" s="21"/>
-      <c r="C354" s="21"/>
-      <c r="D354" s="21"/>
-      <c r="E354" s="21"/>
-      <c r="F354" s="21"/>
-      <c r="G354" s="21"/>
-      <c r="H354" s="21"/>
-      <c r="I354" s="21"/>
-      <c r="J354" s="21"/>
-      <c r="K354" s="21"/>
-      <c r="L354" s="21"/>
-      <c r="M354" s="21"/>
-      <c r="N354" s="21"/>
-      <c r="O354" s="21"/>
-      <c r="P354" s="21"/>
-      <c r="Q354" s="21"/>
-      <c r="R354" s="21"/>
       <c r="S354" s="5"/>
       <c r="T354" s="15"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="B355" s="21"/>
-      <c r="C355" s="21"/>
-      <c r="D355" s="21"/>
-      <c r="E355" s="21"/>
-      <c r="F355" s="21"/>
-      <c r="G355" s="21"/>
-      <c r="H355" s="21"/>
-      <c r="I355" s="21"/>
-      <c r="J355" s="21"/>
-      <c r="K355" s="21"/>
-      <c r="L355" s="21"/>
-      <c r="M355" s="21"/>
-      <c r="N355" s="21"/>
-      <c r="O355" s="21"/>
-      <c r="P355" s="21"/>
-      <c r="Q355" s="21"/>
-      <c r="R355" s="21"/>
       <c r="S355" s="5"/>
       <c r="T355" s="15"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
-      <c r="D356" s="21"/>
-      <c r="E356" s="21"/>
-      <c r="F356" s="21"/>
-      <c r="G356" s="21"/>
-      <c r="H356" s="21"/>
-      <c r="I356" s="21"/>
-      <c r="J356" s="21"/>
-      <c r="K356" s="21"/>
-      <c r="L356" s="21"/>
-      <c r="M356" s="21"/>
-      <c r="N356" s="21"/>
-      <c r="O356" s="21"/>
-      <c r="P356" s="21"/>
-      <c r="Q356" s="21"/>
-      <c r="R356" s="21"/>
       <c r="S356" s="5"/>
       <c r="T356" s="15"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="21"/>
-      <c r="C357" s="21"/>
-      <c r="D357" s="21"/>
-      <c r="E357" s="21"/>
-      <c r="F357" s="21"/>
-      <c r="G357" s="21"/>
-      <c r="H357" s="21"/>
-      <c r="I357" s="21"/>
-      <c r="J357" s="21"/>
-      <c r="K357" s="21"/>
-      <c r="L357" s="21"/>
-      <c r="M357" s="21"/>
-      <c r="N357" s="21"/>
-      <c r="O357" s="21"/>
-      <c r="P357" s="21"/>
-      <c r="Q357" s="21"/>
-      <c r="R357" s="21"/>
       <c r="S357" s="5"/>
       <c r="T357" s="15"/>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="21"/>
-      <c r="C358" s="21"/>
-      <c r="D358" s="21"/>
-      <c r="E358" s="21"/>
-      <c r="F358" s="21"/>
-      <c r="G358" s="21"/>
-      <c r="H358" s="21"/>
-      <c r="I358" s="21"/>
-      <c r="J358" s="21"/>
-      <c r="K358" s="21"/>
-      <c r="L358" s="21"/>
-      <c r="M358" s="21"/>
-      <c r="N358" s="21"/>
-      <c r="O358" s="21"/>
-      <c r="P358" s="21"/>
-      <c r="Q358" s="21"/>
-      <c r="R358" s="21"/>
       <c r="S358" s="5"/>
       <c r="T358" s="15"/>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="21"/>
-      <c r="C359" s="21"/>
-      <c r="D359" s="21"/>
-      <c r="E359" s="21"/>
-      <c r="F359" s="21"/>
-      <c r="G359" s="21"/>
-      <c r="H359" s="21"/>
-      <c r="I359" s="21"/>
-      <c r="J359" s="21"/>
-      <c r="K359" s="21"/>
-      <c r="L359" s="21"/>
-      <c r="M359" s="21"/>
-      <c r="N359" s="21"/>
-      <c r="O359" s="21"/>
-      <c r="P359" s="21"/>
-      <c r="Q359" s="21"/>
-      <c r="R359" s="21"/>
       <c r="S359" s="5"/>
       <c r="T359" s="15"/>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="B360" s="21"/>
-      <c r="C360" s="21"/>
-      <c r="D360" s="21"/>
-      <c r="E360" s="21"/>
-      <c r="F360" s="21"/>
-      <c r="G360" s="21"/>
-      <c r="H360" s="21"/>
-      <c r="I360" s="21"/>
-      <c r="J360" s="21"/>
-      <c r="K360" s="21"/>
-      <c r="L360" s="21"/>
-      <c r="M360" s="21"/>
-      <c r="N360" s="21"/>
-      <c r="O360" s="21"/>
-      <c r="P360" s="21"/>
-      <c r="Q360" s="21"/>
-      <c r="R360" s="21"/>
       <c r="S360" s="5"/>
       <c r="T360" s="15"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="B361" s="21"/>
-      <c r="C361" s="21"/>
-      <c r="D361" s="21"/>
-      <c r="E361" s="21"/>
-      <c r="F361" s="21"/>
-      <c r="G361" s="21"/>
-      <c r="H361" s="21"/>
-      <c r="I361" s="21"/>
-      <c r="J361" s="21"/>
-      <c r="K361" s="21"/>
-      <c r="L361" s="21"/>
-      <c r="M361" s="21"/>
-      <c r="N361" s="21"/>
-      <c r="O361" s="21"/>
-      <c r="P361" s="21"/>
-      <c r="Q361" s="21"/>
-      <c r="R361" s="21"/>
       <c r="S361" s="5"/>
       <c r="T361" s="15"/>
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="B362" s="21"/>
-      <c r="C362" s="21"/>
-      <c r="D362" s="21"/>
-      <c r="E362" s="21"/>
-      <c r="F362" s="21"/>
-      <c r="G362" s="21"/>
-      <c r="H362" s="21"/>
-      <c r="I362" s="21"/>
-      <c r="J362" s="21"/>
-      <c r="K362" s="21"/>
-      <c r="L362" s="21"/>
-      <c r="M362" s="21"/>
-      <c r="N362" s="21"/>
-      <c r="O362" s="21"/>
-      <c r="P362" s="21"/>
-      <c r="Q362" s="21"/>
-      <c r="R362" s="21"/>
       <c r="S362" s="5"/>
       <c r="T362" s="15"/>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="B363" s="21"/>
-      <c r="C363" s="21"/>
-      <c r="D363" s="21"/>
-      <c r="E363" s="21"/>
-      <c r="F363" s="21"/>
-      <c r="G363" s="21"/>
-      <c r="H363" s="21"/>
-      <c r="I363" s="21"/>
-      <c r="J363" s="21"/>
-      <c r="K363" s="21"/>
-      <c r="L363" s="21"/>
-      <c r="M363" s="21"/>
-      <c r="N363" s="21"/>
-      <c r="O363" s="21"/>
-      <c r="P363" s="21"/>
-      <c r="Q363" s="21"/>
-      <c r="R363" s="21"/>
       <c r="S363" s="5"/>
       <c r="T363" s="15"/>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="B364" s="21"/>
-      <c r="C364" s="21"/>
-      <c r="D364" s="21"/>
-      <c r="E364" s="21"/>
-      <c r="F364" s="21"/>
-      <c r="G364" s="21"/>
-      <c r="H364" s="21"/>
-      <c r="I364" s="21"/>
-      <c r="J364" s="21"/>
-      <c r="K364" s="21"/>
-      <c r="L364" s="21"/>
-      <c r="M364" s="21"/>
-      <c r="N364" s="21"/>
-      <c r="O364" s="21"/>
-      <c r="P364" s="21"/>
-      <c r="Q364" s="21"/>
-      <c r="R364" s="21"/>
       <c r="S364" s="5"/>
       <c r="T364" s="15"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="B365" s="21"/>
-      <c r="C365" s="21"/>
-      <c r="D365" s="21"/>
-      <c r="E365" s="21"/>
-      <c r="F365" s="21"/>
-      <c r="G365" s="21"/>
-      <c r="H365" s="21"/>
-      <c r="I365" s="21"/>
-      <c r="J365" s="21"/>
-      <c r="K365" s="21"/>
-      <c r="L365" s="21"/>
-      <c r="M365" s="21"/>
-      <c r="N365" s="21"/>
-      <c r="O365" s="21"/>
-      <c r="P365" s="21"/>
-      <c r="Q365" s="21"/>
-      <c r="R365" s="21"/>
       <c r="S365" s="5"/>
       <c r="T365" s="15"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="B366" s="21"/>
-      <c r="C366" s="21"/>
-      <c r="D366" s="21"/>
-      <c r="E366" s="21"/>
-      <c r="F366" s="21"/>
-      <c r="G366" s="21"/>
-      <c r="H366" s="21"/>
-      <c r="I366" s="21"/>
-      <c r="J366" s="21"/>
-      <c r="K366" s="21"/>
-      <c r="L366" s="21"/>
-      <c r="M366" s="21"/>
-      <c r="N366" s="21"/>
-      <c r="O366" s="21"/>
-      <c r="P366" s="21"/>
-      <c r="Q366" s="21"/>
-      <c r="R366" s="21"/>
       <c r="S366" s="5"/>
       <c r="T366" s="15"/>
     </row>
@@ -10019,40 +8778,13 @@
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="3"/>
-      <c r="G371" s="21"/>
-      <c r="H371" s="21"/>
-      <c r="I371" s="21"/>
-      <c r="J371" s="21"/>
-      <c r="K371" s="21"/>
-      <c r="L371" s="21"/>
-      <c r="M371" s="21"/>
-      <c r="N371" s="21"/>
-      <c r="O371" s="21"/>
-      <c r="P371" s="21"/>
-      <c r="Q371" s="21"/>
-      <c r="R371" s="21"/>
       <c r="S371" s="5"/>
       <c r="T371" s="15"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
-      <c r="C372" s="21"/>
-      <c r="D372" s="21"/>
-      <c r="E372" s="21"/>
       <c r="F372" s="5"/>
-      <c r="G372" s="21"/>
-      <c r="H372" s="21"/>
-      <c r="I372" s="21"/>
-      <c r="J372" s="21"/>
-      <c r="K372" s="21"/>
-      <c r="L372" s="21"/>
-      <c r="M372" s="21"/>
-      <c r="N372" s="21"/>
-      <c r="O372" s="21"/>
-      <c r="P372" s="21"/>
-      <c r="Q372" s="21"/>
-      <c r="R372" s="21"/>
       <c r="S372" s="5"/>
       <c r="T372" s="15"/>
     </row>
@@ -10061,22 +8793,7 @@
       <c r="B373" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C373" s="21"/>
-      <c r="D373" s="21"/>
-      <c r="E373" s="21"/>
       <c r="F373" s="5"/>
-      <c r="G373" s="21"/>
-      <c r="H373" s="21"/>
-      <c r="I373" s="21"/>
-      <c r="J373" s="21"/>
-      <c r="K373" s="21"/>
-      <c r="L373" s="21"/>
-      <c r="M373" s="21"/>
-      <c r="N373" s="21"/>
-      <c r="O373" s="21"/>
-      <c r="P373" s="21"/>
-      <c r="Q373" s="21"/>
-      <c r="R373" s="21"/>
       <c r="S373" s="5"/>
       <c r="T373" s="15"/>
     </row>
@@ -10089,832 +8806,191 @@
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
       <c r="F374" s="9"/>
-      <c r="G374" s="21"/>
-      <c r="H374" s="21"/>
-      <c r="I374" s="21"/>
-      <c r="J374" s="21"/>
-      <c r="K374" s="21"/>
-      <c r="L374" s="21"/>
-      <c r="M374" s="21"/>
-      <c r="N374" s="21"/>
-      <c r="O374" s="21"/>
-      <c r="P374" s="21"/>
-      <c r="Q374" s="21"/>
-      <c r="R374" s="21"/>
       <c r="S374" s="5"/>
       <c r="T374" s="15"/>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="B375" s="21"/>
-      <c r="C375" s="21"/>
-      <c r="D375" s="21"/>
-      <c r="E375" s="21"/>
-      <c r="F375" s="21"/>
-      <c r="G375" s="21"/>
-      <c r="H375" s="21"/>
-      <c r="I375" s="21"/>
-      <c r="J375" s="21"/>
-      <c r="K375" s="21"/>
-      <c r="L375" s="21"/>
-      <c r="M375" s="21"/>
-      <c r="N375" s="21"/>
-      <c r="O375" s="21"/>
-      <c r="P375" s="21"/>
-      <c r="Q375" s="21"/>
-      <c r="R375" s="21"/>
       <c r="S375" s="5"/>
       <c r="T375" s="15"/>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="B376" s="21"/>
-      <c r="C376" s="21"/>
-      <c r="D376" s="21"/>
-      <c r="E376" s="21"/>
-      <c r="F376" s="21"/>
-      <c r="G376" s="21"/>
-      <c r="H376" s="21"/>
-      <c r="I376" s="21"/>
-      <c r="J376" s="21"/>
-      <c r="K376" s="21"/>
-      <c r="L376" s="21"/>
-      <c r="M376" s="21"/>
-      <c r="N376" s="21"/>
-      <c r="O376" s="21"/>
-      <c r="P376" s="21"/>
-      <c r="Q376" s="21"/>
-      <c r="R376" s="21"/>
       <c r="S376" s="5"/>
       <c r="T376" s="15"/>
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="B377" s="21"/>
-      <c r="C377" s="21"/>
-      <c r="D377" s="21"/>
-      <c r="E377" s="21"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="21"/>
-      <c r="H377" s="21"/>
-      <c r="I377" s="21"/>
-      <c r="J377" s="21"/>
-      <c r="K377" s="21"/>
-      <c r="L377" s="21"/>
-      <c r="M377" s="21"/>
-      <c r="N377" s="21"/>
-      <c r="O377" s="21"/>
-      <c r="P377" s="21"/>
-      <c r="Q377" s="21"/>
-      <c r="R377" s="21"/>
       <c r="S377" s="5"/>
       <c r="T377" s="15"/>
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="B378" s="21"/>
-      <c r="C378" s="21"/>
-      <c r="D378" s="21"/>
-      <c r="E378" s="21"/>
-      <c r="F378" s="21"/>
-      <c r="G378" s="21"/>
-      <c r="H378" s="21"/>
-      <c r="I378" s="21"/>
-      <c r="J378" s="21"/>
-      <c r="K378" s="21"/>
-      <c r="L378" s="21"/>
-      <c r="M378" s="21"/>
-      <c r="N378" s="21"/>
-      <c r="O378" s="21"/>
-      <c r="P378" s="21"/>
-      <c r="Q378" s="21"/>
-      <c r="R378" s="21"/>
       <c r="S378" s="5"/>
       <c r="T378" s="15"/>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="B379" s="21"/>
-      <c r="C379" s="21"/>
-      <c r="D379" s="21"/>
-      <c r="E379" s="21"/>
-      <c r="F379" s="21"/>
-      <c r="G379" s="21"/>
-      <c r="H379" s="21"/>
-      <c r="I379" s="21"/>
-      <c r="J379" s="21"/>
-      <c r="K379" s="21"/>
-      <c r="L379" s="21"/>
-      <c r="M379" s="21"/>
-      <c r="N379" s="21"/>
-      <c r="O379" s="21"/>
-      <c r="P379" s="21"/>
-      <c r="Q379" s="21"/>
-      <c r="R379" s="21"/>
       <c r="S379" s="5"/>
       <c r="T379" s="15"/>
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="B380" s="21"/>
-      <c r="C380" s="21"/>
-      <c r="D380" s="21"/>
-      <c r="E380" s="21"/>
-      <c r="F380" s="21"/>
-      <c r="G380" s="21"/>
-      <c r="H380" s="21"/>
-      <c r="I380" s="21"/>
-      <c r="J380" s="21"/>
-      <c r="K380" s="21"/>
-      <c r="L380" s="21"/>
-      <c r="M380" s="21"/>
-      <c r="N380" s="21"/>
-      <c r="O380" s="21"/>
-      <c r="P380" s="21"/>
-      <c r="Q380" s="21"/>
-      <c r="R380" s="21"/>
       <c r="S380" s="5"/>
       <c r="T380" s="15"/>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="B381" s="21"/>
-      <c r="C381" s="21"/>
-      <c r="D381" s="21"/>
-      <c r="E381" s="21"/>
-      <c r="F381" s="21"/>
-      <c r="G381" s="21"/>
-      <c r="H381" s="21"/>
-      <c r="I381" s="21"/>
-      <c r="J381" s="21"/>
-      <c r="K381" s="21"/>
-      <c r="L381" s="21"/>
-      <c r="M381" s="21"/>
-      <c r="N381" s="21"/>
-      <c r="O381" s="21"/>
-      <c r="P381" s="21"/>
-      <c r="Q381" s="21"/>
-      <c r="R381" s="21"/>
       <c r="S381" s="5"/>
       <c r="T381" s="15"/>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="B382" s="21"/>
-      <c r="C382" s="21"/>
-      <c r="D382" s="21"/>
-      <c r="E382" s="21"/>
-      <c r="F382" s="21"/>
-      <c r="G382" s="21"/>
-      <c r="H382" s="21"/>
-      <c r="I382" s="21"/>
-      <c r="J382" s="21"/>
-      <c r="K382" s="21"/>
-      <c r="L382" s="21"/>
-      <c r="M382" s="21"/>
-      <c r="N382" s="21"/>
-      <c r="O382" s="21"/>
-      <c r="P382" s="21"/>
-      <c r="Q382" s="21"/>
-      <c r="R382" s="21"/>
       <c r="S382" s="5"/>
       <c r="T382" s="15"/>
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="B383" s="21"/>
-      <c r="C383" s="21"/>
-      <c r="D383" s="21"/>
-      <c r="E383" s="21"/>
-      <c r="F383" s="21"/>
-      <c r="G383" s="21"/>
-      <c r="H383" s="21"/>
-      <c r="I383" s="21"/>
-      <c r="J383" s="21"/>
-      <c r="K383" s="21"/>
-      <c r="L383" s="21"/>
-      <c r="M383" s="21"/>
-      <c r="N383" s="21"/>
-      <c r="O383" s="21"/>
-      <c r="P383" s="21"/>
-      <c r="Q383" s="21"/>
-      <c r="R383" s="21"/>
       <c r="S383" s="5"/>
       <c r="T383" s="15"/>
     </row>
     <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="B384" s="21"/>
-      <c r="C384" s="21"/>
-      <c r="D384" s="21"/>
-      <c r="E384" s="21"/>
-      <c r="F384" s="21"/>
-      <c r="G384" s="21"/>
-      <c r="H384" s="21"/>
-      <c r="I384" s="21"/>
-      <c r="J384" s="21"/>
-      <c r="K384" s="21"/>
-      <c r="L384" s="21"/>
-      <c r="M384" s="21"/>
-      <c r="N384" s="21"/>
-      <c r="O384" s="21"/>
-      <c r="P384" s="21"/>
-      <c r="Q384" s="21"/>
-      <c r="R384" s="21"/>
       <c r="S384" s="5"/>
       <c r="T384" s="15"/>
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="21"/>
-      <c r="C385" s="21"/>
-      <c r="D385" s="21"/>
-      <c r="E385" s="21"/>
-      <c r="F385" s="21"/>
-      <c r="G385" s="21"/>
-      <c r="H385" s="21"/>
-      <c r="I385" s="21"/>
-      <c r="J385" s="21"/>
-      <c r="K385" s="21"/>
-      <c r="L385" s="21"/>
-      <c r="M385" s="21"/>
-      <c r="N385" s="21"/>
-      <c r="O385" s="21"/>
-      <c r="P385" s="21"/>
-      <c r="Q385" s="21"/>
-      <c r="R385" s="21"/>
       <c r="S385" s="5"/>
       <c r="T385" s="15"/>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="21"/>
-      <c r="C386" s="21"/>
-      <c r="D386" s="21"/>
-      <c r="E386" s="21"/>
-      <c r="F386" s="21"/>
-      <c r="G386" s="21"/>
-      <c r="H386" s="21"/>
-      <c r="I386" s="21"/>
-      <c r="J386" s="21"/>
-      <c r="K386" s="21"/>
-      <c r="L386" s="21"/>
-      <c r="M386" s="21"/>
-      <c r="N386" s="21"/>
-      <c r="O386" s="21"/>
-      <c r="P386" s="21"/>
-      <c r="Q386" s="21"/>
-      <c r="R386" s="21"/>
       <c r="S386" s="5"/>
       <c r="T386" s="15"/>
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="21"/>
-      <c r="C387" s="21"/>
-      <c r="D387" s="21"/>
-      <c r="E387" s="21"/>
-      <c r="F387" s="21"/>
-      <c r="G387" s="21"/>
-      <c r="H387" s="21"/>
-      <c r="I387" s="21"/>
-      <c r="J387" s="21"/>
-      <c r="K387" s="21"/>
-      <c r="L387" s="21"/>
-      <c r="M387" s="21"/>
-      <c r="N387" s="21"/>
-      <c r="O387" s="21"/>
-      <c r="P387" s="21"/>
-      <c r="Q387" s="21"/>
-      <c r="R387" s="21"/>
       <c r="S387" s="5"/>
       <c r="T387" s="15"/>
     </row>
     <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="21"/>
-      <c r="C388" s="21"/>
-      <c r="D388" s="21"/>
-      <c r="E388" s="21"/>
-      <c r="F388" s="21"/>
-      <c r="G388" s="21"/>
-      <c r="H388" s="21"/>
-      <c r="I388" s="21"/>
-      <c r="J388" s="21"/>
-      <c r="K388" s="21"/>
-      <c r="L388" s="21"/>
-      <c r="M388" s="21"/>
-      <c r="N388" s="21"/>
-      <c r="O388" s="21"/>
-      <c r="P388" s="21"/>
-      <c r="Q388" s="21"/>
-      <c r="R388" s="21"/>
       <c r="S388" s="5"/>
       <c r="T388" s="15"/>
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="21"/>
-      <c r="C389" s="21"/>
-      <c r="D389" s="21"/>
-      <c r="E389" s="21"/>
-      <c r="F389" s="21"/>
-      <c r="G389" s="21"/>
-      <c r="H389" s="21"/>
-      <c r="I389" s="21"/>
-      <c r="J389" s="21"/>
-      <c r="K389" s="21"/>
-      <c r="L389" s="21"/>
-      <c r="M389" s="21"/>
-      <c r="N389" s="21"/>
-      <c r="O389" s="21"/>
-      <c r="P389" s="21"/>
-      <c r="Q389" s="21"/>
-      <c r="R389" s="21"/>
       <c r="S389" s="5"/>
       <c r="T389" s="15"/>
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="21"/>
-      <c r="C390" s="21"/>
-      <c r="D390" s="21"/>
-      <c r="E390" s="21"/>
-      <c r="F390" s="21"/>
-      <c r="G390" s="21"/>
-      <c r="H390" s="21"/>
-      <c r="I390" s="21"/>
-      <c r="J390" s="21"/>
-      <c r="K390" s="21"/>
-      <c r="L390" s="21"/>
-      <c r="M390" s="21"/>
-      <c r="N390" s="21"/>
-      <c r="O390" s="21"/>
-      <c r="P390" s="21"/>
-      <c r="Q390" s="21"/>
-      <c r="R390" s="21"/>
       <c r="S390" s="5"/>
       <c r="T390" s="15"/>
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="21"/>
-      <c r="C391" s="21"/>
-      <c r="D391" s="21"/>
-      <c r="E391" s="21"/>
-      <c r="F391" s="21"/>
-      <c r="G391" s="21"/>
-      <c r="H391" s="21"/>
-      <c r="I391" s="21"/>
-      <c r="J391" s="21"/>
-      <c r="K391" s="21"/>
-      <c r="L391" s="21"/>
-      <c r="M391" s="21"/>
-      <c r="N391" s="21"/>
-      <c r="O391" s="21"/>
-      <c r="P391" s="21"/>
-      <c r="Q391" s="21"/>
-      <c r="R391" s="21"/>
       <c r="S391" s="5"/>
       <c r="T391" s="15"/>
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="21"/>
-      <c r="C392" s="21"/>
-      <c r="D392" s="21"/>
-      <c r="E392" s="21"/>
-      <c r="F392" s="21"/>
-      <c r="G392" s="21"/>
-      <c r="H392" s="21"/>
-      <c r="I392" s="21"/>
-      <c r="J392" s="21"/>
-      <c r="K392" s="21"/>
-      <c r="L392" s="21"/>
-      <c r="M392" s="21"/>
-      <c r="N392" s="21"/>
-      <c r="O392" s="21"/>
-      <c r="P392" s="21"/>
-      <c r="Q392" s="21"/>
-      <c r="R392" s="21"/>
       <c r="S392" s="5"/>
       <c r="T392" s="15"/>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="21"/>
-      <c r="C393" s="21"/>
-      <c r="D393" s="21"/>
-      <c r="E393" s="21"/>
-      <c r="F393" s="21"/>
-      <c r="G393" s="21"/>
-      <c r="H393" s="21"/>
-      <c r="I393" s="21"/>
-      <c r="J393" s="21"/>
-      <c r="K393" s="21"/>
-      <c r="L393" s="21"/>
-      <c r="M393" s="21"/>
-      <c r="N393" s="21"/>
-      <c r="O393" s="21"/>
-      <c r="P393" s="21"/>
-      <c r="Q393" s="21"/>
-      <c r="R393" s="21"/>
       <c r="S393" s="5"/>
       <c r="T393" s="15"/>
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="21"/>
-      <c r="C394" s="21"/>
-      <c r="D394" s="21"/>
-      <c r="E394" s="21"/>
-      <c r="F394" s="21"/>
-      <c r="G394" s="21"/>
-      <c r="H394" s="21"/>
-      <c r="I394" s="21"/>
-      <c r="J394" s="21"/>
-      <c r="K394" s="21"/>
-      <c r="L394" s="21"/>
-      <c r="M394" s="21"/>
-      <c r="N394" s="21"/>
-      <c r="O394" s="21"/>
-      <c r="P394" s="21"/>
-      <c r="Q394" s="21"/>
-      <c r="R394" s="21"/>
       <c r="S394" s="5"/>
       <c r="T394" s="15"/>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="21"/>
-      <c r="C395" s="21"/>
-      <c r="D395" s="21"/>
-      <c r="E395" s="21"/>
-      <c r="F395" s="21"/>
-      <c r="G395" s="21"/>
-      <c r="H395" s="21"/>
-      <c r="I395" s="21"/>
-      <c r="J395" s="21"/>
-      <c r="K395" s="21"/>
-      <c r="L395" s="21"/>
-      <c r="M395" s="21"/>
-      <c r="N395" s="21"/>
-      <c r="O395" s="21"/>
-      <c r="P395" s="21"/>
-      <c r="Q395" s="21"/>
-      <c r="R395" s="21"/>
       <c r="S395" s="5"/>
       <c r="T395" s="15"/>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="21"/>
-      <c r="C396" s="21"/>
-      <c r="D396" s="21"/>
-      <c r="E396" s="21"/>
-      <c r="F396" s="21"/>
-      <c r="G396" s="21"/>
-      <c r="H396" s="21"/>
-      <c r="I396" s="21"/>
-      <c r="J396" s="21"/>
-      <c r="K396" s="21"/>
-      <c r="L396" s="21"/>
-      <c r="M396" s="21"/>
-      <c r="N396" s="21"/>
-      <c r="O396" s="21"/>
-      <c r="P396" s="21"/>
-      <c r="Q396" s="21"/>
-      <c r="R396" s="21"/>
       <c r="S396" s="5"/>
       <c r="T396" s="15"/>
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="21"/>
-      <c r="C397" s="21"/>
-      <c r="D397" s="21"/>
-      <c r="E397" s="21"/>
-      <c r="F397" s="21"/>
-      <c r="G397" s="21"/>
-      <c r="H397" s="21"/>
-      <c r="I397" s="21"/>
-      <c r="J397" s="21"/>
-      <c r="K397" s="21"/>
-      <c r="L397" s="21"/>
-      <c r="M397" s="21"/>
-      <c r="N397" s="21"/>
-      <c r="O397" s="21"/>
-      <c r="P397" s="21"/>
-      <c r="Q397" s="21"/>
-      <c r="R397" s="21"/>
       <c r="S397" s="5"/>
       <c r="T397" s="15"/>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="21"/>
-      <c r="C398" s="21"/>
-      <c r="D398" s="21"/>
-      <c r="E398" s="21"/>
-      <c r="F398" s="21"/>
-      <c r="G398" s="21"/>
-      <c r="H398" s="21"/>
-      <c r="I398" s="21"/>
-      <c r="J398" s="21"/>
-      <c r="K398" s="21"/>
-      <c r="L398" s="21"/>
-      <c r="M398" s="21"/>
-      <c r="N398" s="21"/>
-      <c r="O398" s="21"/>
-      <c r="P398" s="21"/>
-      <c r="Q398" s="21"/>
-      <c r="R398" s="21"/>
       <c r="S398" s="5"/>
       <c r="T398" s="15"/>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="21"/>
-      <c r="C399" s="21"/>
-      <c r="D399" s="21"/>
-      <c r="E399" s="21"/>
-      <c r="F399" s="21"/>
-      <c r="G399" s="21"/>
-      <c r="H399" s="21"/>
-      <c r="I399" s="21"/>
-      <c r="J399" s="21"/>
-      <c r="K399" s="21"/>
-      <c r="L399" s="21"/>
-      <c r="M399" s="21"/>
-      <c r="N399" s="21"/>
-      <c r="O399" s="21"/>
-      <c r="P399" s="21"/>
-      <c r="Q399" s="21"/>
-      <c r="R399" s="21"/>
       <c r="S399" s="5"/>
       <c r="T399" s="15"/>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="21"/>
-      <c r="C400" s="21"/>
-      <c r="D400" s="21"/>
-      <c r="E400" s="21"/>
-      <c r="F400" s="21"/>
-      <c r="G400" s="21"/>
-      <c r="H400" s="21"/>
-      <c r="I400" s="21"/>
-      <c r="J400" s="21"/>
-      <c r="K400" s="21"/>
-      <c r="L400" s="21"/>
-      <c r="M400" s="21"/>
-      <c r="N400" s="21"/>
-      <c r="O400" s="21"/>
-      <c r="P400" s="21"/>
-      <c r="Q400" s="21"/>
-      <c r="R400" s="21"/>
       <c r="S400" s="5"/>
       <c r="T400" s="15"/>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="21"/>
-      <c r="C401" s="21"/>
-      <c r="D401" s="21"/>
-      <c r="E401" s="21"/>
-      <c r="F401" s="21"/>
-      <c r="G401" s="21"/>
-      <c r="H401" s="21"/>
-      <c r="I401" s="21"/>
-      <c r="J401" s="21"/>
-      <c r="K401" s="21"/>
-      <c r="L401" s="21"/>
-      <c r="M401" s="21"/>
-      <c r="N401" s="21"/>
-      <c r="O401" s="21"/>
-      <c r="P401" s="21"/>
-      <c r="Q401" s="21"/>
-      <c r="R401" s="21"/>
       <c r="S401" s="5"/>
       <c r="T401" s="15"/>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="21"/>
-      <c r="C402" s="21"/>
-      <c r="D402" s="21"/>
-      <c r="E402" s="21"/>
-      <c r="F402" s="21"/>
-      <c r="G402" s="21"/>
-      <c r="H402" s="21"/>
-      <c r="I402" s="21"/>
-      <c r="J402" s="21"/>
-      <c r="K402" s="21"/>
-      <c r="L402" s="21"/>
-      <c r="M402" s="21"/>
-      <c r="N402" s="21"/>
-      <c r="O402" s="21"/>
-      <c r="P402" s="21"/>
-      <c r="Q402" s="21"/>
-      <c r="R402" s="21"/>
       <c r="S402" s="5"/>
       <c r="T402" s="15"/>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="21"/>
-      <c r="C403" s="21"/>
-      <c r="D403" s="21"/>
-      <c r="E403" s="21"/>
-      <c r="F403" s="21"/>
-      <c r="G403" s="21"/>
-      <c r="H403" s="21"/>
-      <c r="I403" s="21"/>
-      <c r="J403" s="21"/>
-      <c r="K403" s="21"/>
-      <c r="L403" s="21"/>
-      <c r="M403" s="21"/>
-      <c r="N403" s="21"/>
-      <c r="O403" s="21"/>
-      <c r="P403" s="21"/>
-      <c r="Q403" s="21"/>
-      <c r="R403" s="21"/>
       <c r="S403" s="5"/>
       <c r="T403" s="15"/>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="21"/>
-      <c r="C404" s="21"/>
-      <c r="D404" s="21"/>
-      <c r="E404" s="21"/>
-      <c r="F404" s="21"/>
-      <c r="G404" s="21"/>
-      <c r="H404" s="21"/>
-      <c r="I404" s="21"/>
-      <c r="J404" s="21"/>
-      <c r="K404" s="21"/>
-      <c r="L404" s="21"/>
-      <c r="M404" s="21"/>
-      <c r="N404" s="21"/>
-      <c r="O404" s="21"/>
-      <c r="P404" s="21"/>
-      <c r="Q404" s="21"/>
-      <c r="R404" s="21"/>
       <c r="S404" s="5"/>
       <c r="T404" s="15"/>
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="21"/>
-      <c r="C405" s="21"/>
-      <c r="D405" s="21"/>
-      <c r="E405" s="21"/>
-      <c r="F405" s="21"/>
-      <c r="G405" s="21"/>
-      <c r="H405" s="21"/>
-      <c r="I405" s="21"/>
-      <c r="J405" s="21"/>
-      <c r="K405" s="21"/>
-      <c r="L405" s="21"/>
-      <c r="M405" s="21"/>
-      <c r="N405" s="21"/>
-      <c r="O405" s="21"/>
-      <c r="P405" s="21"/>
-      <c r="Q405" s="21"/>
-      <c r="R405" s="21"/>
       <c r="S405" s="5"/>
       <c r="T405" s="15"/>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="21"/>
-      <c r="C406" s="21"/>
-      <c r="D406" s="21"/>
-      <c r="E406" s="21"/>
-      <c r="F406" s="21"/>
-      <c r="G406" s="21"/>
-      <c r="H406" s="21"/>
-      <c r="I406" s="21"/>
-      <c r="J406" s="21"/>
-      <c r="K406" s="21"/>
-      <c r="L406" s="21"/>
-      <c r="M406" s="21"/>
-      <c r="N406" s="21"/>
-      <c r="O406" s="21"/>
-      <c r="P406" s="21"/>
-      <c r="Q406" s="21"/>
-      <c r="R406" s="21"/>
       <c r="S406" s="5"/>
       <c r="T406" s="15"/>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="21"/>
-      <c r="C407" s="21"/>
-      <c r="D407" s="21"/>
-      <c r="E407" s="21"/>
-      <c r="F407" s="21"/>
-      <c r="G407" s="21"/>
-      <c r="H407" s="21"/>
-      <c r="I407" s="21"/>
-      <c r="J407" s="21"/>
-      <c r="K407" s="21"/>
-      <c r="L407" s="21"/>
-      <c r="M407" s="21"/>
-      <c r="N407" s="21"/>
-      <c r="O407" s="21"/>
-      <c r="P407" s="21"/>
-      <c r="Q407" s="21"/>
-      <c r="R407" s="21"/>
       <c r="S407" s="5"/>
       <c r="T407" s="15"/>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="21"/>
-      <c r="C408" s="21"/>
-      <c r="D408" s="21"/>
-      <c r="E408" s="21"/>
-      <c r="F408" s="21"/>
-      <c r="G408" s="21"/>
-      <c r="H408" s="21"/>
-      <c r="I408" s="21"/>
-      <c r="J408" s="21"/>
-      <c r="K408" s="21"/>
-      <c r="L408" s="21"/>
-      <c r="M408" s="21"/>
-      <c r="N408" s="21"/>
-      <c r="O408" s="21"/>
-      <c r="P408" s="21"/>
-      <c r="Q408" s="21"/>
-      <c r="R408" s="21"/>
       <c r="S408" s="5"/>
       <c r="T408" s="15"/>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="21"/>
-      <c r="C409" s="21"/>
-      <c r="D409" s="21"/>
-      <c r="E409" s="21"/>
-      <c r="F409" s="21"/>
-      <c r="G409" s="21"/>
-      <c r="H409" s="21"/>
-      <c r="I409" s="21"/>
-      <c r="J409" s="21"/>
-      <c r="K409" s="21"/>
-      <c r="L409" s="21"/>
-      <c r="M409" s="21"/>
-      <c r="N409" s="21"/>
-      <c r="O409" s="21"/>
-      <c r="P409" s="21"/>
-      <c r="Q409" s="21"/>
-      <c r="R409" s="21"/>
       <c r="S409" s="5"/>
       <c r="T409" s="15"/>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="21"/>
-      <c r="C410" s="21"/>
-      <c r="D410" s="21"/>
-      <c r="E410" s="21"/>
-      <c r="F410" s="21"/>
-      <c r="G410" s="21"/>
-      <c r="H410" s="21"/>
-      <c r="I410" s="21"/>
-      <c r="J410" s="21"/>
-      <c r="K410" s="21"/>
-      <c r="L410" s="21"/>
-      <c r="M410" s="21"/>
-      <c r="N410" s="21"/>
-      <c r="O410" s="21"/>
-      <c r="P410" s="21"/>
-      <c r="Q410" s="21"/>
-      <c r="R410" s="21"/>
       <c r="S410" s="5"/>
       <c r="T410" s="15"/>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="21"/>
-      <c r="C411" s="21"/>
-      <c r="D411" s="21"/>
-      <c r="E411" s="21"/>
-      <c r="F411" s="21"/>
-      <c r="G411" s="21"/>
-      <c r="H411" s="21"/>
-      <c r="I411" s="21"/>
-      <c r="J411" s="21"/>
-      <c r="K411" s="21"/>
-      <c r="L411" s="21"/>
-      <c r="M411" s="21"/>
-      <c r="N411" s="21"/>
-      <c r="O411" s="21"/>
-      <c r="P411" s="21"/>
-      <c r="Q411" s="21"/>
-      <c r="R411" s="21"/>
       <c r="S411" s="5"/>
       <c r="T411" s="15"/>
     </row>
@@ -10966,4 +9042,4172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2838DE1A-1C1F-48CD-B527-3B47B4D8ABF8}">
+  <dimension ref="A3:T274"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F282" sqref="F282"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="9"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="E77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="D79" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="E80" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="E81" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="D82" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="L82" s="5"/>
+      <c r="M82" t="s">
+        <v>89</v>
+      </c>
+      <c r="N82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="E83" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="E84" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="H90" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="I91" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="I92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="I94" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="I96" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="I97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="I98" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="I99" t="s">
+        <v>32</v>
+      </c>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="I100" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="I101" t="s">
+        <v>34</v>
+      </c>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="I102" t="s">
+        <v>35</v>
+      </c>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="I103" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="I104" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="I105" t="s">
+        <v>38</v>
+      </c>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="I106" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="I107" t="s">
+        <v>40</v>
+      </c>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="I108" t="s">
+        <v>41</v>
+      </c>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="H109" t="s">
+        <v>42</v>
+      </c>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="I110" t="s">
+        <v>43</v>
+      </c>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="I111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="I112" t="s">
+        <v>45</v>
+      </c>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="I113" t="s">
+        <v>46</v>
+      </c>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="I114" t="s">
+        <v>47</v>
+      </c>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="J115" t="s">
+        <v>48</v>
+      </c>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="J116" t="s">
+        <v>49</v>
+      </c>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="I117" t="s">
+        <v>50</v>
+      </c>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="J118" t="s">
+        <v>51</v>
+      </c>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="J119" t="s">
+        <v>52</v>
+      </c>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="J120" t="s">
+        <v>53</v>
+      </c>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="J121" t="s">
+        <v>54</v>
+      </c>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="I122" t="s">
+        <v>55</v>
+      </c>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="J123" t="s">
+        <v>56</v>
+      </c>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="I124" t="s">
+        <v>57</v>
+      </c>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="J125" t="s">
+        <v>58</v>
+      </c>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="J126" t="s">
+        <v>59</v>
+      </c>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="J127" t="s">
+        <v>60</v>
+      </c>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="J128" t="s">
+        <v>61</v>
+      </c>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="I129" t="s">
+        <v>62</v>
+      </c>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="J130" t="s">
+        <v>63</v>
+      </c>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="J131" t="s">
+        <v>64</v>
+      </c>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="J132" t="s">
+        <v>65</v>
+      </c>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="I133" t="s">
+        <v>66</v>
+      </c>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="J134" t="s">
+        <v>67</v>
+      </c>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="I135" t="s">
+        <v>68</v>
+      </c>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="J136" t="s">
+        <v>69</v>
+      </c>
+      <c r="L136" s="5"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="J137" t="s">
+        <v>70</v>
+      </c>
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="J138" t="s">
+        <v>71</v>
+      </c>
+      <c r="L138" s="5"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="J139" t="s">
+        <v>72</v>
+      </c>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="I140" t="s">
+        <v>73</v>
+      </c>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="J141" t="s">
+        <v>74</v>
+      </c>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="J142" t="s">
+        <v>75</v>
+      </c>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="J143" t="s">
+        <v>76</v>
+      </c>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="I144" t="s">
+        <v>77</v>
+      </c>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="J145" t="s">
+        <v>78</v>
+      </c>
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="J146" t="s">
+        <v>79</v>
+      </c>
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="J147" t="s">
+        <v>80</v>
+      </c>
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="I148" t="s">
+        <v>81</v>
+      </c>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="I149" t="s">
+        <v>82</v>
+      </c>
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="I150" t="s">
+        <v>83</v>
+      </c>
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="E151" t="s">
+        <v>84</v>
+      </c>
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="9"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="9"/>
+      <c r="I174" t="s">
+        <v>89</v>
+      </c>
+      <c r="J174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="3"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
+      <c r="J178" s="21"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="21"/>
+      <c r="M178" s="21"/>
+      <c r="N178" s="21"/>
+      <c r="O178" s="21"/>
+      <c r="P178" s="21"/>
+      <c r="Q178" s="21"/>
+      <c r="R178" s="21"/>
+      <c r="S178" s="21"/>
+      <c r="T178" s="5"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+      <c r="J179" s="21"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="21"/>
+      <c r="M179" s="21"/>
+      <c r="N179" s="21"/>
+      <c r="O179" s="21"/>
+      <c r="P179" s="21"/>
+      <c r="Q179" s="21"/>
+      <c r="R179" s="21"/>
+      <c r="S179" s="21"/>
+      <c r="T179" s="5"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
+      <c r="J180" s="21"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="21"/>
+      <c r="M180" s="21"/>
+      <c r="N180" s="21"/>
+      <c r="O180" s="21"/>
+      <c r="P180" s="21"/>
+      <c r="Q180" s="21"/>
+      <c r="R180" s="21"/>
+      <c r="S180" s="21"/>
+      <c r="T180" s="5"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+      <c r="J181" s="21"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="21"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="21"/>
+      <c r="O181" s="21"/>
+      <c r="P181" s="21"/>
+      <c r="Q181" s="21"/>
+      <c r="R181" s="21"/>
+      <c r="S181" s="21"/>
+      <c r="T181" s="5"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
+      <c r="J182" s="21"/>
+      <c r="K182" s="21"/>
+      <c r="L182" s="21"/>
+      <c r="M182" s="21"/>
+      <c r="N182" s="21"/>
+      <c r="O182" s="21"/>
+      <c r="P182" s="21"/>
+      <c r="Q182" s="21"/>
+      <c r="R182" s="21"/>
+      <c r="S182" s="21"/>
+      <c r="T182" s="5"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+      <c r="J183" s="21"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="21"/>
+      <c r="M183" s="21"/>
+      <c r="N183" s="21"/>
+      <c r="O183" s="21"/>
+      <c r="P183" s="21"/>
+      <c r="Q183" s="21"/>
+      <c r="R183" s="21"/>
+      <c r="S183" s="21"/>
+      <c r="T183" s="5"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
+      <c r="J184" s="21"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="21"/>
+      <c r="M184" s="21"/>
+      <c r="N184" s="21"/>
+      <c r="O184" s="21"/>
+      <c r="P184" s="21"/>
+      <c r="Q184" s="21"/>
+      <c r="R184" s="21"/>
+      <c r="S184" s="21"/>
+      <c r="T184" s="5"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
+      <c r="J185" s="21"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="21"/>
+      <c r="M185" s="21"/>
+      <c r="N185" s="21"/>
+      <c r="O185" s="21"/>
+      <c r="P185" s="21"/>
+      <c r="Q185" s="21"/>
+      <c r="R185" s="21"/>
+      <c r="S185" s="21"/>
+      <c r="T185" s="5"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
+      <c r="J186" s="21"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="21"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="21"/>
+      <c r="O186" s="21"/>
+      <c r="P186" s="21"/>
+      <c r="Q186" s="21"/>
+      <c r="R186" s="21"/>
+      <c r="S186" s="21"/>
+      <c r="T186" s="5"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
+      <c r="J187" s="21"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="21"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="21"/>
+      <c r="O187" s="21"/>
+      <c r="P187" s="21"/>
+      <c r="Q187" s="21"/>
+      <c r="R187" s="21"/>
+      <c r="S187" s="21"/>
+      <c r="T187" s="5"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
+      <c r="J188" s="21"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="21"/>
+      <c r="M188" s="21"/>
+      <c r="N188" s="21"/>
+      <c r="O188" s="21"/>
+      <c r="P188" s="21"/>
+      <c r="Q188" s="21"/>
+      <c r="R188" s="21"/>
+      <c r="S188" s="21"/>
+      <c r="T188" s="5"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
+      <c r="J189" s="21"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="21"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="21"/>
+      <c r="O189" s="21"/>
+      <c r="P189" s="21"/>
+      <c r="Q189" s="21"/>
+      <c r="R189" s="21"/>
+      <c r="S189" s="21"/>
+      <c r="T189" s="5"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
+      <c r="J190" s="21"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="21"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="21"/>
+      <c r="O190" s="21"/>
+      <c r="P190" s="21"/>
+      <c r="Q190" s="21"/>
+      <c r="R190" s="21"/>
+      <c r="S190" s="21"/>
+      <c r="T190" s="5"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="21"/>
+      <c r="J191" s="21"/>
+      <c r="K191" s="21"/>
+      <c r="L191" s="21"/>
+      <c r="M191" s="21"/>
+      <c r="N191" s="21"/>
+      <c r="O191" s="21"/>
+      <c r="P191" s="21"/>
+      <c r="Q191" s="21"/>
+      <c r="R191" s="21"/>
+      <c r="S191" s="21"/>
+      <c r="T191" s="5"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="21"/>
+      <c r="J192" s="21"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="21"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="21"/>
+      <c r="O192" s="21"/>
+      <c r="P192" s="21"/>
+      <c r="Q192" s="21"/>
+      <c r="R192" s="21"/>
+      <c r="S192" s="21"/>
+      <c r="T192" s="5"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="21"/>
+      <c r="J193" s="21"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="21"/>
+      <c r="O193" s="21"/>
+      <c r="P193" s="21"/>
+      <c r="Q193" s="21"/>
+      <c r="R193" s="21"/>
+      <c r="S193" s="21"/>
+      <c r="T193" s="5"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
+      <c r="J194" s="21"/>
+      <c r="K194" s="21"/>
+      <c r="L194" s="21"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="21"/>
+      <c r="O194" s="21"/>
+      <c r="P194" s="21"/>
+      <c r="Q194" s="21"/>
+      <c r="R194" s="21"/>
+      <c r="S194" s="21"/>
+      <c r="T194" s="5"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
+      <c r="J195" s="21"/>
+      <c r="K195" s="21"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="21"/>
+      <c r="O195" s="21"/>
+      <c r="P195" s="21"/>
+      <c r="Q195" s="21"/>
+      <c r="R195" s="21"/>
+      <c r="S195" s="21"/>
+      <c r="T195" s="5"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
+      <c r="J196" s="21"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="21"/>
+      <c r="O196" s="21"/>
+      <c r="P196" s="21"/>
+      <c r="Q196" s="21"/>
+      <c r="R196" s="21"/>
+      <c r="S196" s="21"/>
+      <c r="T196" s="5"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
+      <c r="J197" s="21"/>
+      <c r="K197" s="21"/>
+      <c r="L197" s="21"/>
+      <c r="M197" s="21"/>
+      <c r="N197" s="21"/>
+      <c r="O197" s="21"/>
+      <c r="P197" s="21"/>
+      <c r="Q197" s="21"/>
+      <c r="R197" s="21"/>
+      <c r="S197" s="21"/>
+      <c r="T197" s="5"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="21"/>
+      <c r="J198" s="21"/>
+      <c r="K198" s="21"/>
+      <c r="L198" s="21"/>
+      <c r="M198" s="21"/>
+      <c r="N198" s="21"/>
+      <c r="O198" s="21"/>
+      <c r="P198" s="21"/>
+      <c r="Q198" s="21"/>
+      <c r="R198" s="21"/>
+      <c r="S198" s="21"/>
+      <c r="T198" s="5"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
+      <c r="J199" s="21"/>
+      <c r="K199" s="21"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="21"/>
+      <c r="O199" s="21"/>
+      <c r="P199" s="21"/>
+      <c r="Q199" s="21"/>
+      <c r="R199" s="21"/>
+      <c r="S199" s="21"/>
+      <c r="T199" s="5"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
+      <c r="J200" s="21"/>
+      <c r="K200" s="21"/>
+      <c r="L200" s="21"/>
+      <c r="M200" s="21"/>
+      <c r="N200" s="21"/>
+      <c r="O200" s="21"/>
+      <c r="P200" s="21"/>
+      <c r="Q200" s="21"/>
+      <c r="R200" s="21"/>
+      <c r="S200" s="21"/>
+      <c r="T200" s="5"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+      <c r="J201" s="21"/>
+      <c r="K201" s="21"/>
+      <c r="L201" s="21"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="21"/>
+      <c r="O201" s="21"/>
+      <c r="P201" s="21"/>
+      <c r="Q201" s="21"/>
+      <c r="R201" s="21"/>
+      <c r="S201" s="21"/>
+      <c r="T201" s="5"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
+      <c r="J202" s="21"/>
+      <c r="K202" s="21"/>
+      <c r="L202" s="21"/>
+      <c r="M202" s="21"/>
+      <c r="N202" s="21"/>
+      <c r="O202" s="21"/>
+      <c r="P202" s="21"/>
+      <c r="Q202" s="21"/>
+      <c r="R202" s="21"/>
+      <c r="S202" s="21"/>
+      <c r="T202" s="5"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="21"/>
+      <c r="J203" s="21"/>
+      <c r="K203" s="21"/>
+      <c r="L203" s="21"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="21"/>
+      <c r="O203" s="21"/>
+      <c r="P203" s="21"/>
+      <c r="Q203" s="21"/>
+      <c r="R203" s="21"/>
+      <c r="S203" s="21"/>
+      <c r="T203" s="5"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
+      <c r="J204" s="21"/>
+      <c r="K204" s="21"/>
+      <c r="L204" s="21"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="21"/>
+      <c r="O204" s="21"/>
+      <c r="P204" s="21"/>
+      <c r="Q204" s="21"/>
+      <c r="R204" s="21"/>
+      <c r="S204" s="21"/>
+      <c r="T204" s="5"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
+      <c r="J205" s="21"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="21"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="21"/>
+      <c r="O205" s="21"/>
+      <c r="P205" s="21"/>
+      <c r="Q205" s="21"/>
+      <c r="R205" s="21"/>
+      <c r="S205" s="21"/>
+      <c r="T205" s="5"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
+      <c r="J206" s="21"/>
+      <c r="K206" s="21"/>
+      <c r="L206" s="21"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="21"/>
+      <c r="O206" s="21"/>
+      <c r="P206" s="21"/>
+      <c r="Q206" s="21"/>
+      <c r="R206" s="21"/>
+      <c r="S206" s="21"/>
+      <c r="T206" s="5"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="21"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="21"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="21"/>
+      <c r="O207" s="21"/>
+      <c r="P207" s="21"/>
+      <c r="Q207" s="21"/>
+      <c r="R207" s="21"/>
+      <c r="S207" s="21"/>
+      <c r="T207" s="5"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="21"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="21"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="21"/>
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
+      <c r="Q208" s="21"/>
+      <c r="R208" s="21"/>
+      <c r="S208" s="21"/>
+      <c r="T208" s="5"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="21"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="21"/>
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
+      <c r="Q209" s="21"/>
+      <c r="R209" s="21"/>
+      <c r="S209" s="21"/>
+      <c r="T209" s="5"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
+      <c r="J210" s="21"/>
+      <c r="K210" s="21"/>
+      <c r="L210" s="21"/>
+      <c r="M210" s="21"/>
+      <c r="N210" s="21"/>
+      <c r="O210" s="21"/>
+      <c r="P210" s="21"/>
+      <c r="Q210" s="21"/>
+      <c r="R210" s="21"/>
+      <c r="S210" s="21"/>
+      <c r="T210" s="5"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+      <c r="J211" s="21"/>
+      <c r="K211" s="21"/>
+      <c r="L211" s="21"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="21"/>
+      <c r="O211" s="21"/>
+      <c r="P211" s="21"/>
+      <c r="Q211" s="21"/>
+      <c r="R211" s="21"/>
+      <c r="S211" s="21"/>
+      <c r="T211" s="5"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
+      <c r="J212" s="21"/>
+      <c r="K212" s="21"/>
+      <c r="L212" s="21"/>
+      <c r="M212" s="21"/>
+      <c r="N212" s="21"/>
+      <c r="O212" s="21"/>
+      <c r="P212" s="21"/>
+      <c r="Q212" s="21"/>
+      <c r="R212" s="21"/>
+      <c r="S212" s="21"/>
+      <c r="T212" s="5"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="21"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="21"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="21"/>
+      <c r="O213" s="21"/>
+      <c r="P213" s="21"/>
+      <c r="Q213" s="21"/>
+      <c r="R213" s="21"/>
+      <c r="S213" s="21"/>
+      <c r="T213" s="5"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="21"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="21"/>
+      <c r="O214" s="21"/>
+      <c r="P214" s="21"/>
+      <c r="Q214" s="21"/>
+      <c r="R214" s="21"/>
+      <c r="S214" s="21"/>
+      <c r="T214" s="5"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="21"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="21"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="21"/>
+      <c r="O215" s="21"/>
+      <c r="P215" s="21"/>
+      <c r="Q215" s="21"/>
+      <c r="R215" s="21"/>
+      <c r="S215" s="21"/>
+      <c r="T215" s="5"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="21"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="21"/>
+      <c r="M216" s="21"/>
+      <c r="N216" s="21"/>
+      <c r="O216" s="21"/>
+      <c r="P216" s="21"/>
+      <c r="Q216" s="21"/>
+      <c r="R216" s="21"/>
+      <c r="S216" s="21"/>
+      <c r="T216" s="5"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+      <c r="J217" s="21"/>
+      <c r="K217" s="21"/>
+      <c r="L217" s="21"/>
+      <c r="M217" s="21"/>
+      <c r="N217" s="21"/>
+      <c r="O217" s="21"/>
+      <c r="P217" s="21"/>
+      <c r="Q217" s="21"/>
+      <c r="R217" s="21"/>
+      <c r="S217" s="21"/>
+      <c r="T217" s="5"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+      <c r="J218" s="21"/>
+      <c r="K218" s="21"/>
+      <c r="L218" s="21"/>
+      <c r="M218" s="21"/>
+      <c r="N218" s="21"/>
+      <c r="O218" s="21"/>
+      <c r="P218" s="21"/>
+      <c r="Q218" s="21"/>
+      <c r="R218" s="21"/>
+      <c r="S218" s="21"/>
+      <c r="T218" s="5"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+      <c r="J219" s="21"/>
+      <c r="K219" s="21"/>
+      <c r="L219" s="21"/>
+      <c r="M219" s="21"/>
+      <c r="N219" s="21"/>
+      <c r="O219" s="21"/>
+      <c r="P219" s="21"/>
+      <c r="Q219" s="21"/>
+      <c r="R219" s="21"/>
+      <c r="S219" s="21"/>
+      <c r="T219" s="5"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
+      <c r="I220" s="21"/>
+      <c r="J220" s="21"/>
+      <c r="K220" s="21"/>
+      <c r="L220" s="21"/>
+      <c r="M220" s="21"/>
+      <c r="N220" s="21"/>
+      <c r="O220" s="21"/>
+      <c r="P220" s="21"/>
+      <c r="Q220" s="21"/>
+      <c r="R220" s="21"/>
+      <c r="S220" s="21"/>
+      <c r="T220" s="5"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
+      <c r="J221" s="21"/>
+      <c r="K221" s="21"/>
+      <c r="L221" s="21"/>
+      <c r="M221" s="21"/>
+      <c r="N221" s="21"/>
+      <c r="O221" s="21"/>
+      <c r="P221" s="21"/>
+      <c r="Q221" s="21"/>
+      <c r="R221" s="21"/>
+      <c r="S221" s="21"/>
+      <c r="T221" s="5"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="21"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
+      <c r="I222" s="21"/>
+      <c r="J222" s="21"/>
+      <c r="K222" s="21"/>
+      <c r="L222" s="21"/>
+      <c r="M222" s="21"/>
+      <c r="N222" s="21"/>
+      <c r="O222" s="21"/>
+      <c r="P222" s="21"/>
+      <c r="Q222" s="21"/>
+      <c r="R222" s="21"/>
+      <c r="S222" s="21"/>
+      <c r="T222" s="5"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="21"/>
+      <c r="K223" s="21"/>
+      <c r="L223" s="21"/>
+      <c r="M223" s="21"/>
+      <c r="N223" s="21"/>
+      <c r="O223" s="21"/>
+      <c r="P223" s="21"/>
+      <c r="Q223" s="21"/>
+      <c r="R223" s="21"/>
+      <c r="S223" s="21"/>
+      <c r="T223" s="5"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+      <c r="I224" s="21"/>
+      <c r="J224" s="21"/>
+      <c r="K224" s="21"/>
+      <c r="L224" s="21"/>
+      <c r="M224" s="21"/>
+      <c r="N224" s="21"/>
+      <c r="O224" s="21"/>
+      <c r="P224" s="21"/>
+      <c r="Q224" s="21"/>
+      <c r="R224" s="21"/>
+      <c r="S224" s="21"/>
+      <c r="T224" s="5"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+      <c r="I225" s="21"/>
+      <c r="J225" s="21"/>
+      <c r="K225" s="21"/>
+      <c r="L225" s="21"/>
+      <c r="M225" s="21"/>
+      <c r="N225" s="21"/>
+      <c r="O225" s="21"/>
+      <c r="P225" s="21"/>
+      <c r="Q225" s="21"/>
+      <c r="R225" s="21"/>
+      <c r="S225" s="21"/>
+      <c r="T225" s="5"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="21"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+      <c r="I226" s="21"/>
+      <c r="J226" s="21"/>
+      <c r="K226" s="21"/>
+      <c r="L226" s="21"/>
+      <c r="M226" s="21"/>
+      <c r="N226" s="21"/>
+      <c r="O226" s="21"/>
+      <c r="P226" s="21"/>
+      <c r="Q226" s="21"/>
+      <c r="R226" s="21"/>
+      <c r="S226" s="21"/>
+      <c r="T226" s="5"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+      <c r="I227" s="21"/>
+      <c r="J227" s="21"/>
+      <c r="K227" s="21"/>
+      <c r="L227" s="21"/>
+      <c r="M227" s="21"/>
+      <c r="N227" s="21"/>
+      <c r="O227" s="21"/>
+      <c r="P227" s="21"/>
+      <c r="Q227" s="21"/>
+      <c r="R227" s="21"/>
+      <c r="S227" s="21"/>
+      <c r="T227" s="5"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="21"/>
+      <c r="J228" s="21"/>
+      <c r="K228" s="21"/>
+      <c r="L228" s="21"/>
+      <c r="M228" s="21"/>
+      <c r="N228" s="21"/>
+      <c r="O228" s="21"/>
+      <c r="P228" s="21"/>
+      <c r="Q228" s="21"/>
+      <c r="R228" s="21"/>
+      <c r="S228" s="21"/>
+      <c r="T228" s="5"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
+      <c r="J229" s="21"/>
+      <c r="K229" s="21"/>
+      <c r="L229" s="21"/>
+      <c r="M229" s="21"/>
+      <c r="N229" s="21"/>
+      <c r="O229" s="21"/>
+      <c r="P229" s="21"/>
+      <c r="Q229" s="21"/>
+      <c r="R229" s="21"/>
+      <c r="S229" s="21"/>
+      <c r="T229" s="5"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
+      <c r="J230" s="21"/>
+      <c r="K230" s="21"/>
+      <c r="L230" s="21"/>
+      <c r="M230" s="21"/>
+      <c r="N230" s="21"/>
+      <c r="O230" s="21"/>
+      <c r="P230" s="21"/>
+      <c r="Q230" s="21"/>
+      <c r="R230" s="21"/>
+      <c r="S230" s="21"/>
+      <c r="T230" s="5"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="21"/>
+      <c r="J231" s="21"/>
+      <c r="K231" s="21"/>
+      <c r="L231" s="21"/>
+      <c r="M231" s="21"/>
+      <c r="N231" s="21"/>
+      <c r="O231" s="21"/>
+      <c r="P231" s="21"/>
+      <c r="Q231" s="21"/>
+      <c r="R231" s="21"/>
+      <c r="S231" s="21"/>
+      <c r="T231" s="5"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="21"/>
+      <c r="J232" s="21"/>
+      <c r="K232" s="21"/>
+      <c r="L232" s="21"/>
+      <c r="M232" s="21"/>
+      <c r="N232" s="21"/>
+      <c r="O232" s="21"/>
+      <c r="P232" s="21"/>
+      <c r="Q232" s="21"/>
+      <c r="R232" s="21"/>
+      <c r="S232" s="21"/>
+      <c r="T232" s="5"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="21"/>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="21"/>
+      <c r="I233" s="21"/>
+      <c r="J233" s="21"/>
+      <c r="K233" s="21"/>
+      <c r="L233" s="21"/>
+      <c r="M233" s="21"/>
+      <c r="N233" s="21"/>
+      <c r="O233" s="21"/>
+      <c r="P233" s="21"/>
+      <c r="Q233" s="21"/>
+      <c r="R233" s="21"/>
+      <c r="S233" s="21"/>
+      <c r="T233" s="5"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="21"/>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
+      <c r="J234" s="21"/>
+      <c r="K234" s="21"/>
+      <c r="L234" s="21"/>
+      <c r="M234" s="21"/>
+      <c r="N234" s="21"/>
+      <c r="O234" s="21"/>
+      <c r="P234" s="21"/>
+      <c r="Q234" s="21"/>
+      <c r="R234" s="21"/>
+      <c r="S234" s="21"/>
+      <c r="T234" s="5"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="21"/>
+      <c r="K235" s="21"/>
+      <c r="L235" s="21"/>
+      <c r="M235" s="21"/>
+      <c r="N235" s="21"/>
+      <c r="O235" s="21"/>
+      <c r="P235" s="21"/>
+      <c r="Q235" s="21"/>
+      <c r="R235" s="21"/>
+      <c r="S235" s="21"/>
+      <c r="T235" s="5"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
+      <c r="I236" s="21"/>
+      <c r="J236" s="21"/>
+      <c r="K236" s="21"/>
+      <c r="L236" s="21"/>
+      <c r="M236" s="21"/>
+      <c r="N236" s="21"/>
+      <c r="O236" s="21"/>
+      <c r="P236" s="21"/>
+      <c r="Q236" s="21"/>
+      <c r="R236" s="21"/>
+      <c r="S236" s="21"/>
+      <c r="T236" s="5"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
+      <c r="I237" s="21"/>
+      <c r="J237" s="21"/>
+      <c r="K237" s="21"/>
+      <c r="L237" s="21"/>
+      <c r="M237" s="21"/>
+      <c r="N237" s="21"/>
+      <c r="O237" s="21"/>
+      <c r="P237" s="21"/>
+      <c r="Q237" s="21"/>
+      <c r="R237" s="21"/>
+      <c r="S237" s="21"/>
+      <c r="T237" s="5"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="21"/>
+      <c r="J238" s="21"/>
+      <c r="K238" s="21"/>
+      <c r="L238" s="21"/>
+      <c r="M238" s="21"/>
+      <c r="N238" s="21"/>
+      <c r="O238" s="21"/>
+      <c r="P238" s="21"/>
+      <c r="Q238" s="21"/>
+      <c r="R238" s="21"/>
+      <c r="S238" s="21"/>
+      <c r="T238" s="5"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="21"/>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="21"/>
+      <c r="K239" s="21"/>
+      <c r="L239" s="21"/>
+      <c r="M239" s="21"/>
+      <c r="N239" s="21"/>
+      <c r="O239" s="21"/>
+      <c r="P239" s="21"/>
+      <c r="Q239" s="21"/>
+      <c r="R239" s="21"/>
+      <c r="S239" s="21"/>
+      <c r="T239" s="5"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="8"/>
+      <c r="K240" s="8"/>
+      <c r="L240" s="8"/>
+      <c r="M240" s="8"/>
+      <c r="N240" s="8"/>
+      <c r="O240" s="8"/>
+      <c r="P240" s="8"/>
+      <c r="Q240" s="8"/>
+      <c r="R240" s="8"/>
+      <c r="S240" s="8"/>
+      <c r="T240" s="9"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="3"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="21"/>
+      <c r="K244" s="21"/>
+      <c r="L244" s="21"/>
+      <c r="M244" s="21"/>
+      <c r="N244" s="21"/>
+      <c r="O244" s="21"/>
+      <c r="P244" s="21"/>
+      <c r="Q244" s="21"/>
+      <c r="R244" s="21"/>
+      <c r="S244" s="21"/>
+      <c r="T244" s="5"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+      <c r="K245" s="21"/>
+      <c r="L245" s="21"/>
+      <c r="M245" s="21"/>
+      <c r="N245" s="21"/>
+      <c r="O245" s="21"/>
+      <c r="P245" s="21"/>
+      <c r="Q245" s="21"/>
+      <c r="R245" s="21"/>
+      <c r="S245" s="21"/>
+      <c r="T245" s="5"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="21"/>
+      <c r="K246" s="21"/>
+      <c r="L246" s="21"/>
+      <c r="M246" s="21"/>
+      <c r="N246" s="21"/>
+      <c r="O246" s="21"/>
+      <c r="P246" s="21"/>
+      <c r="Q246" s="21"/>
+      <c r="R246" s="21"/>
+      <c r="S246" s="21"/>
+      <c r="T246" s="5"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+      <c r="K247" s="21"/>
+      <c r="L247" s="21"/>
+      <c r="M247" s="21"/>
+      <c r="N247" s="21"/>
+      <c r="O247" s="21"/>
+      <c r="P247" s="21"/>
+      <c r="Q247" s="21"/>
+      <c r="R247" s="21"/>
+      <c r="S247" s="21"/>
+      <c r="T247" s="5"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
+      <c r="K248" s="21"/>
+      <c r="L248" s="21"/>
+      <c r="M248" s="21"/>
+      <c r="N248" s="21"/>
+      <c r="O248" s="21"/>
+      <c r="P248" s="21"/>
+      <c r="Q248" s="21"/>
+      <c r="R248" s="21"/>
+      <c r="S248" s="21"/>
+      <c r="T248" s="5"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="21"/>
+      <c r="K249" s="21"/>
+      <c r="L249" s="21"/>
+      <c r="M249" s="21"/>
+      <c r="N249" s="21"/>
+      <c r="O249" s="21"/>
+      <c r="P249" s="21"/>
+      <c r="Q249" s="21"/>
+      <c r="R249" s="21"/>
+      <c r="S249" s="21"/>
+      <c r="T249" s="5"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="21"/>
+      <c r="K250" s="21"/>
+      <c r="L250" s="21"/>
+      <c r="M250" s="21"/>
+      <c r="N250" s="21"/>
+      <c r="O250" s="21"/>
+      <c r="P250" s="21"/>
+      <c r="Q250" s="21"/>
+      <c r="R250" s="21"/>
+      <c r="S250" s="21"/>
+      <c r="T250" s="5"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+      <c r="J251" s="21"/>
+      <c r="K251" s="21"/>
+      <c r="L251" s="21"/>
+      <c r="M251" s="21"/>
+      <c r="N251" s="21"/>
+      <c r="O251" s="21"/>
+      <c r="P251" s="21"/>
+      <c r="Q251" s="21"/>
+      <c r="R251" s="21"/>
+      <c r="S251" s="21"/>
+      <c r="T251" s="5"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="21"/>
+      <c r="K252" s="21"/>
+      <c r="L252" s="21"/>
+      <c r="M252" s="21"/>
+      <c r="N252" s="21"/>
+      <c r="O252" s="21"/>
+      <c r="P252" s="21"/>
+      <c r="Q252" s="21"/>
+      <c r="R252" s="21"/>
+      <c r="S252" s="21"/>
+      <c r="T252" s="5"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="21"/>
+      <c r="K253" s="21"/>
+      <c r="L253" s="21"/>
+      <c r="M253" s="21"/>
+      <c r="N253" s="21"/>
+      <c r="O253" s="21"/>
+      <c r="P253" s="21"/>
+      <c r="Q253" s="21"/>
+      <c r="R253" s="21"/>
+      <c r="S253" s="21"/>
+      <c r="T253" s="5"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="21"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="21"/>
+      <c r="J254" s="21"/>
+      <c r="K254" s="21"/>
+      <c r="L254" s="21"/>
+      <c r="M254" s="21"/>
+      <c r="N254" s="21"/>
+      <c r="O254" s="21"/>
+      <c r="P254" s="21"/>
+      <c r="Q254" s="21"/>
+      <c r="R254" s="21"/>
+      <c r="S254" s="21"/>
+      <c r="T254" s="5"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="21"/>
+      <c r="K255" s="21"/>
+      <c r="L255" s="21"/>
+      <c r="M255" s="21"/>
+      <c r="N255" s="21"/>
+      <c r="O255" s="21"/>
+      <c r="P255" s="21"/>
+      <c r="Q255" s="21"/>
+      <c r="R255" s="21"/>
+      <c r="S255" s="21"/>
+      <c r="T255" s="5"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="21"/>
+      <c r="J256" s="21"/>
+      <c r="K256" s="21"/>
+      <c r="L256" s="21"/>
+      <c r="M256" s="21"/>
+      <c r="N256" s="21"/>
+      <c r="O256" s="21"/>
+      <c r="P256" s="21"/>
+      <c r="Q256" s="21"/>
+      <c r="R256" s="21"/>
+      <c r="S256" s="21"/>
+      <c r="T256" s="5"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="21"/>
+      <c r="K257" s="21"/>
+      <c r="L257" s="21"/>
+      <c r="M257" s="21"/>
+      <c r="N257" s="21"/>
+      <c r="O257" s="21"/>
+      <c r="P257" s="21"/>
+      <c r="Q257" s="21"/>
+      <c r="R257" s="21"/>
+      <c r="S257" s="21"/>
+      <c r="T257" s="5"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="21"/>
+      <c r="J258" s="21"/>
+      <c r="K258" s="21"/>
+      <c r="L258" s="21"/>
+      <c r="M258" s="21"/>
+      <c r="N258" s="21"/>
+      <c r="O258" s="21"/>
+      <c r="P258" s="21"/>
+      <c r="Q258" s="21"/>
+      <c r="R258" s="21"/>
+      <c r="S258" s="21"/>
+      <c r="T258" s="5"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+      <c r="J259" s="21"/>
+      <c r="K259" s="21"/>
+      <c r="L259" s="21"/>
+      <c r="M259" s="21"/>
+      <c r="N259" s="21"/>
+      <c r="O259" s="21"/>
+      <c r="P259" s="21"/>
+      <c r="Q259" s="21"/>
+      <c r="R259" s="21"/>
+      <c r="S259" s="21"/>
+      <c r="T259" s="5"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="21"/>
+      <c r="L260" s="21"/>
+      <c r="M260" s="21"/>
+      <c r="N260" s="21"/>
+      <c r="O260" s="21"/>
+      <c r="P260" s="21"/>
+      <c r="Q260" s="21"/>
+      <c r="R260" s="21"/>
+      <c r="S260" s="21"/>
+      <c r="T260" s="5"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
+      <c r="I261" s="21"/>
+      <c r="J261" s="21"/>
+      <c r="K261" s="21"/>
+      <c r="L261" s="21"/>
+      <c r="M261" s="21"/>
+      <c r="N261" s="21"/>
+      <c r="O261" s="21"/>
+      <c r="P261" s="21"/>
+      <c r="Q261" s="21"/>
+      <c r="R261" s="21"/>
+      <c r="S261" s="21"/>
+      <c r="T261" s="5"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="21"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="21"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="21"/>
+      <c r="P262" s="21"/>
+      <c r="Q262" s="21"/>
+      <c r="R262" s="21"/>
+      <c r="S262" s="21"/>
+      <c r="T262" s="5"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="21"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="21"/>
+      <c r="P263" s="21"/>
+      <c r="Q263" s="21"/>
+      <c r="R263" s="21"/>
+      <c r="S263" s="21"/>
+      <c r="T263" s="5"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="21"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
+      <c r="I264" s="21"/>
+      <c r="J264" s="21"/>
+      <c r="K264" s="21"/>
+      <c r="L264" s="21"/>
+      <c r="M264" s="21"/>
+      <c r="N264" s="21"/>
+      <c r="O264" s="21"/>
+      <c r="P264" s="21"/>
+      <c r="Q264" s="21"/>
+      <c r="R264" s="21"/>
+      <c r="S264" s="21"/>
+      <c r="T264" s="5"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21"/>
+      <c r="I265" s="21"/>
+      <c r="J265" s="21"/>
+      <c r="K265" s="21"/>
+      <c r="L265" s="21"/>
+      <c r="M265" s="21"/>
+      <c r="N265" s="21"/>
+      <c r="O265" s="21"/>
+      <c r="P265" s="21"/>
+      <c r="Q265" s="21"/>
+      <c r="R265" s="21"/>
+      <c r="S265" s="21"/>
+      <c r="T265" s="5"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="21"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+      <c r="J266" s="21"/>
+      <c r="K266" s="21"/>
+      <c r="L266" s="21"/>
+      <c r="M266" s="21"/>
+      <c r="N266" s="21"/>
+      <c r="O266" s="21"/>
+      <c r="P266" s="21"/>
+      <c r="Q266" s="21"/>
+      <c r="R266" s="21"/>
+      <c r="S266" s="21"/>
+      <c r="T266" s="5"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="21"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21"/>
+      <c r="I267" s="21"/>
+      <c r="J267" s="21"/>
+      <c r="K267" s="21"/>
+      <c r="L267" s="21"/>
+      <c r="M267" s="21"/>
+      <c r="N267" s="21"/>
+      <c r="O267" s="21"/>
+      <c r="P267" s="21"/>
+      <c r="Q267" s="21"/>
+      <c r="R267" s="21"/>
+      <c r="S267" s="21"/>
+      <c r="T267" s="5"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="21"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="21"/>
+      <c r="K268" s="21"/>
+      <c r="L268" s="21"/>
+      <c r="M268" s="21"/>
+      <c r="N268" s="21"/>
+      <c r="O268" s="21"/>
+      <c r="P268" s="21"/>
+      <c r="Q268" s="21"/>
+      <c r="R268" s="21"/>
+      <c r="S268" s="21"/>
+      <c r="T268" s="5"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
+      <c r="H269" s="21"/>
+      <c r="I269" s="21"/>
+      <c r="J269" s="21"/>
+      <c r="K269" s="21"/>
+      <c r="L269" s="21"/>
+      <c r="M269" s="21"/>
+      <c r="N269" s="21"/>
+      <c r="O269" s="21"/>
+      <c r="P269" s="21"/>
+      <c r="Q269" s="21"/>
+      <c r="R269" s="21"/>
+      <c r="S269" s="21"/>
+      <c r="T269" s="5"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="21"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21"/>
+      <c r="I270" s="21"/>
+      <c r="J270" s="21"/>
+      <c r="K270" s="21"/>
+      <c r="L270" s="21"/>
+      <c r="M270" s="21"/>
+      <c r="N270" s="21"/>
+      <c r="O270" s="21"/>
+      <c r="P270" s="21"/>
+      <c r="Q270" s="21"/>
+      <c r="R270" s="21"/>
+      <c r="S270" s="21"/>
+      <c r="T270" s="5"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
+      <c r="I271" s="21"/>
+      <c r="J271" s="21"/>
+      <c r="K271" s="21"/>
+      <c r="L271" s="21"/>
+      <c r="M271" s="21"/>
+      <c r="N271" s="21"/>
+      <c r="O271" s="21"/>
+      <c r="P271" s="21"/>
+      <c r="Q271" s="21"/>
+      <c r="R271" s="21"/>
+      <c r="S271" s="21"/>
+      <c r="T271" s="5"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21"/>
+      <c r="I272" s="21"/>
+      <c r="J272" s="21"/>
+      <c r="K272" s="21"/>
+      <c r="L272" s="21"/>
+      <c r="M272" s="21"/>
+      <c r="N272" s="21"/>
+      <c r="O272" s="21"/>
+      <c r="P272" s="21"/>
+      <c r="Q272" s="21"/>
+      <c r="R272" s="21"/>
+      <c r="S272" s="21"/>
+      <c r="T272" s="5"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="21"/>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="21"/>
+      <c r="K273" s="21"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="21"/>
+      <c r="N273" s="21"/>
+      <c r="O273" s="21"/>
+      <c r="P273" s="21"/>
+      <c r="Q273" s="21"/>
+      <c r="R273" s="21"/>
+      <c r="S273" s="21"/>
+      <c r="T273" s="5"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+      <c r="H274" s="8"/>
+      <c r="I274" s="8"/>
+      <c r="J274" s="8"/>
+      <c r="K274" s="8"/>
+      <c r="L274" s="8"/>
+      <c r="M274" s="8"/>
+      <c r="N274" s="8"/>
+      <c r="O274" s="8"/>
+      <c r="P274" s="8"/>
+      <c r="Q274" s="8"/>
+      <c r="R274" s="8"/>
+      <c r="S274" s="8"/>
+      <c r="T274" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/15.Async-Apex.xlsx
+++ b/me/15.Async-Apex.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC7130-2C3F-4F2D-A738-C2B35409CE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1DFE3-EF66-4821-8DDD-153DEC6E4459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Future Methods" sheetId="1" r:id="rId1"/>
     <sheet name="Batch Apex" sheetId="2" r:id="rId2"/>
     <sheet name="Queueable Apex" sheetId="3" r:id="rId3"/>
+    <sheet name="Scheduled Apex" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="209">
   <si>
     <t xml:space="preserve">Future methods are the most used async features on salesforce platform. We can use future methods to separate into 2 different transactions. That means there will be a separate async </t>
   </si>
@@ -627,6 +628,60 @@
   </si>
   <si>
     <t>The future methods we only track the progress from Apex Jobs, we can see the results compled or failed</t>
+  </si>
+  <si>
+    <t>Scheduled Apex is something that runs on a particular schedule</t>
+  </si>
+  <si>
+    <t>4.async-schedulable-apex</t>
+  </si>
+  <si>
+    <t>LeadSchedulable.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\15.Async-Apex\4.async-schedulable-apex\LeadSchedulable.apxc</t>
+  </si>
+  <si>
+    <t>public class LeadSchedulable implements Schedulable{</t>
+  </si>
+  <si>
+    <t>    public void execute(SchedulableContext sc){</t>
+  </si>
+  <si>
+    <t>        // write your code here</t>
+  </si>
+  <si>
+    <t>            record.LeadSource = 'Web Scheduled';</t>
+  </si>
+  <si>
+    <t>salesforce\15.Async-Apex\4.async-schedulable-apex\dev-console.txt</t>
+  </si>
+  <si>
+    <t>LeadSchedulable leadSchedulableInstance = new LeadSchedulable();</t>
+  </si>
+  <si>
+    <t>String cronExp = '00 30 3 ? * MON';</t>
+  </si>
+  <si>
+    <t>String jobId = System.schedule('Sample Job', cronExp, leadSchedulableInstance);</t>
+  </si>
+  <si>
+    <t>system.debug('Job id:'+ jobId);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Job id: 08e5g000013W1mE</t>
+  </si>
+  <si>
+    <t>Scheduled Jobs</t>
+  </si>
+  <si>
+    <t>Use job id to track the progress by run SOQL query</t>
+  </si>
+  <si>
+    <t>SELECT Id, CronJobDetailId, NextFireTime, PreviousFireTime, State, StartTime, TimesTriggered FROM CronTrigger WHERE Id='08e5g000013W1mE'</t>
   </si>
 </sst>
 </file>
@@ -879,9 +934,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3692,6 +3747,449 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>417980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E4C886-FC08-AA55-8142-FD928A2BA894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="638175"/>
+          <a:ext cx="11305055" cy="6278711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155EFA04-93D6-118F-72E1-63DB7EDE0B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="29108400"/>
+          <a:ext cx="742950" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C546B61D-9329-B4C5-3011-474577E2056A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009650" y="26269950"/>
+          <a:ext cx="590550" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94183</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>171154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C295B6-3DC4-9BC1-25C9-776B47089E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="30756225"/>
+          <a:ext cx="8533333" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>63319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491CF498-B8BF-D689-D992-63CBBBCD3C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719418" y="33613725"/>
+          <a:ext cx="10475258" cy="3978094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6612270-F0C8-AEA7-3238-7E8FCC5B3793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210235" y="33483176"/>
+          <a:ext cx="1871383" cy="997324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>14485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53628542-20F3-8CC4-AFC0-C93BB5AEFC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683560" y="38380146"/>
+          <a:ext cx="10724028" cy="3925339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D840C315-E2BB-F647-F75F-5970F6049556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3260912" y="34581353"/>
+          <a:ext cx="4941794" cy="8538882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>47678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8117D7-92BC-ABB2-B792-4DEE0D332984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="43321941"/>
+          <a:ext cx="11228294" cy="5112737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3957,7 +4455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AE370"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
@@ -6424,7 +6922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CFD497-DF28-4FCF-BC46-A41E6DAD834C}">
   <dimension ref="A3:T413"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N185" sqref="N185"/>
     </sheetView>
   </sheetViews>
@@ -9048,8 +9546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2838DE1A-1C1F-48CD-B527-3B47B4D8ABF8}">
   <dimension ref="A3:T274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F282" sqref="F282"/>
+    <sheetView topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O152" sqref="O152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9081,1121 +9579,220 @@
       <c r="B4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -10360,7 +9957,7 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
-      <c r="D79" s="22" t="s">
+      <c r="D79" t="s">
         <v>131</v>
       </c>
       <c r="E79" s="6"/>
@@ -10368,14 +9965,14 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
-      <c r="E80" s="22" t="s">
+      <c r="E80" t="s">
         <v>86</v>
       </c>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
-      <c r="E81" s="22" t="s">
+      <c r="E81" t="s">
         <v>132</v>
       </c>
       <c r="L81" s="5"/>
@@ -10908,119 +10505,64 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
       <c r="H157" s="5"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
       <c r="H161" s="5"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
       <c r="H162" s="5"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
       <c r="H163" s="5"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
       <c r="H164" s="5"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
       <c r="H166" s="5"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
       <c r="H167" s="5"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -11034,15 +10576,6 @@
       <c r="G168" s="8"/>
       <c r="H168" s="9"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-    </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>181</v>
@@ -11061,11 +10594,6 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
       <c r="H173" s="5"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -11091,7 +10619,7 @@
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B177" s="2"/>
@@ -11116,1366 +10644,250 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
-      <c r="J178" s="21"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="21"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="21"/>
-      <c r="O178" s="21"/>
-      <c r="P178" s="21"/>
-      <c r="Q178" s="21"/>
-      <c r="R178" s="21"/>
-      <c r="S178" s="21"/>
       <c r="T178" s="5"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="21"/>
-      <c r="J179" s="21"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="21"/>
-      <c r="O179" s="21"/>
-      <c r="P179" s="21"/>
-      <c r="Q179" s="21"/>
-      <c r="R179" s="21"/>
-      <c r="S179" s="21"/>
       <c r="T179" s="5"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="21"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
-      <c r="H180" s="21"/>
-      <c r="I180" s="21"/>
-      <c r="J180" s="21"/>
-      <c r="K180" s="21"/>
-      <c r="L180" s="21"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="21"/>
-      <c r="O180" s="21"/>
-      <c r="P180" s="21"/>
-      <c r="Q180" s="21"/>
-      <c r="R180" s="21"/>
-      <c r="S180" s="21"/>
       <c r="T180" s="5"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="21"/>
-      <c r="I181" s="21"/>
-      <c r="J181" s="21"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="21"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="21"/>
-      <c r="O181" s="21"/>
-      <c r="P181" s="21"/>
-      <c r="Q181" s="21"/>
-      <c r="R181" s="21"/>
-      <c r="S181" s="21"/>
       <c r="T181" s="5"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
-      <c r="J182" s="21"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="21"/>
-      <c r="O182" s="21"/>
-      <c r="P182" s="21"/>
-      <c r="Q182" s="21"/>
-      <c r="R182" s="21"/>
-      <c r="S182" s="21"/>
       <c r="T182" s="5"/>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="21"/>
-      <c r="J183" s="21"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="21"/>
-      <c r="O183" s="21"/>
-      <c r="P183" s="21"/>
-      <c r="Q183" s="21"/>
-      <c r="R183" s="21"/>
-      <c r="S183" s="21"/>
       <c r="T183" s="5"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="21"/>
-      <c r="I184" s="21"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="21"/>
-      <c r="O184" s="21"/>
-      <c r="P184" s="21"/>
-      <c r="Q184" s="21"/>
-      <c r="R184" s="21"/>
-      <c r="S184" s="21"/>
       <c r="T184" s="5"/>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="21"/>
-      <c r="J185" s="21"/>
-      <c r="K185" s="21"/>
-      <c r="L185" s="21"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="21"/>
-      <c r="O185" s="21"/>
-      <c r="P185" s="21"/>
-      <c r="Q185" s="21"/>
-      <c r="R185" s="21"/>
-      <c r="S185" s="21"/>
       <c r="T185" s="5"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="21"/>
-      <c r="J186" s="21"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="21"/>
-      <c r="O186" s="21"/>
-      <c r="P186" s="21"/>
-      <c r="Q186" s="21"/>
-      <c r="R186" s="21"/>
-      <c r="S186" s="21"/>
       <c r="T186" s="5"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
-      <c r="J187" s="21"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="21"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="21"/>
-      <c r="O187" s="21"/>
-      <c r="P187" s="21"/>
-      <c r="Q187" s="21"/>
-      <c r="R187" s="21"/>
-      <c r="S187" s="21"/>
       <c r="T187" s="5"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="21"/>
-      <c r="J188" s="21"/>
-      <c r="K188" s="21"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="21"/>
-      <c r="O188" s="21"/>
-      <c r="P188" s="21"/>
-      <c r="Q188" s="21"/>
-      <c r="R188" s="21"/>
-      <c r="S188" s="21"/>
       <c r="T188" s="5"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="B189" s="21"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="21"/>
-      <c r="I189" s="21"/>
-      <c r="J189" s="21"/>
-      <c r="K189" s="21"/>
-      <c r="L189" s="21"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="21"/>
-      <c r="O189" s="21"/>
-      <c r="P189" s="21"/>
-      <c r="Q189" s="21"/>
-      <c r="R189" s="21"/>
-      <c r="S189" s="21"/>
       <c r="T189" s="5"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="21"/>
-      <c r="J190" s="21"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="21"/>
-      <c r="O190" s="21"/>
-      <c r="P190" s="21"/>
-      <c r="Q190" s="21"/>
-      <c r="R190" s="21"/>
-      <c r="S190" s="21"/>
       <c r="T190" s="5"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
-      <c r="I191" s="21"/>
-      <c r="J191" s="21"/>
-      <c r="K191" s="21"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="21"/>
-      <c r="O191" s="21"/>
-      <c r="P191" s="21"/>
-      <c r="Q191" s="21"/>
-      <c r="R191" s="21"/>
-      <c r="S191" s="21"/>
       <c r="T191" s="5"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
-      <c r="I192" s="21"/>
-      <c r="J192" s="21"/>
-      <c r="K192" s="21"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="21"/>
-      <c r="O192" s="21"/>
-      <c r="P192" s="21"/>
-      <c r="Q192" s="21"/>
-      <c r="R192" s="21"/>
-      <c r="S192" s="21"/>
       <c r="T192" s="5"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="21"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="21"/>
-      <c r="O193" s="21"/>
-      <c r="P193" s="21"/>
-      <c r="Q193" s="21"/>
-      <c r="R193" s="21"/>
-      <c r="S193" s="21"/>
       <c r="T193" s="5"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="21"/>
-      <c r="J194" s="21"/>
-      <c r="K194" s="21"/>
-      <c r="L194" s="21"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="21"/>
-      <c r="O194" s="21"/>
-      <c r="P194" s="21"/>
-      <c r="Q194" s="21"/>
-      <c r="R194" s="21"/>
-      <c r="S194" s="21"/>
       <c r="T194" s="5"/>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" s="21"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="21"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="21"/>
-      <c r="H195" s="21"/>
-      <c r="I195" s="21"/>
-      <c r="J195" s="21"/>
-      <c r="K195" s="21"/>
-      <c r="L195" s="21"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="21"/>
-      <c r="O195" s="21"/>
-      <c r="P195" s="21"/>
-      <c r="Q195" s="21"/>
-      <c r="R195" s="21"/>
-      <c r="S195" s="21"/>
       <c r="T195" s="5"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="21"/>
-      <c r="J196" s="21"/>
-      <c r="K196" s="21"/>
-      <c r="L196" s="21"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="21"/>
-      <c r="O196" s="21"/>
-      <c r="P196" s="21"/>
-      <c r="Q196" s="21"/>
-      <c r="R196" s="21"/>
-      <c r="S196" s="21"/>
       <c r="T196" s="5"/>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="21"/>
-      <c r="H197" s="21"/>
-      <c r="I197" s="21"/>
-      <c r="J197" s="21"/>
-      <c r="K197" s="21"/>
-      <c r="L197" s="21"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="21"/>
-      <c r="O197" s="21"/>
-      <c r="P197" s="21"/>
-      <c r="Q197" s="21"/>
-      <c r="R197" s="21"/>
-      <c r="S197" s="21"/>
       <c r="T197" s="5"/>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="21"/>
-      <c r="J198" s="21"/>
-      <c r="K198" s="21"/>
-      <c r="L198" s="21"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="21"/>
-      <c r="O198" s="21"/>
-      <c r="P198" s="21"/>
-      <c r="Q198" s="21"/>
-      <c r="R198" s="21"/>
-      <c r="S198" s="21"/>
       <c r="T198" s="5"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="21"/>
-      <c r="H199" s="21"/>
-      <c r="I199" s="21"/>
-      <c r="J199" s="21"/>
-      <c r="K199" s="21"/>
-      <c r="L199" s="21"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="21"/>
-      <c r="O199" s="21"/>
-      <c r="P199" s="21"/>
-      <c r="Q199" s="21"/>
-      <c r="R199" s="21"/>
-      <c r="S199" s="21"/>
       <c r="T199" s="5"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="21"/>
-      <c r="I200" s="21"/>
-      <c r="J200" s="21"/>
-      <c r="K200" s="21"/>
-      <c r="L200" s="21"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="21"/>
-      <c r="O200" s="21"/>
-      <c r="P200" s="21"/>
-      <c r="Q200" s="21"/>
-      <c r="R200" s="21"/>
-      <c r="S200" s="21"/>
       <c r="T200" s="5"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
-      <c r="J201" s="21"/>
-      <c r="K201" s="21"/>
-      <c r="L201" s="21"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="21"/>
-      <c r="O201" s="21"/>
-      <c r="P201" s="21"/>
-      <c r="Q201" s="21"/>
-      <c r="R201" s="21"/>
-      <c r="S201" s="21"/>
       <c r="T201" s="5"/>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
-      <c r="I202" s="21"/>
-      <c r="J202" s="21"/>
-      <c r="K202" s="21"/>
-      <c r="L202" s="21"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="21"/>
-      <c r="O202" s="21"/>
-      <c r="P202" s="21"/>
-      <c r="Q202" s="21"/>
-      <c r="R202" s="21"/>
-      <c r="S202" s="21"/>
       <c r="T202" s="5"/>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
-      <c r="H203" s="21"/>
-      <c r="I203" s="21"/>
-      <c r="J203" s="21"/>
-      <c r="K203" s="21"/>
-      <c r="L203" s="21"/>
-      <c r="M203" s="21"/>
-      <c r="N203" s="21"/>
-      <c r="O203" s="21"/>
-      <c r="P203" s="21"/>
-      <c r="Q203" s="21"/>
-      <c r="R203" s="21"/>
-      <c r="S203" s="21"/>
       <c r="T203" s="5"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21"/>
-      <c r="E204" s="21"/>
-      <c r="F204" s="21"/>
-      <c r="G204" s="21"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="21"/>
-      <c r="J204" s="21"/>
-      <c r="K204" s="21"/>
-      <c r="L204" s="21"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="21"/>
-      <c r="O204" s="21"/>
-      <c r="P204" s="21"/>
-      <c r="Q204" s="21"/>
-      <c r="R204" s="21"/>
-      <c r="S204" s="21"/>
       <c r="T204" s="5"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
-      <c r="J205" s="21"/>
-      <c r="K205" s="21"/>
-      <c r="L205" s="21"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="21"/>
-      <c r="O205" s="21"/>
-      <c r="P205" s="21"/>
-      <c r="Q205" s="21"/>
-      <c r="R205" s="21"/>
-      <c r="S205" s="21"/>
       <c r="T205" s="5"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="21"/>
-      <c r="F206" s="21"/>
-      <c r="G206" s="21"/>
-      <c r="H206" s="21"/>
-      <c r="I206" s="21"/>
-      <c r="J206" s="21"/>
-      <c r="K206" s="21"/>
-      <c r="L206" s="21"/>
-      <c r="M206" s="21"/>
-      <c r="N206" s="21"/>
-      <c r="O206" s="21"/>
-      <c r="P206" s="21"/>
-      <c r="Q206" s="21"/>
-      <c r="R206" s="21"/>
-      <c r="S206" s="21"/>
       <c r="T206" s="5"/>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="21"/>
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
-      <c r="J207" s="21"/>
-      <c r="K207" s="21"/>
-      <c r="L207" s="21"/>
-      <c r="M207" s="21"/>
-      <c r="N207" s="21"/>
-      <c r="O207" s="21"/>
-      <c r="P207" s="21"/>
-      <c r="Q207" s="21"/>
-      <c r="R207" s="21"/>
-      <c r="S207" s="21"/>
       <c r="T207" s="5"/>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
-      <c r="J208" s="21"/>
-      <c r="K208" s="21"/>
-      <c r="L208" s="21"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="21"/>
-      <c r="O208" s="21"/>
-      <c r="P208" s="21"/>
-      <c r="Q208" s="21"/>
-      <c r="R208" s="21"/>
-      <c r="S208" s="21"/>
       <c r="T208" s="5"/>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="21"/>
-      <c r="H209" s="21"/>
-      <c r="I209" s="21"/>
-      <c r="J209" s="21"/>
-      <c r="K209" s="21"/>
-      <c r="L209" s="21"/>
-      <c r="M209" s="21"/>
-      <c r="N209" s="21"/>
-      <c r="O209" s="21"/>
-      <c r="P209" s="21"/>
-      <c r="Q209" s="21"/>
-      <c r="R209" s="21"/>
-      <c r="S209" s="21"/>
       <c r="T209" s="5"/>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
-      <c r="B210" s="21"/>
-      <c r="C210" s="21"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="21"/>
-      <c r="F210" s="21"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="21"/>
-      <c r="I210" s="21"/>
-      <c r="J210" s="21"/>
-      <c r="K210" s="21"/>
-      <c r="L210" s="21"/>
-      <c r="M210" s="21"/>
-      <c r="N210" s="21"/>
-      <c r="O210" s="21"/>
-      <c r="P210" s="21"/>
-      <c r="Q210" s="21"/>
-      <c r="R210" s="21"/>
-      <c r="S210" s="21"/>
       <c r="T210" s="5"/>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="21"/>
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="21"/>
-      <c r="M211" s="21"/>
-      <c r="N211" s="21"/>
-      <c r="O211" s="21"/>
-      <c r="P211" s="21"/>
-      <c r="Q211" s="21"/>
-      <c r="R211" s="21"/>
-      <c r="S211" s="21"/>
       <c r="T211" s="5"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="21"/>
-      <c r="H212" s="21"/>
-      <c r="I212" s="21"/>
-      <c r="J212" s="21"/>
-      <c r="K212" s="21"/>
-      <c r="L212" s="21"/>
-      <c r="M212" s="21"/>
-      <c r="N212" s="21"/>
-      <c r="O212" s="21"/>
-      <c r="P212" s="21"/>
-      <c r="Q212" s="21"/>
-      <c r="R212" s="21"/>
-      <c r="S212" s="21"/>
       <c r="T212" s="5"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="B213" s="21"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="21"/>
-      <c r="E213" s="21"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
-      <c r="H213" s="21"/>
-      <c r="I213" s="21"/>
-      <c r="J213" s="21"/>
-      <c r="K213" s="21"/>
-      <c r="L213" s="21"/>
-      <c r="M213" s="21"/>
-      <c r="N213" s="21"/>
-      <c r="O213" s="21"/>
-      <c r="P213" s="21"/>
-      <c r="Q213" s="21"/>
-      <c r="R213" s="21"/>
-      <c r="S213" s="21"/>
       <c r="T213" s="5"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
-      <c r="B214" s="21"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="21"/>
-      <c r="E214" s="21"/>
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
-      <c r="H214" s="21"/>
-      <c r="I214" s="21"/>
-      <c r="J214" s="21"/>
-      <c r="K214" s="21"/>
-      <c r="L214" s="21"/>
-      <c r="M214" s="21"/>
-      <c r="N214" s="21"/>
-      <c r="O214" s="21"/>
-      <c r="P214" s="21"/>
-      <c r="Q214" s="21"/>
-      <c r="R214" s="21"/>
-      <c r="S214" s="21"/>
       <c r="T214" s="5"/>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="21"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21"/>
-      <c r="I215" s="21"/>
-      <c r="J215" s="21"/>
-      <c r="K215" s="21"/>
-      <c r="L215" s="21"/>
-      <c r="M215" s="21"/>
-      <c r="N215" s="21"/>
-      <c r="O215" s="21"/>
-      <c r="P215" s="21"/>
-      <c r="Q215" s="21"/>
-      <c r="R215" s="21"/>
-      <c r="S215" s="21"/>
       <c r="T215" s="5"/>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
-      <c r="B216" s="21"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
-      <c r="H216" s="21"/>
-      <c r="I216" s="21"/>
-      <c r="J216" s="21"/>
-      <c r="K216" s="21"/>
-      <c r="L216" s="21"/>
-      <c r="M216" s="21"/>
-      <c r="N216" s="21"/>
-      <c r="O216" s="21"/>
-      <c r="P216" s="21"/>
-      <c r="Q216" s="21"/>
-      <c r="R216" s="21"/>
-      <c r="S216" s="21"/>
       <c r="T216" s="5"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="B217" s="21"/>
-      <c r="C217" s="21"/>
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
-      <c r="J217" s="21"/>
-      <c r="K217" s="21"/>
-      <c r="L217" s="21"/>
-      <c r="M217" s="21"/>
-      <c r="N217" s="21"/>
-      <c r="O217" s="21"/>
-      <c r="P217" s="21"/>
-      <c r="Q217" s="21"/>
-      <c r="R217" s="21"/>
-      <c r="S217" s="21"/>
       <c r="T217" s="5"/>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
-      <c r="I218" s="21"/>
-      <c r="J218" s="21"/>
-      <c r="K218" s="21"/>
-      <c r="L218" s="21"/>
-      <c r="M218" s="21"/>
-      <c r="N218" s="21"/>
-      <c r="O218" s="21"/>
-      <c r="P218" s="21"/>
-      <c r="Q218" s="21"/>
-      <c r="R218" s="21"/>
-      <c r="S218" s="21"/>
       <c r="T218" s="5"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="21"/>
-      <c r="I219" s="21"/>
-      <c r="J219" s="21"/>
-      <c r="K219" s="21"/>
-      <c r="L219" s="21"/>
-      <c r="M219" s="21"/>
-      <c r="N219" s="21"/>
-      <c r="O219" s="21"/>
-      <c r="P219" s="21"/>
-      <c r="Q219" s="21"/>
-      <c r="R219" s="21"/>
-      <c r="S219" s="21"/>
       <c r="T219" s="5"/>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="B220" s="21"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21"/>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="21"/>
-      <c r="I220" s="21"/>
-      <c r="J220" s="21"/>
-      <c r="K220" s="21"/>
-      <c r="L220" s="21"/>
-      <c r="M220" s="21"/>
-      <c r="N220" s="21"/>
-      <c r="O220" s="21"/>
-      <c r="P220" s="21"/>
-      <c r="Q220" s="21"/>
-      <c r="R220" s="21"/>
-      <c r="S220" s="21"/>
       <c r="T220" s="5"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="21"/>
-      <c r="J221" s="21"/>
-      <c r="K221" s="21"/>
-      <c r="L221" s="21"/>
-      <c r="M221" s="21"/>
-      <c r="N221" s="21"/>
-      <c r="O221" s="21"/>
-      <c r="P221" s="21"/>
-      <c r="Q221" s="21"/>
-      <c r="R221" s="21"/>
-      <c r="S221" s="21"/>
       <c r="T221" s="5"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="21"/>
-      <c r="H222" s="21"/>
-      <c r="I222" s="21"/>
-      <c r="J222" s="21"/>
-      <c r="K222" s="21"/>
-      <c r="L222" s="21"/>
-      <c r="M222" s="21"/>
-      <c r="N222" s="21"/>
-      <c r="O222" s="21"/>
-      <c r="P222" s="21"/>
-      <c r="Q222" s="21"/>
-      <c r="R222" s="21"/>
-      <c r="S222" s="21"/>
       <c r="T222" s="5"/>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="B223" s="21"/>
-      <c r="C223" s="21"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="21"/>
-      <c r="F223" s="21"/>
-      <c r="G223" s="21"/>
-      <c r="H223" s="21"/>
-      <c r="I223" s="21"/>
-      <c r="J223" s="21"/>
-      <c r="K223" s="21"/>
-      <c r="L223" s="21"/>
-      <c r="M223" s="21"/>
-      <c r="N223" s="21"/>
-      <c r="O223" s="21"/>
-      <c r="P223" s="21"/>
-      <c r="Q223" s="21"/>
-      <c r="R223" s="21"/>
-      <c r="S223" s="21"/>
       <c r="T223" s="5"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="21"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
-      <c r="H224" s="21"/>
-      <c r="I224" s="21"/>
-      <c r="J224" s="21"/>
-      <c r="K224" s="21"/>
-      <c r="L224" s="21"/>
-      <c r="M224" s="21"/>
-      <c r="N224" s="21"/>
-      <c r="O224" s="21"/>
-      <c r="P224" s="21"/>
-      <c r="Q224" s="21"/>
-      <c r="R224" s="21"/>
-      <c r="S224" s="21"/>
       <c r="T224" s="5"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
-      <c r="H225" s="21"/>
-      <c r="I225" s="21"/>
-      <c r="J225" s="21"/>
-      <c r="K225" s="21"/>
-      <c r="L225" s="21"/>
-      <c r="M225" s="21"/>
-      <c r="N225" s="21"/>
-      <c r="O225" s="21"/>
-      <c r="P225" s="21"/>
-      <c r="Q225" s="21"/>
-      <c r="R225" s="21"/>
-      <c r="S225" s="21"/>
       <c r="T225" s="5"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="B226" s="21"/>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
-      <c r="H226" s="21"/>
-      <c r="I226" s="21"/>
-      <c r="J226" s="21"/>
-      <c r="K226" s="21"/>
-      <c r="L226" s="21"/>
-      <c r="M226" s="21"/>
-      <c r="N226" s="21"/>
-      <c r="O226" s="21"/>
-      <c r="P226" s="21"/>
-      <c r="Q226" s="21"/>
-      <c r="R226" s="21"/>
-      <c r="S226" s="21"/>
       <c r="T226" s="5"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
-      <c r="H227" s="21"/>
-      <c r="I227" s="21"/>
-      <c r="J227" s="21"/>
-      <c r="K227" s="21"/>
-      <c r="L227" s="21"/>
-      <c r="M227" s="21"/>
-      <c r="N227" s="21"/>
-      <c r="O227" s="21"/>
-      <c r="P227" s="21"/>
-      <c r="Q227" s="21"/>
-      <c r="R227" s="21"/>
-      <c r="S227" s="21"/>
       <c r="T227" s="5"/>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="21"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="21"/>
-      <c r="H228" s="21"/>
-      <c r="I228" s="21"/>
-      <c r="J228" s="21"/>
-      <c r="K228" s="21"/>
-      <c r="L228" s="21"/>
-      <c r="M228" s="21"/>
-      <c r="N228" s="21"/>
-      <c r="O228" s="21"/>
-      <c r="P228" s="21"/>
-      <c r="Q228" s="21"/>
-      <c r="R228" s="21"/>
-      <c r="S228" s="21"/>
       <c r="T228" s="5"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21"/>
-      <c r="G229" s="21"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
-      <c r="J229" s="21"/>
-      <c r="K229" s="21"/>
-      <c r="L229" s="21"/>
-      <c r="M229" s="21"/>
-      <c r="N229" s="21"/>
-      <c r="O229" s="21"/>
-      <c r="P229" s="21"/>
-      <c r="Q229" s="21"/>
-      <c r="R229" s="21"/>
-      <c r="S229" s="21"/>
       <c r="T229" s="5"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21"/>
-      <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
-      <c r="J230" s="21"/>
-      <c r="K230" s="21"/>
-      <c r="L230" s="21"/>
-      <c r="M230" s="21"/>
-      <c r="N230" s="21"/>
-      <c r="O230" s="21"/>
-      <c r="P230" s="21"/>
-      <c r="Q230" s="21"/>
-      <c r="R230" s="21"/>
-      <c r="S230" s="21"/>
       <c r="T230" s="5"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="21"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="21"/>
-      <c r="J231" s="21"/>
-      <c r="K231" s="21"/>
-      <c r="L231" s="21"/>
-      <c r="M231" s="21"/>
-      <c r="N231" s="21"/>
-      <c r="O231" s="21"/>
-      <c r="P231" s="21"/>
-      <c r="Q231" s="21"/>
-      <c r="R231" s="21"/>
-      <c r="S231" s="21"/>
       <c r="T231" s="5"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="21"/>
-      <c r="F232" s="21"/>
-      <c r="G232" s="21"/>
-      <c r="H232" s="21"/>
-      <c r="I232" s="21"/>
-      <c r="J232" s="21"/>
-      <c r="K232" s="21"/>
-      <c r="L232" s="21"/>
-      <c r="M232" s="21"/>
-      <c r="N232" s="21"/>
-      <c r="O232" s="21"/>
-      <c r="P232" s="21"/>
-      <c r="Q232" s="21"/>
-      <c r="R232" s="21"/>
-      <c r="S232" s="21"/>
       <c r="T232" s="5"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="21"/>
-      <c r="F233" s="21"/>
-      <c r="G233" s="21"/>
-      <c r="H233" s="21"/>
-      <c r="I233" s="21"/>
-      <c r="J233" s="21"/>
-      <c r="K233" s="21"/>
-      <c r="L233" s="21"/>
-      <c r="M233" s="21"/>
-      <c r="N233" s="21"/>
-      <c r="O233" s="21"/>
-      <c r="P233" s="21"/>
-      <c r="Q233" s="21"/>
-      <c r="R233" s="21"/>
-      <c r="S233" s="21"/>
       <c r="T233" s="5"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="21"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
-      <c r="J234" s="21"/>
-      <c r="K234" s="21"/>
-      <c r="L234" s="21"/>
-      <c r="M234" s="21"/>
-      <c r="N234" s="21"/>
-      <c r="O234" s="21"/>
-      <c r="P234" s="21"/>
-      <c r="Q234" s="21"/>
-      <c r="R234" s="21"/>
-      <c r="S234" s="21"/>
       <c r="T234" s="5"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
-      <c r="H235" s="21"/>
-      <c r="I235" s="21"/>
-      <c r="J235" s="21"/>
-      <c r="K235" s="21"/>
-      <c r="L235" s="21"/>
-      <c r="M235" s="21"/>
-      <c r="N235" s="21"/>
-      <c r="O235" s="21"/>
-      <c r="P235" s="21"/>
-      <c r="Q235" s="21"/>
-      <c r="R235" s="21"/>
-      <c r="S235" s="21"/>
       <c r="T235" s="5"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="21"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="21"/>
-      <c r="J236" s="21"/>
-      <c r="K236" s="21"/>
-      <c r="L236" s="21"/>
-      <c r="M236" s="21"/>
-      <c r="N236" s="21"/>
-      <c r="O236" s="21"/>
-      <c r="P236" s="21"/>
-      <c r="Q236" s="21"/>
-      <c r="R236" s="21"/>
-      <c r="S236" s="21"/>
       <c r="T236" s="5"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="21"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="21"/>
-      <c r="J237" s="21"/>
-      <c r="K237" s="21"/>
-      <c r="L237" s="21"/>
-      <c r="M237" s="21"/>
-      <c r="N237" s="21"/>
-      <c r="O237" s="21"/>
-      <c r="P237" s="21"/>
-      <c r="Q237" s="21"/>
-      <c r="R237" s="21"/>
-      <c r="S237" s="21"/>
       <c r="T237" s="5"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="21"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="21"/>
-      <c r="M238" s="21"/>
-      <c r="N238" s="21"/>
-      <c r="O238" s="21"/>
-      <c r="P238" s="21"/>
-      <c r="Q238" s="21"/>
-      <c r="R238" s="21"/>
-      <c r="S238" s="21"/>
       <c r="T238" s="5"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="B239" s="21"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="21"/>
-      <c r="K239" s="21"/>
-      <c r="L239" s="21"/>
-      <c r="M239" s="21"/>
-      <c r="N239" s="21"/>
-      <c r="O239" s="21"/>
-      <c r="P239" s="21"/>
-      <c r="Q239" s="21"/>
-      <c r="R239" s="21"/>
-      <c r="S239" s="21"/>
       <c r="T239" s="5"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
@@ -12501,7 +10913,7 @@
       <c r="T240" s="9"/>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A243" s="23" t="s">
+      <c r="A243" s="21" t="s">
         <v>188</v>
       </c>
       <c r="B243" s="2"/>
@@ -12526,662 +10938,122 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="21"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="21"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="21"/>
-      <c r="H244" s="21"/>
-      <c r="I244" s="21"/>
-      <c r="J244" s="21"/>
-      <c r="K244" s="21"/>
-      <c r="L244" s="21"/>
-      <c r="M244" s="21"/>
-      <c r="N244" s="21"/>
-      <c r="O244" s="21"/>
-      <c r="P244" s="21"/>
-      <c r="Q244" s="21"/>
-      <c r="R244" s="21"/>
-      <c r="S244" s="21"/>
       <c r="T244" s="5"/>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="21"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="21"/>
-      <c r="F245" s="21"/>
-      <c r="G245" s="21"/>
-      <c r="H245" s="21"/>
-      <c r="I245" s="21"/>
-      <c r="J245" s="21"/>
-      <c r="K245" s="21"/>
-      <c r="L245" s="21"/>
-      <c r="M245" s="21"/>
-      <c r="N245" s="21"/>
-      <c r="O245" s="21"/>
-      <c r="P245" s="21"/>
-      <c r="Q245" s="21"/>
-      <c r="R245" s="21"/>
-      <c r="S245" s="21"/>
       <c r="T245" s="5"/>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="B246" s="21"/>
-      <c r="C246" s="21"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21"/>
-      <c r="F246" s="21"/>
-      <c r="G246" s="21"/>
-      <c r="H246" s="21"/>
-      <c r="I246" s="21"/>
-      <c r="J246" s="21"/>
-      <c r="K246" s="21"/>
-      <c r="L246" s="21"/>
-      <c r="M246" s="21"/>
-      <c r="N246" s="21"/>
-      <c r="O246" s="21"/>
-      <c r="P246" s="21"/>
-      <c r="Q246" s="21"/>
-      <c r="R246" s="21"/>
-      <c r="S246" s="21"/>
       <c r="T246" s="5"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21"/>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
-      <c r="J247" s="21"/>
-      <c r="K247" s="21"/>
-      <c r="L247" s="21"/>
-      <c r="M247" s="21"/>
-      <c r="N247" s="21"/>
-      <c r="O247" s="21"/>
-      <c r="P247" s="21"/>
-      <c r="Q247" s="21"/>
-      <c r="R247" s="21"/>
-      <c r="S247" s="21"/>
       <c r="T247" s="5"/>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="21"/>
-      <c r="F248" s="21"/>
-      <c r="G248" s="21"/>
-      <c r="H248" s="21"/>
-      <c r="I248" s="21"/>
-      <c r="J248" s="21"/>
-      <c r="K248" s="21"/>
-      <c r="L248" s="21"/>
-      <c r="M248" s="21"/>
-      <c r="N248" s="21"/>
-      <c r="O248" s="21"/>
-      <c r="P248" s="21"/>
-      <c r="Q248" s="21"/>
-      <c r="R248" s="21"/>
-      <c r="S248" s="21"/>
       <c r="T248" s="5"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="21"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="21"/>
-      <c r="J249" s="21"/>
-      <c r="K249" s="21"/>
-      <c r="L249" s="21"/>
-      <c r="M249" s="21"/>
-      <c r="N249" s="21"/>
-      <c r="O249" s="21"/>
-      <c r="P249" s="21"/>
-      <c r="Q249" s="21"/>
-      <c r="R249" s="21"/>
-      <c r="S249" s="21"/>
       <c r="T249" s="5"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="21"/>
-      <c r="H250" s="21"/>
-      <c r="I250" s="21"/>
-      <c r="J250" s="21"/>
-      <c r="K250" s="21"/>
-      <c r="L250" s="21"/>
-      <c r="M250" s="21"/>
-      <c r="N250" s="21"/>
-      <c r="O250" s="21"/>
-      <c r="P250" s="21"/>
-      <c r="Q250" s="21"/>
-      <c r="R250" s="21"/>
-      <c r="S250" s="21"/>
       <c r="T250" s="5"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="21"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="21"/>
-      <c r="J251" s="21"/>
-      <c r="K251" s="21"/>
-      <c r="L251" s="21"/>
-      <c r="M251" s="21"/>
-      <c r="N251" s="21"/>
-      <c r="O251" s="21"/>
-      <c r="P251" s="21"/>
-      <c r="Q251" s="21"/>
-      <c r="R251" s="21"/>
-      <c r="S251" s="21"/>
       <c r="T251" s="5"/>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="21"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="21"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="21"/>
-      <c r="J252" s="21"/>
-      <c r="K252" s="21"/>
-      <c r="L252" s="21"/>
-      <c r="M252" s="21"/>
-      <c r="N252" s="21"/>
-      <c r="O252" s="21"/>
-      <c r="P252" s="21"/>
-      <c r="Q252" s="21"/>
-      <c r="R252" s="21"/>
-      <c r="S252" s="21"/>
       <c r="T252" s="5"/>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
-      <c r="J253" s="21"/>
-      <c r="K253" s="21"/>
-      <c r="L253" s="21"/>
-      <c r="M253" s="21"/>
-      <c r="N253" s="21"/>
-      <c r="O253" s="21"/>
-      <c r="P253" s="21"/>
-      <c r="Q253" s="21"/>
-      <c r="R253" s="21"/>
-      <c r="S253" s="21"/>
       <c r="T253" s="5"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
-      <c r="H254" s="21"/>
-      <c r="I254" s="21"/>
-      <c r="J254" s="21"/>
-      <c r="K254" s="21"/>
-      <c r="L254" s="21"/>
-      <c r="M254" s="21"/>
-      <c r="N254" s="21"/>
-      <c r="O254" s="21"/>
-      <c r="P254" s="21"/>
-      <c r="Q254" s="21"/>
-      <c r="R254" s="21"/>
-      <c r="S254" s="21"/>
       <c r="T254" s="5"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="21"/>
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="21"/>
-      <c r="J255" s="21"/>
-      <c r="K255" s="21"/>
-      <c r="L255" s="21"/>
-      <c r="M255" s="21"/>
-      <c r="N255" s="21"/>
-      <c r="O255" s="21"/>
-      <c r="P255" s="21"/>
-      <c r="Q255" s="21"/>
-      <c r="R255" s="21"/>
-      <c r="S255" s="21"/>
       <c r="T255" s="5"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="21"/>
-      <c r="F256" s="21"/>
-      <c r="G256" s="21"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="21"/>
-      <c r="J256" s="21"/>
-      <c r="K256" s="21"/>
-      <c r="L256" s="21"/>
-      <c r="M256" s="21"/>
-      <c r="N256" s="21"/>
-      <c r="O256" s="21"/>
-      <c r="P256" s="21"/>
-      <c r="Q256" s="21"/>
-      <c r="R256" s="21"/>
-      <c r="S256" s="21"/>
       <c r="T256" s="5"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
-      <c r="J257" s="21"/>
-      <c r="K257" s="21"/>
-      <c r="L257" s="21"/>
-      <c r="M257" s="21"/>
-      <c r="N257" s="21"/>
-      <c r="O257" s="21"/>
-      <c r="P257" s="21"/>
-      <c r="Q257" s="21"/>
-      <c r="R257" s="21"/>
-      <c r="S257" s="21"/>
       <c r="T257" s="5"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="21"/>
-      <c r="F258" s="21"/>
-      <c r="G258" s="21"/>
-      <c r="H258" s="21"/>
-      <c r="I258" s="21"/>
-      <c r="J258" s="21"/>
-      <c r="K258" s="21"/>
-      <c r="L258" s="21"/>
-      <c r="M258" s="21"/>
-      <c r="N258" s="21"/>
-      <c r="O258" s="21"/>
-      <c r="P258" s="21"/>
-      <c r="Q258" s="21"/>
-      <c r="R258" s="21"/>
-      <c r="S258" s="21"/>
       <c r="T258" s="5"/>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-      <c r="D259" s="21"/>
-      <c r="E259" s="21"/>
-      <c r="F259" s="21"/>
-      <c r="G259" s="21"/>
-      <c r="H259" s="21"/>
-      <c r="I259" s="21"/>
-      <c r="J259" s="21"/>
-      <c r="K259" s="21"/>
-      <c r="L259" s="21"/>
-      <c r="M259" s="21"/>
-      <c r="N259" s="21"/>
-      <c r="O259" s="21"/>
-      <c r="P259" s="21"/>
-      <c r="Q259" s="21"/>
-      <c r="R259" s="21"/>
-      <c r="S259" s="21"/>
       <c r="T259" s="5"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="21"/>
-      <c r="F260" s="21"/>
-      <c r="G260" s="21"/>
-      <c r="H260" s="21"/>
-      <c r="I260" s="21"/>
-      <c r="J260" s="21"/>
-      <c r="K260" s="21"/>
-      <c r="L260" s="21"/>
-      <c r="M260" s="21"/>
-      <c r="N260" s="21"/>
-      <c r="O260" s="21"/>
-      <c r="P260" s="21"/>
-      <c r="Q260" s="21"/>
-      <c r="R260" s="21"/>
-      <c r="S260" s="21"/>
       <c r="T260" s="5"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="21"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="21"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="21"/>
-      <c r="J261" s="21"/>
-      <c r="K261" s="21"/>
-      <c r="L261" s="21"/>
-      <c r="M261" s="21"/>
-      <c r="N261" s="21"/>
-      <c r="O261" s="21"/>
-      <c r="P261" s="21"/>
-      <c r="Q261" s="21"/>
-      <c r="R261" s="21"/>
-      <c r="S261" s="21"/>
       <c r="T261" s="5"/>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="21"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-      <c r="L262" s="21"/>
-      <c r="M262" s="21"/>
-      <c r="N262" s="21"/>
-      <c r="O262" s="21"/>
-      <c r="P262" s="21"/>
-      <c r="Q262" s="21"/>
-      <c r="R262" s="21"/>
-      <c r="S262" s="21"/>
       <c r="T262" s="5"/>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="B263" s="21"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="21"/>
-      <c r="F263" s="21"/>
-      <c r="G263" s="21"/>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
-      <c r="N263" s="21"/>
-      <c r="O263" s="21"/>
-      <c r="P263" s="21"/>
-      <c r="Q263" s="21"/>
-      <c r="R263" s="21"/>
-      <c r="S263" s="21"/>
       <c r="T263" s="5"/>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="B264" s="21"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="21"/>
-      <c r="F264" s="21"/>
-      <c r="G264" s="21"/>
-      <c r="H264" s="21"/>
-      <c r="I264" s="21"/>
-      <c r="J264" s="21"/>
-      <c r="K264" s="21"/>
-      <c r="L264" s="21"/>
-      <c r="M264" s="21"/>
-      <c r="N264" s="21"/>
-      <c r="O264" s="21"/>
-      <c r="P264" s="21"/>
-      <c r="Q264" s="21"/>
-      <c r="R264" s="21"/>
-      <c r="S264" s="21"/>
       <c r="T264" s="5"/>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="B265" s="21"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="21"/>
-      <c r="F265" s="21"/>
-      <c r="G265" s="21"/>
-      <c r="H265" s="21"/>
-      <c r="I265" s="21"/>
-      <c r="J265" s="21"/>
-      <c r="K265" s="21"/>
-      <c r="L265" s="21"/>
-      <c r="M265" s="21"/>
-      <c r="N265" s="21"/>
-      <c r="O265" s="21"/>
-      <c r="P265" s="21"/>
-      <c r="Q265" s="21"/>
-      <c r="R265" s="21"/>
-      <c r="S265" s="21"/>
       <c r="T265" s="5"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="B266" s="21"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="21"/>
-      <c r="F266" s="21"/>
-      <c r="G266" s="21"/>
-      <c r="H266" s="21"/>
-      <c r="I266" s="21"/>
-      <c r="J266" s="21"/>
-      <c r="K266" s="21"/>
-      <c r="L266" s="21"/>
-      <c r="M266" s="21"/>
-      <c r="N266" s="21"/>
-      <c r="O266" s="21"/>
-      <c r="P266" s="21"/>
-      <c r="Q266" s="21"/>
-      <c r="R266" s="21"/>
-      <c r="S266" s="21"/>
       <c r="T266" s="5"/>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="21"/>
-      <c r="F267" s="21"/>
-      <c r="G267" s="21"/>
-      <c r="H267" s="21"/>
-      <c r="I267" s="21"/>
-      <c r="J267" s="21"/>
-      <c r="K267" s="21"/>
-      <c r="L267" s="21"/>
-      <c r="M267" s="21"/>
-      <c r="N267" s="21"/>
-      <c r="O267" s="21"/>
-      <c r="P267" s="21"/>
-      <c r="Q267" s="21"/>
-      <c r="R267" s="21"/>
-      <c r="S267" s="21"/>
       <c r="T267" s="5"/>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="21"/>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="21"/>
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="21"/>
-      <c r="N268" s="21"/>
-      <c r="O268" s="21"/>
-      <c r="P268" s="21"/>
-      <c r="Q268" s="21"/>
-      <c r="R268" s="21"/>
-      <c r="S268" s="21"/>
       <c r="T268" s="5"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="21"/>
-      <c r="F269" s="21"/>
-      <c r="G269" s="21"/>
-      <c r="H269" s="21"/>
-      <c r="I269" s="21"/>
-      <c r="J269" s="21"/>
-      <c r="K269" s="21"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="21"/>
-      <c r="N269" s="21"/>
-      <c r="O269" s="21"/>
-      <c r="P269" s="21"/>
-      <c r="Q269" s="21"/>
-      <c r="R269" s="21"/>
-      <c r="S269" s="21"/>
       <c r="T269" s="5"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="B270" s="21"/>
-      <c r="C270" s="21"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="21"/>
-      <c r="F270" s="21"/>
-      <c r="G270" s="21"/>
-      <c r="H270" s="21"/>
-      <c r="I270" s="21"/>
-      <c r="J270" s="21"/>
-      <c r="K270" s="21"/>
-      <c r="L270" s="21"/>
-      <c r="M270" s="21"/>
-      <c r="N270" s="21"/>
-      <c r="O270" s="21"/>
-      <c r="P270" s="21"/>
-      <c r="Q270" s="21"/>
-      <c r="R270" s="21"/>
-      <c r="S270" s="21"/>
       <c r="T270" s="5"/>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="21"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="21"/>
-      <c r="F271" s="21"/>
-      <c r="G271" s="21"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="21"/>
-      <c r="K271" s="21"/>
-      <c r="L271" s="21"/>
-      <c r="M271" s="21"/>
-      <c r="N271" s="21"/>
-      <c r="O271" s="21"/>
-      <c r="P271" s="21"/>
-      <c r="Q271" s="21"/>
-      <c r="R271" s="21"/>
-      <c r="S271" s="21"/>
       <c r="T271" s="5"/>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="21"/>
-      <c r="F272" s="21"/>
-      <c r="G272" s="21"/>
-      <c r="H272" s="21"/>
-      <c r="I272" s="21"/>
-      <c r="J272" s="21"/>
-      <c r="K272" s="21"/>
-      <c r="L272" s="21"/>
-      <c r="M272" s="21"/>
-      <c r="N272" s="21"/>
-      <c r="O272" s="21"/>
-      <c r="P272" s="21"/>
-      <c r="Q272" s="21"/>
-      <c r="R272" s="21"/>
-      <c r="S272" s="21"/>
       <c r="T272" s="5"/>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="B273" s="21"/>
-      <c r="C273" s="21"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="21"/>
-      <c r="F273" s="21"/>
-      <c r="G273" s="21"/>
-      <c r="H273" s="21"/>
-      <c r="I273" s="21"/>
-      <c r="J273" s="21"/>
-      <c r="K273" s="21"/>
-      <c r="L273" s="21"/>
-      <c r="M273" s="21"/>
-      <c r="N273" s="21"/>
-      <c r="O273" s="21"/>
-      <c r="P273" s="21"/>
-      <c r="Q273" s="21"/>
-      <c r="R273" s="21"/>
-      <c r="S273" s="21"/>
       <c r="T273" s="5"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
@@ -13210,4 +11082,2886 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A50A41-794D-4E7D-8077-9D23A64EA030}">
+  <dimension ref="A3:T255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W231" sqref="W231"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="D61" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="D64" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="L64" s="5"/>
+      <c r="M64" t="s">
+        <v>89</v>
+      </c>
+      <c r="N64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="I77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="I80" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="I84" t="s">
+        <v>35</v>
+      </c>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="I85" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="I86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="I87" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="I88" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="I90" t="s">
+        <v>41</v>
+      </c>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="I92" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="I93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="I94" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="I95" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="I96" t="s">
+        <v>47</v>
+      </c>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="J97" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="J98" t="s">
+        <v>49</v>
+      </c>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="I99" t="s">
+        <v>50</v>
+      </c>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="J100" t="s">
+        <v>51</v>
+      </c>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="J101" t="s">
+        <v>52</v>
+      </c>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="J102" t="s">
+        <v>53</v>
+      </c>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="J103" t="s">
+        <v>54</v>
+      </c>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="I104" t="s">
+        <v>55</v>
+      </c>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="J105" t="s">
+        <v>56</v>
+      </c>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="I106" t="s">
+        <v>57</v>
+      </c>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="J107" t="s">
+        <v>58</v>
+      </c>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="J108" t="s">
+        <v>59</v>
+      </c>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="J109" t="s">
+        <v>60</v>
+      </c>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="J110" t="s">
+        <v>61</v>
+      </c>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="I111" t="s">
+        <v>62</v>
+      </c>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="J112" t="s">
+        <v>63</v>
+      </c>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="J113" t="s">
+        <v>64</v>
+      </c>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="J114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="I115" t="s">
+        <v>66</v>
+      </c>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="J116" t="s">
+        <v>67</v>
+      </c>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="I117" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="J118" t="s">
+        <v>69</v>
+      </c>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="J119" t="s">
+        <v>70</v>
+      </c>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="J120" t="s">
+        <v>71</v>
+      </c>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="J121" t="s">
+        <v>72</v>
+      </c>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="I122" t="s">
+        <v>73</v>
+      </c>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="J123" t="s">
+        <v>74</v>
+      </c>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="J124" t="s">
+        <v>75</v>
+      </c>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="J125" t="s">
+        <v>76</v>
+      </c>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="I126" t="s">
+        <v>77</v>
+      </c>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="J127" t="s">
+        <v>78</v>
+      </c>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="J128" t="s">
+        <v>79</v>
+      </c>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="J129" t="s">
+        <v>80</v>
+      </c>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="I130" t="s">
+        <v>81</v>
+      </c>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="I131" t="s">
+        <v>82</v>
+      </c>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="I132" t="s">
+        <v>83</v>
+      </c>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="E133" t="s">
+        <v>84</v>
+      </c>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="9"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="9"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="3"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="23"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="23"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="23"/>
+      <c r="O162" s="23"/>
+      <c r="P162" s="23"/>
+      <c r="Q162" s="23"/>
+      <c r="R162" s="23"/>
+      <c r="S162" s="5"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23"/>
+      <c r="J163" s="23"/>
+      <c r="K163" s="23"/>
+      <c r="L163" s="23"/>
+      <c r="M163" s="23"/>
+      <c r="N163" s="23"/>
+      <c r="O163" s="23"/>
+      <c r="P163" s="23"/>
+      <c r="Q163" s="23"/>
+      <c r="R163" s="23"/>
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="23"/>
+      <c r="L164" s="23"/>
+      <c r="M164" s="23"/>
+      <c r="N164" s="23"/>
+      <c r="O164" s="23"/>
+      <c r="P164" s="23"/>
+      <c r="Q164" s="23"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="23"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="23"/>
+      <c r="O165" s="23"/>
+      <c r="P165" s="23"/>
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="5"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="23"/>
+      <c r="K166" s="23"/>
+      <c r="L166" s="23"/>
+      <c r="M166" s="23"/>
+      <c r="N166" s="23"/>
+      <c r="O166" s="23"/>
+      <c r="P166" s="23"/>
+      <c r="Q166" s="23"/>
+      <c r="R166" s="23"/>
+      <c r="S166" s="5"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="23"/>
+      <c r="K167" s="23"/>
+      <c r="L167" s="23"/>
+      <c r="M167" s="23"/>
+      <c r="N167" s="23"/>
+      <c r="O167" s="23"/>
+      <c r="P167" s="23"/>
+      <c r="Q167" s="23"/>
+      <c r="R167" s="23"/>
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="23"/>
+      <c r="K168" s="23"/>
+      <c r="L168" s="23"/>
+      <c r="M168" s="23"/>
+      <c r="N168" s="23"/>
+      <c r="O168" s="23"/>
+      <c r="P168" s="23"/>
+      <c r="Q168" s="23"/>
+      <c r="R168" s="23"/>
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="23"/>
+      <c r="K169" s="23"/>
+      <c r="L169" s="23"/>
+      <c r="M169" s="23"/>
+      <c r="N169" s="23"/>
+      <c r="O169" s="23"/>
+      <c r="P169" s="23"/>
+      <c r="Q169" s="23"/>
+      <c r="R169" s="23"/>
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="23"/>
+      <c r="K170" s="23"/>
+      <c r="L170" s="23"/>
+      <c r="M170" s="23"/>
+      <c r="N170" s="23"/>
+      <c r="O170" s="23"/>
+      <c r="P170" s="23"/>
+      <c r="Q170" s="23"/>
+      <c r="R170" s="23"/>
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="23"/>
+      <c r="J171" s="23"/>
+      <c r="K171" s="23"/>
+      <c r="L171" s="23"/>
+      <c r="M171" s="23"/>
+      <c r="N171" s="23"/>
+      <c r="O171" s="23"/>
+      <c r="P171" s="23"/>
+      <c r="Q171" s="23"/>
+      <c r="R171" s="23"/>
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="23"/>
+      <c r="K172" s="23"/>
+      <c r="L172" s="23"/>
+      <c r="M172" s="23"/>
+      <c r="N172" s="23"/>
+      <c r="O172" s="23"/>
+      <c r="P172" s="23"/>
+      <c r="Q172" s="23"/>
+      <c r="R172" s="23"/>
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
+      <c r="I173" s="23"/>
+      <c r="J173" s="23"/>
+      <c r="K173" s="23"/>
+      <c r="L173" s="23"/>
+      <c r="M173" s="23"/>
+      <c r="N173" s="23"/>
+      <c r="O173" s="23"/>
+      <c r="P173" s="23"/>
+      <c r="Q173" s="23"/>
+      <c r="R173" s="23"/>
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="23"/>
+      <c r="K174" s="23"/>
+      <c r="L174" s="23"/>
+      <c r="M174" s="23"/>
+      <c r="N174" s="23"/>
+      <c r="O174" s="23"/>
+      <c r="P174" s="23"/>
+      <c r="Q174" s="23"/>
+      <c r="R174" s="23"/>
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="23"/>
+      <c r="K175" s="23"/>
+      <c r="L175" s="23"/>
+      <c r="M175" s="23"/>
+      <c r="N175" s="23"/>
+      <c r="O175" s="23"/>
+      <c r="P175" s="23"/>
+      <c r="Q175" s="23"/>
+      <c r="R175" s="23"/>
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="23"/>
+      <c r="K176" s="23"/>
+      <c r="L176" s="23"/>
+      <c r="M176" s="23"/>
+      <c r="N176" s="23"/>
+      <c r="O176" s="23"/>
+      <c r="P176" s="23"/>
+      <c r="Q176" s="23"/>
+      <c r="R176" s="23"/>
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="23"/>
+      <c r="K177" s="23"/>
+      <c r="L177" s="23"/>
+      <c r="M177" s="23"/>
+      <c r="N177" s="23"/>
+      <c r="O177" s="23"/>
+      <c r="P177" s="23"/>
+      <c r="Q177" s="23"/>
+      <c r="R177" s="23"/>
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="23"/>
+      <c r="K178" s="23"/>
+      <c r="L178" s="23"/>
+      <c r="M178" s="23"/>
+      <c r="N178" s="23"/>
+      <c r="O178" s="23"/>
+      <c r="P178" s="23"/>
+      <c r="Q178" s="23"/>
+      <c r="R178" s="23"/>
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="23"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="23"/>
+      <c r="K179" s="23"/>
+      <c r="L179" s="23"/>
+      <c r="M179" s="23"/>
+      <c r="N179" s="23"/>
+      <c r="O179" s="23"/>
+      <c r="P179" s="23"/>
+      <c r="Q179" s="23"/>
+      <c r="R179" s="23"/>
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="23"/>
+      <c r="K180" s="23"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="23"/>
+      <c r="N180" s="23"/>
+      <c r="O180" s="23"/>
+      <c r="P180" s="23"/>
+      <c r="Q180" s="23"/>
+      <c r="R180" s="23"/>
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="23"/>
+      <c r="N181" s="23"/>
+      <c r="O181" s="23"/>
+      <c r="P181" s="23"/>
+      <c r="Q181" s="23"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="23"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="23"/>
+      <c r="L182" s="23"/>
+      <c r="M182" s="23"/>
+      <c r="N182" s="23"/>
+      <c r="O182" s="23"/>
+      <c r="P182" s="23"/>
+      <c r="Q182" s="23"/>
+      <c r="R182" s="23"/>
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="23"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="23"/>
+      <c r="K183" s="23"/>
+      <c r="L183" s="23"/>
+      <c r="M183" s="23"/>
+      <c r="N183" s="23"/>
+      <c r="O183" s="23"/>
+      <c r="P183" s="23"/>
+      <c r="Q183" s="23"/>
+      <c r="R183" s="23"/>
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="23"/>
+      <c r="M184" s="23"/>
+      <c r="N184" s="23"/>
+      <c r="O184" s="23"/>
+      <c r="P184" s="23"/>
+      <c r="Q184" s="23"/>
+      <c r="R184" s="23"/>
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="23"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="23"/>
+      <c r="K185" s="23"/>
+      <c r="L185" s="23"/>
+      <c r="M185" s="23"/>
+      <c r="N185" s="23"/>
+      <c r="O185" s="23"/>
+      <c r="P185" s="23"/>
+      <c r="Q185" s="23"/>
+      <c r="R185" s="23"/>
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="23"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="23"/>
+      <c r="L186" s="23"/>
+      <c r="M186" s="23"/>
+      <c r="N186" s="23"/>
+      <c r="O186" s="23"/>
+      <c r="P186" s="23"/>
+      <c r="Q186" s="23"/>
+      <c r="R186" s="23"/>
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="23"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="23"/>
+      <c r="N187" s="23"/>
+      <c r="O187" s="23"/>
+      <c r="P187" s="23"/>
+      <c r="Q187" s="23"/>
+      <c r="R187" s="23"/>
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="23"/>
+      <c r="I188" s="23"/>
+      <c r="J188" s="23"/>
+      <c r="K188" s="23"/>
+      <c r="L188" s="23"/>
+      <c r="M188" s="23"/>
+      <c r="N188" s="23"/>
+      <c r="O188" s="23"/>
+      <c r="P188" s="23"/>
+      <c r="Q188" s="23"/>
+      <c r="R188" s="23"/>
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="23"/>
+      <c r="I189" s="23"/>
+      <c r="J189" s="23"/>
+      <c r="K189" s="23"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="23"/>
+      <c r="N189" s="23"/>
+      <c r="O189" s="23"/>
+      <c r="P189" s="23"/>
+      <c r="Q189" s="23"/>
+      <c r="R189" s="23"/>
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+      <c r="O190" s="23"/>
+      <c r="P190" s="23"/>
+      <c r="Q190" s="23"/>
+      <c r="R190" s="23"/>
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="23"/>
+      <c r="G191" s="23"/>
+      <c r="H191" s="23"/>
+      <c r="I191" s="23"/>
+      <c r="J191" s="23"/>
+      <c r="K191" s="23"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="23"/>
+      <c r="O191" s="23"/>
+      <c r="P191" s="23"/>
+      <c r="Q191" s="23"/>
+      <c r="R191" s="23"/>
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="23"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="23"/>
+      <c r="K192" s="23"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="23"/>
+      <c r="N192" s="23"/>
+      <c r="O192" s="23"/>
+      <c r="P192" s="23"/>
+      <c r="Q192" s="23"/>
+      <c r="R192" s="23"/>
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="23"/>
+      <c r="I193" s="23"/>
+      <c r="J193" s="23"/>
+      <c r="K193" s="23"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="23"/>
+      <c r="O193" s="23"/>
+      <c r="P193" s="23"/>
+      <c r="Q193" s="23"/>
+      <c r="R193" s="23"/>
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="23"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="23"/>
+      <c r="O194" s="23"/>
+      <c r="P194" s="23"/>
+      <c r="Q194" s="23"/>
+      <c r="R194" s="23"/>
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="23"/>
+      <c r="H196" s="23"/>
+      <c r="I196" s="23"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="23"/>
+      <c r="P196" s="23"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
+      <c r="H197" s="23"/>
+      <c r="I197" s="23"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="23"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="8"/>
+      <c r="M198" s="8"/>
+      <c r="N198" s="8"/>
+      <c r="O198" s="8"/>
+      <c r="P198" s="8"/>
+      <c r="Q198" s="8"/>
+      <c r="R198" s="8"/>
+      <c r="S198" s="9"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="3"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="23"/>
+      <c r="H202" s="23"/>
+      <c r="I202" s="23"/>
+      <c r="J202" s="23"/>
+      <c r="K202" s="23"/>
+      <c r="L202" s="23"/>
+      <c r="M202" s="23"/>
+      <c r="N202" s="23"/>
+      <c r="O202" s="23"/>
+      <c r="P202" s="23"/>
+      <c r="Q202" s="23"/>
+      <c r="R202" s="23"/>
+      <c r="S202" s="5"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="23"/>
+      <c r="J203" s="23"/>
+      <c r="K203" s="23"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="23"/>
+      <c r="N203" s="23"/>
+      <c r="O203" s="23"/>
+      <c r="P203" s="23"/>
+      <c r="Q203" s="23"/>
+      <c r="R203" s="23"/>
+      <c r="S203" s="5"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="23"/>
+      <c r="I204" s="23"/>
+      <c r="J204" s="23"/>
+      <c r="K204" s="23"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="23"/>
+      <c r="N204" s="23"/>
+      <c r="O204" s="23"/>
+      <c r="P204" s="23"/>
+      <c r="Q204" s="23"/>
+      <c r="R204" s="23"/>
+      <c r="S204" s="5"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23"/>
+      <c r="H205" s="23"/>
+      <c r="I205" s="23"/>
+      <c r="J205" s="23"/>
+      <c r="K205" s="23"/>
+      <c r="L205" s="23"/>
+      <c r="M205" s="23"/>
+      <c r="N205" s="23"/>
+      <c r="O205" s="23"/>
+      <c r="P205" s="23"/>
+      <c r="Q205" s="23"/>
+      <c r="R205" s="23"/>
+      <c r="S205" s="5"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="23"/>
+      <c r="H206" s="23"/>
+      <c r="I206" s="23"/>
+      <c r="J206" s="23"/>
+      <c r="K206" s="23"/>
+      <c r="L206" s="23"/>
+      <c r="M206" s="23"/>
+      <c r="N206" s="23"/>
+      <c r="O206" s="23"/>
+      <c r="P206" s="23"/>
+      <c r="Q206" s="23"/>
+      <c r="R206" s="23"/>
+      <c r="S206" s="5"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="23"/>
+      <c r="H207" s="23"/>
+      <c r="I207" s="23"/>
+      <c r="J207" s="23"/>
+      <c r="K207" s="23"/>
+      <c r="L207" s="23"/>
+      <c r="M207" s="23"/>
+      <c r="N207" s="23"/>
+      <c r="O207" s="23"/>
+      <c r="P207" s="23"/>
+      <c r="Q207" s="23"/>
+      <c r="R207" s="23"/>
+      <c r="S207" s="5"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="23"/>
+      <c r="I208" s="23"/>
+      <c r="J208" s="23"/>
+      <c r="K208" s="23"/>
+      <c r="L208" s="23"/>
+      <c r="M208" s="23"/>
+      <c r="N208" s="23"/>
+      <c r="O208" s="23"/>
+      <c r="P208" s="23"/>
+      <c r="Q208" s="23"/>
+      <c r="R208" s="23"/>
+      <c r="S208" s="5"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="23"/>
+      <c r="I209" s="23"/>
+      <c r="J209" s="23"/>
+      <c r="K209" s="23"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="23"/>
+      <c r="N209" s="23"/>
+      <c r="O209" s="23"/>
+      <c r="P209" s="23"/>
+      <c r="Q209" s="23"/>
+      <c r="R209" s="23"/>
+      <c r="S209" s="5"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="23"/>
+      <c r="H210" s="23"/>
+      <c r="I210" s="23"/>
+      <c r="J210" s="23"/>
+      <c r="K210" s="23"/>
+      <c r="L210" s="23"/>
+      <c r="M210" s="23"/>
+      <c r="N210" s="23"/>
+      <c r="O210" s="23"/>
+      <c r="P210" s="23"/>
+      <c r="Q210" s="23"/>
+      <c r="R210" s="23"/>
+      <c r="S210" s="5"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="23"/>
+      <c r="I211" s="23"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="23"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="23"/>
+      <c r="N211" s="23"/>
+      <c r="O211" s="23"/>
+      <c r="P211" s="23"/>
+      <c r="Q211" s="23"/>
+      <c r="R211" s="23"/>
+      <c r="S211" s="5"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="23"/>
+      <c r="I212" s="23"/>
+      <c r="J212" s="23"/>
+      <c r="K212" s="23"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="23"/>
+      <c r="N212" s="23"/>
+      <c r="O212" s="23"/>
+      <c r="P212" s="23"/>
+      <c r="Q212" s="23"/>
+      <c r="R212" s="23"/>
+      <c r="S212" s="5"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="23"/>
+      <c r="J213" s="23"/>
+      <c r="K213" s="23"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="23"/>
+      <c r="N213" s="23"/>
+      <c r="O213" s="23"/>
+      <c r="P213" s="23"/>
+      <c r="Q213" s="23"/>
+      <c r="R213" s="23"/>
+      <c r="S213" s="5"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23"/>
+      <c r="H214" s="23"/>
+      <c r="I214" s="23"/>
+      <c r="J214" s="23"/>
+      <c r="K214" s="23"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="23"/>
+      <c r="N214" s="23"/>
+      <c r="O214" s="23"/>
+      <c r="P214" s="23"/>
+      <c r="Q214" s="23"/>
+      <c r="R214" s="23"/>
+      <c r="S214" s="5"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
+      <c r="H215" s="23"/>
+      <c r="I215" s="23"/>
+      <c r="J215" s="23"/>
+      <c r="K215" s="23"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="23"/>
+      <c r="N215" s="23"/>
+      <c r="O215" s="23"/>
+      <c r="P215" s="23"/>
+      <c r="Q215" s="23"/>
+      <c r="R215" s="23"/>
+      <c r="S215" s="5"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="23"/>
+      <c r="K216" s="23"/>
+      <c r="L216" s="23"/>
+      <c r="M216" s="23"/>
+      <c r="N216" s="23"/>
+      <c r="O216" s="23"/>
+      <c r="P216" s="23"/>
+      <c r="Q216" s="23"/>
+      <c r="R216" s="23"/>
+      <c r="S216" s="5"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="23"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="23"/>
+      <c r="N217" s="23"/>
+      <c r="O217" s="23"/>
+      <c r="P217" s="23"/>
+      <c r="Q217" s="23"/>
+      <c r="R217" s="23"/>
+      <c r="S217" s="5"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23"/>
+      <c r="H218" s="23"/>
+      <c r="I218" s="23"/>
+      <c r="J218" s="23"/>
+      <c r="K218" s="23"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="23"/>
+      <c r="N218" s="23"/>
+      <c r="O218" s="23"/>
+      <c r="P218" s="23"/>
+      <c r="Q218" s="23"/>
+      <c r="R218" s="23"/>
+      <c r="S218" s="5"/>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="23"/>
+      <c r="K219" s="23"/>
+      <c r="L219" s="23"/>
+      <c r="M219" s="23"/>
+      <c r="N219" s="23"/>
+      <c r="O219" s="23"/>
+      <c r="P219" s="23"/>
+      <c r="Q219" s="23"/>
+      <c r="R219" s="23"/>
+      <c r="S219" s="5"/>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="23"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="23"/>
+      <c r="O220" s="23"/>
+      <c r="P220" s="23"/>
+      <c r="Q220" s="23"/>
+      <c r="R220" s="23"/>
+      <c r="S220" s="5"/>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23"/>
+      <c r="H221" s="23"/>
+      <c r="I221" s="23"/>
+      <c r="J221" s="23"/>
+      <c r="K221" s="23"/>
+      <c r="L221" s="23"/>
+      <c r="M221" s="23"/>
+      <c r="N221" s="23"/>
+      <c r="O221" s="23"/>
+      <c r="P221" s="23"/>
+      <c r="Q221" s="23"/>
+      <c r="R221" s="23"/>
+      <c r="S221" s="5"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="23"/>
+      <c r="K222" s="23"/>
+      <c r="L222" s="23"/>
+      <c r="M222" s="23"/>
+      <c r="N222" s="23"/>
+      <c r="O222" s="23"/>
+      <c r="P222" s="23"/>
+      <c r="Q222" s="23"/>
+      <c r="R222" s="23"/>
+      <c r="S222" s="5"/>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
+      <c r="L223" s="8"/>
+      <c r="M223" s="8"/>
+      <c r="N223" s="8"/>
+      <c r="O223" s="8"/>
+      <c r="P223" s="8"/>
+      <c r="Q223" s="8"/>
+      <c r="R223" s="8"/>
+      <c r="S223" s="9"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="3"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
+      <c r="I227" s="23"/>
+      <c r="J227" s="23"/>
+      <c r="K227" s="23"/>
+      <c r="L227" s="23"/>
+      <c r="M227" s="23"/>
+      <c r="N227" s="23"/>
+      <c r="O227" s="23"/>
+      <c r="P227" s="23"/>
+      <c r="Q227" s="23"/>
+      <c r="R227" s="23"/>
+      <c r="S227" s="23"/>
+      <c r="T227" s="5"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
+      <c r="J228" s="23"/>
+      <c r="K228" s="23"/>
+      <c r="L228" s="23"/>
+      <c r="M228" s="23"/>
+      <c r="N228" s="23"/>
+      <c r="O228" s="23"/>
+      <c r="P228" s="23"/>
+      <c r="Q228" s="23"/>
+      <c r="R228" s="23"/>
+      <c r="S228" s="23"/>
+      <c r="T228" s="5"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
+      <c r="J229" s="23"/>
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="23"/>
+      <c r="N229" s="23"/>
+      <c r="O229" s="23"/>
+      <c r="P229" s="23"/>
+      <c r="Q229" s="23"/>
+      <c r="R229" s="23"/>
+      <c r="S229" s="23"/>
+      <c r="T229" s="5"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="23"/>
+      <c r="K230" s="23"/>
+      <c r="L230" s="23"/>
+      <c r="M230" s="23"/>
+      <c r="N230" s="23"/>
+      <c r="O230" s="23"/>
+      <c r="P230" s="23"/>
+      <c r="Q230" s="23"/>
+      <c r="R230" s="23"/>
+      <c r="S230" s="23"/>
+      <c r="T230" s="5"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="23"/>
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="23"/>
+      <c r="I231" s="23"/>
+      <c r="J231" s="23"/>
+      <c r="K231" s="23"/>
+      <c r="L231" s="23"/>
+      <c r="M231" s="23"/>
+      <c r="N231" s="23"/>
+      <c r="O231" s="23"/>
+      <c r="P231" s="23"/>
+      <c r="Q231" s="23"/>
+      <c r="R231" s="23"/>
+      <c r="S231" s="23"/>
+      <c r="T231" s="5"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="23"/>
+      <c r="N232" s="23"/>
+      <c r="O232" s="23"/>
+      <c r="P232" s="23"/>
+      <c r="Q232" s="23"/>
+      <c r="R232" s="23"/>
+      <c r="S232" s="23"/>
+      <c r="T232" s="5"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="23"/>
+      <c r="M233" s="23"/>
+      <c r="N233" s="23"/>
+      <c r="O233" s="23"/>
+      <c r="P233" s="23"/>
+      <c r="Q233" s="23"/>
+      <c r="R233" s="23"/>
+      <c r="S233" s="23"/>
+      <c r="T233" s="5"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
+      <c r="H234" s="23"/>
+      <c r="I234" s="23"/>
+      <c r="J234" s="23"/>
+      <c r="K234" s="23"/>
+      <c r="L234" s="23"/>
+      <c r="M234" s="23"/>
+      <c r="N234" s="23"/>
+      <c r="O234" s="23"/>
+      <c r="P234" s="23"/>
+      <c r="Q234" s="23"/>
+      <c r="R234" s="23"/>
+      <c r="S234" s="23"/>
+      <c r="T234" s="5"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="23"/>
+      <c r="O235" s="23"/>
+      <c r="P235" s="23"/>
+      <c r="Q235" s="23"/>
+      <c r="R235" s="23"/>
+      <c r="S235" s="23"/>
+      <c r="T235" s="5"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="23"/>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="23"/>
+      <c r="M236" s="23"/>
+      <c r="N236" s="23"/>
+      <c r="O236" s="23"/>
+      <c r="P236" s="23"/>
+      <c r="Q236" s="23"/>
+      <c r="R236" s="23"/>
+      <c r="S236" s="23"/>
+      <c r="T236" s="5"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="23"/>
+      <c r="G237" s="23"/>
+      <c r="H237" s="23"/>
+      <c r="I237" s="23"/>
+      <c r="J237" s="23"/>
+      <c r="K237" s="23"/>
+      <c r="L237" s="23"/>
+      <c r="M237" s="23"/>
+      <c r="N237" s="23"/>
+      <c r="O237" s="23"/>
+      <c r="P237" s="23"/>
+      <c r="Q237" s="23"/>
+      <c r="R237" s="23"/>
+      <c r="S237" s="23"/>
+      <c r="T237" s="5"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="23"/>
+      <c r="M238" s="23"/>
+      <c r="N238" s="23"/>
+      <c r="O238" s="23"/>
+      <c r="P238" s="23"/>
+      <c r="Q238" s="23"/>
+      <c r="R238" s="23"/>
+      <c r="S238" s="23"/>
+      <c r="T238" s="5"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="23"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="23"/>
+      <c r="O239" s="23"/>
+      <c r="P239" s="23"/>
+      <c r="Q239" s="23"/>
+      <c r="R239" s="23"/>
+      <c r="S239" s="23"/>
+      <c r="T239" s="5"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="23"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="23"/>
+      <c r="J240" s="23"/>
+      <c r="K240" s="23"/>
+      <c r="L240" s="23"/>
+      <c r="M240" s="23"/>
+      <c r="N240" s="23"/>
+      <c r="O240" s="23"/>
+      <c r="P240" s="23"/>
+      <c r="Q240" s="23"/>
+      <c r="R240" s="23"/>
+      <c r="S240" s="23"/>
+      <c r="T240" s="5"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="23"/>
+      <c r="O241" s="23"/>
+      <c r="P241" s="23"/>
+      <c r="Q241" s="23"/>
+      <c r="R241" s="23"/>
+      <c r="S241" s="23"/>
+      <c r="T241" s="5"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23"/>
+      <c r="G242" s="23"/>
+      <c r="H242" s="23"/>
+      <c r="I242" s="23"/>
+      <c r="J242" s="23"/>
+      <c r="K242" s="23"/>
+      <c r="L242" s="23"/>
+      <c r="M242" s="23"/>
+      <c r="N242" s="23"/>
+      <c r="O242" s="23"/>
+      <c r="P242" s="23"/>
+      <c r="Q242" s="23"/>
+      <c r="R242" s="23"/>
+      <c r="S242" s="23"/>
+      <c r="T242" s="5"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
+      <c r="G243" s="23"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="23"/>
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="23"/>
+      <c r="O243" s="23"/>
+      <c r="P243" s="23"/>
+      <c r="Q243" s="23"/>
+      <c r="R243" s="23"/>
+      <c r="S243" s="23"/>
+      <c r="T243" s="5"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23"/>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
+      <c r="J244" s="23"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="23"/>
+      <c r="O244" s="23"/>
+      <c r="P244" s="23"/>
+      <c r="Q244" s="23"/>
+      <c r="R244" s="23"/>
+      <c r="S244" s="23"/>
+      <c r="T244" s="5"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23"/>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
+      <c r="J245" s="23"/>
+      <c r="K245" s="23"/>
+      <c r="L245" s="23"/>
+      <c r="M245" s="23"/>
+      <c r="N245" s="23"/>
+      <c r="O245" s="23"/>
+      <c r="P245" s="23"/>
+      <c r="Q245" s="23"/>
+      <c r="R245" s="23"/>
+      <c r="S245" s="23"/>
+      <c r="T245" s="5"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="23"/>
+      <c r="O246" s="23"/>
+      <c r="P246" s="23"/>
+      <c r="Q246" s="23"/>
+      <c r="R246" s="23"/>
+      <c r="S246" s="23"/>
+      <c r="T246" s="5"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="23"/>
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
+      <c r="J247" s="23"/>
+      <c r="K247" s="23"/>
+      <c r="L247" s="23"/>
+      <c r="M247" s="23"/>
+      <c r="N247" s="23"/>
+      <c r="O247" s="23"/>
+      <c r="P247" s="23"/>
+      <c r="Q247" s="23"/>
+      <c r="R247" s="23"/>
+      <c r="S247" s="23"/>
+      <c r="T247" s="5"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="23"/>
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="23"/>
+      <c r="F248" s="23"/>
+      <c r="G248" s="23"/>
+      <c r="H248" s="23"/>
+      <c r="I248" s="23"/>
+      <c r="J248" s="23"/>
+      <c r="K248" s="23"/>
+      <c r="L248" s="23"/>
+      <c r="M248" s="23"/>
+      <c r="N248" s="23"/>
+      <c r="O248" s="23"/>
+      <c r="P248" s="23"/>
+      <c r="Q248" s="23"/>
+      <c r="R248" s="23"/>
+      <c r="S248" s="23"/>
+      <c r="T248" s="5"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="23"/>
+      <c r="C249" s="23"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="23"/>
+      <c r="G249" s="23"/>
+      <c r="H249" s="23"/>
+      <c r="I249" s="23"/>
+      <c r="J249" s="23"/>
+      <c r="K249" s="23"/>
+      <c r="L249" s="23"/>
+      <c r="M249" s="23"/>
+      <c r="N249" s="23"/>
+      <c r="O249" s="23"/>
+      <c r="P249" s="23"/>
+      <c r="Q249" s="23"/>
+      <c r="R249" s="23"/>
+      <c r="S249" s="23"/>
+      <c r="T249" s="5"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="23"/>
+      <c r="G250" s="23"/>
+      <c r="H250" s="23"/>
+      <c r="I250" s="23"/>
+      <c r="J250" s="23"/>
+      <c r="K250" s="23"/>
+      <c r="L250" s="23"/>
+      <c r="M250" s="23"/>
+      <c r="N250" s="23"/>
+      <c r="O250" s="23"/>
+      <c r="P250" s="23"/>
+      <c r="Q250" s="23"/>
+      <c r="R250" s="23"/>
+      <c r="S250" s="23"/>
+      <c r="T250" s="5"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="23"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="23"/>
+      <c r="G251" s="23"/>
+      <c r="H251" s="23"/>
+      <c r="I251" s="23"/>
+      <c r="J251" s="23"/>
+      <c r="K251" s="23"/>
+      <c r="L251" s="23"/>
+      <c r="M251" s="23"/>
+      <c r="N251" s="23"/>
+      <c r="O251" s="23"/>
+      <c r="P251" s="23"/>
+      <c r="Q251" s="23"/>
+      <c r="R251" s="23"/>
+      <c r="S251" s="23"/>
+      <c r="T251" s="5"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="23"/>
+      <c r="G252" s="23"/>
+      <c r="H252" s="23"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="23"/>
+      <c r="K252" s="23"/>
+      <c r="L252" s="23"/>
+      <c r="M252" s="23"/>
+      <c r="N252" s="23"/>
+      <c r="O252" s="23"/>
+      <c r="P252" s="23"/>
+      <c r="Q252" s="23"/>
+      <c r="R252" s="23"/>
+      <c r="S252" s="23"/>
+      <c r="T252" s="5"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="23"/>
+      <c r="G253" s="23"/>
+      <c r="H253" s="23"/>
+      <c r="I253" s="23"/>
+      <c r="J253" s="23"/>
+      <c r="K253" s="23"/>
+      <c r="L253" s="23"/>
+      <c r="M253" s="23"/>
+      <c r="N253" s="23"/>
+      <c r="O253" s="23"/>
+      <c r="P253" s="23"/>
+      <c r="Q253" s="23"/>
+      <c r="R253" s="23"/>
+      <c r="S253" s="23"/>
+      <c r="T253" s="5"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="23"/>
+      <c r="G254" s="23"/>
+      <c r="H254" s="23"/>
+      <c r="I254" s="23"/>
+      <c r="J254" s="23"/>
+      <c r="K254" s="23"/>
+      <c r="L254" s="23"/>
+      <c r="M254" s="23"/>
+      <c r="N254" s="23"/>
+      <c r="O254" s="23"/>
+      <c r="P254" s="23"/>
+      <c r="Q254" s="23"/>
+      <c r="R254" s="23"/>
+      <c r="S254" s="23"/>
+      <c r="T254" s="5"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+      <c r="J255" s="8"/>
+      <c r="K255" s="8"/>
+      <c r="L255" s="8"/>
+      <c r="M255" s="8"/>
+      <c r="N255" s="8"/>
+      <c r="O255" s="8"/>
+      <c r="P255" s="8"/>
+      <c r="Q255" s="8"/>
+      <c r="R255" s="8"/>
+      <c r="S255" s="8"/>
+      <c r="T255" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>